--- a/src/attributions/attributions_saliency_traj_118.xlsx
+++ b/src/attributions/attributions_saliency_traj_118.xlsx
@@ -2142,2278 +2142,2278 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0001024846424115822</v>
+        <v>1.24121579574421e-05</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0005978539702482522</v>
+        <v>0.0008697346784174442</v>
       </c>
       <c r="C4" t="n">
-        <v>7.356851710937917e-05</v>
+        <v>0.0001382184127578512</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0005696448497474194</v>
+        <v>0.0003143299254588783</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0002133579400833696</v>
+        <v>5.928600148763508e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0002624320622999221</v>
+        <v>0.0004969347501173615</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0001520374207757413</v>
+        <v>2.718000905588269e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0001804605271900073</v>
+        <v>0.0001321922754868865</v>
       </c>
       <c r="I4" t="n">
-        <v>6.409058551071212e-05</v>
+        <v>0.0001335984852630645</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0002288110117660835</v>
+        <v>0.0001618679380044341</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0005064342403784394</v>
+        <v>0.000547311850823462</v>
       </c>
       <c r="L4" t="n">
-        <v>9.394943481311202e-05</v>
+        <v>0.0001496193581260741</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0001864709774963558</v>
+        <v>0.0004052827425766736</v>
       </c>
       <c r="N4" t="n">
-        <v>1.237710966961458e-05</v>
+        <v>5.306148523231968e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>2.740384115895722e-05</v>
+        <v>0.0004233551444485784</v>
       </c>
       <c r="P4" t="n">
-        <v>9.375946683576331e-05</v>
+        <v>5.463894922286272e-06</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0002846350544132292</v>
+        <v>0.0001991783065022901</v>
       </c>
       <c r="R4" t="n">
-        <v>9.069956286111847e-05</v>
+        <v>0.0001041036884998903</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0001181701445602812</v>
+        <v>1.280580363527406e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>0.000161459727678448</v>
+        <v>3.277830546721816e-05</v>
       </c>
       <c r="U4" t="n">
-        <v>6.943849439267069e-05</v>
+        <v>0.0001273156813113019</v>
       </c>
       <c r="V4" t="n">
-        <v>5.787232657894492e-05</v>
+        <v>0.000125619990285486</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0003249735746067017</v>
+        <v>0.0001818337332224473</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0001612647320143878</v>
+        <v>8.226640056818724e-05</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.859356653876603e-05</v>
+        <v>0.0001275142712984234</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0001038361879182048</v>
+        <v>0.0002016297949012369</v>
       </c>
       <c r="AA4" t="n">
-        <v>3.640190243459074e-06</v>
+        <v>9.958483860827982e-05</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0001337839639745653</v>
+        <v>2.067039167741314e-05</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0003018552379216999</v>
+        <v>3.919205482816324e-05</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.420224624685943e-06</v>
+        <v>0.0001978941436391324</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.324895856669173e-05</v>
+        <v>5.870081076864153e-05</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0001225339947268367</v>
+        <v>1.391206933476496e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>7.769710464344826e-06</v>
+        <v>5.926873200223781e-06</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.0001140563617809676</v>
+        <v>0.0001246824103873223</v>
       </c>
       <c r="AI4" t="n">
-        <v>4.986498970538378e-05</v>
+        <v>1.493267245677998e-05</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.0001019414485199377</v>
+        <v>1.406814226356801e-05</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.0001476594334235415</v>
+        <v>1.908888953039423e-05</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.0001710805081529543</v>
+        <v>0.0001143870904343203</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.0001459871127735823</v>
+        <v>0.0001451964053558186</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.00010541825031396</v>
+        <v>8.134978270391002e-05</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.0001879595220088959</v>
+        <v>8.666048961458728e-05</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.0002227321092505008</v>
+        <v>5.823419269290753e-05</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.926255936268717e-05</v>
+        <v>4.339028237154707e-05</v>
       </c>
       <c r="AR4" t="n">
-        <v>3.369023397681303e-05</v>
+        <v>1.237890046468237e-05</v>
       </c>
       <c r="AS4" t="n">
-        <v>7.108228601282462e-07</v>
+        <v>9.619553748052567e-05</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.0003475572739262134</v>
+        <v>9.134044375969097e-05</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.0003605327801778913</v>
+        <v>0.0004295843828003854</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.0001045523240463808</v>
+        <v>0.0002611943928059191</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.0002321724023204297</v>
+        <v>0.0002538431144785136</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.0001557874056743458</v>
+        <v>8.482243174512405e-06</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.0002362684172112495</v>
+        <v>8.284607611130923e-05</v>
       </c>
       <c r="AZ4" t="n">
-        <v>4.598259693011642e-05</v>
+        <v>0.000230246310820803</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.0001182422274723649</v>
+        <v>9.811398922465742e-05</v>
       </c>
       <c r="BB4" t="n">
-        <v>6.197993934620172e-05</v>
+        <v>0.0002219747402705252</v>
       </c>
       <c r="BC4" t="n">
-        <v>9.194662561640143e-05</v>
+        <v>0.0001748172508087009</v>
       </c>
       <c r="BD4" t="n">
-        <v>6.642077642027289e-05</v>
+        <v>5.163893001736142e-05</v>
       </c>
       <c r="BE4" t="n">
-        <v>2.348662383155897e-05</v>
+        <v>0.0001967824646271765</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.0002240415051346645</v>
+        <v>1.083483221009374e-05</v>
       </c>
       <c r="BG4" t="n">
-        <v>3.058826405322179e-05</v>
+        <v>0.0001326080819126219</v>
       </c>
       <c r="BH4" t="n">
-        <v>1.390946454193909e-05</v>
+        <v>0.0001850279950303957</v>
       </c>
       <c r="BI4" t="n">
-        <v>4.388893103168812e-06</v>
+        <v>0.0002789396094158292</v>
       </c>
       <c r="BJ4" t="n">
-        <v>3.330649633426219e-05</v>
+        <v>3.136709710815921e-05</v>
       </c>
       <c r="BK4" t="n">
-        <v>9.733614569995552e-05</v>
+        <v>3.033337634406053e-05</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.0001104169641621411</v>
+        <v>6.562283670064062e-05</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.0002418154617771506</v>
+        <v>1.429119856766192e-05</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.0002102931321132928</v>
+        <v>2.218696863565128e-05</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.0001170063769677654</v>
+        <v>7.151444151531905e-06</v>
       </c>
       <c r="BP4" t="n">
-        <v>6.383102117979433e-06</v>
+        <v>0.0001207660970976576</v>
       </c>
       <c r="BQ4" t="n">
-        <v>4.259778506821021e-05</v>
+        <v>8.131505637720693e-06</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.0001057565750670619</v>
+        <v>4.015672311652452e-05</v>
       </c>
       <c r="BS4" t="n">
-        <v>1.236564276041463e-05</v>
+        <v>0.0001667673786869273</v>
       </c>
       <c r="BT4" t="n">
-        <v>1.757438985805493e-05</v>
+        <v>7.156062929425389e-05</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.0002653167757671326</v>
+        <v>0.0001366913493257016</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.0001049802231136709</v>
+        <v>0.000319250306347385</v>
       </c>
       <c r="BW4" t="n">
-        <v>2.638691512402147e-05</v>
+        <v>0.0001931543229147792</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.0004116205964237452</v>
+        <v>0.0001012205102597363</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.0003900118463207036</v>
+        <v>5.324542871676385e-05</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.0003925056662410498</v>
+        <v>3.035837653442286e-05</v>
       </c>
       <c r="CA4" t="n">
-        <v>2.333255179109983e-05</v>
+        <v>7.34375644242391e-05</v>
       </c>
       <c r="CB4" t="n">
-        <v>6.69575238134712e-05</v>
+        <v>0.0001027640973916277</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.0001182474734378047</v>
+        <v>0.0001173631462734193</v>
       </c>
       <c r="CD4" t="n">
-        <v>9.715451597003266e-05</v>
+        <v>3.057653884752654e-05</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.000162563388585113</v>
+        <v>8.061185508267954e-05</v>
       </c>
       <c r="CF4" t="n">
-        <v>6.269218283705413e-05</v>
+        <v>0.0001165212524938397</v>
       </c>
       <c r="CG4" t="n">
-        <v>5.279939068714157e-05</v>
+        <v>3.845198079943657e-05</v>
       </c>
       <c r="CH4" t="n">
-        <v>9.582841812516563e-06</v>
+        <v>4.780491872224957e-05</v>
       </c>
       <c r="CI4" t="n">
-        <v>6.819132977398112e-05</v>
+        <v>0.0001064651078195311</v>
       </c>
       <c r="CJ4" t="n">
-        <v>5.503534794115694e-06</v>
+        <v>6.191174907144159e-05</v>
       </c>
       <c r="CK4" t="n">
-        <v>9.209405834553763e-05</v>
+        <v>4.868016185355373e-05</v>
       </c>
       <c r="CL4" t="n">
-        <v>1.61887401191052e-05</v>
+        <v>0.00014328453107737</v>
       </c>
       <c r="CM4" t="n">
-        <v>2.399354343651794e-05</v>
+        <v>3.141928573313635e-06</v>
       </c>
       <c r="CN4" t="n">
-        <v>8.42395456857048e-05</v>
+        <v>0.0002314521843800321</v>
       </c>
       <c r="CO4" t="n">
-        <v>4.524743053480051e-05</v>
+        <v>0.0001494516618549824</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.0002290675765834749</v>
+        <v>6.274486077018082e-05</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.0001227247412316501</v>
+        <v>5.137296466273256e-05</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.0003704041009768844</v>
+        <v>6.507157377200201e-05</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.0001720241998555139</v>
+        <v>0.0002071571361739188</v>
       </c>
       <c r="CT4" t="n">
-        <v>8.564675226807594e-05</v>
+        <v>0.0001250358327524737</v>
       </c>
       <c r="CU4" t="n">
-        <v>2.448116902087349e-06</v>
+        <v>0.0001926124386955053</v>
       </c>
       <c r="CV4" t="n">
-        <v>9.300668170908466e-05</v>
+        <v>3.060371909668902e-06</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.0001448509137844667</v>
+        <v>0.0001070091384463012</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.000116723618702963</v>
+        <v>0.0001097450294764712</v>
       </c>
       <c r="CY4" t="n">
-        <v>7.543360698036849e-05</v>
+        <v>9.000486898003146e-05</v>
       </c>
       <c r="CZ4" t="n">
-        <v>2.154319372493774e-05</v>
+        <v>8.778273331699893e-05</v>
       </c>
       <c r="DA4" t="n">
-        <v>5.392868843046017e-05</v>
+        <v>8.480936958221719e-05</v>
       </c>
       <c r="DB4" t="n">
-        <v>1.258137308468577e-05</v>
+        <v>1.544484257465228e-05</v>
       </c>
       <c r="DC4" t="n">
-        <v>7.429027027683333e-05</v>
+        <v>2.815172592818271e-05</v>
       </c>
       <c r="DD4" t="n">
-        <v>1.791086106095463e-05</v>
+        <v>0.0001180572508019395</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.0002077617536997423</v>
+        <v>0.0002652179100550711</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.0001921173243317753</v>
+        <v>0.0001094726467272267</v>
       </c>
       <c r="DG4" t="n">
-        <v>6.13219162914902e-05</v>
+        <v>1.520024852652568e-05</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.0003173088771291077</v>
+        <v>0.0002684807113837451</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.0001602211996214464</v>
+        <v>0.0001208764806506224</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.0001824717037379742</v>
+        <v>0.0002084857260342687</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.00023944943677634</v>
+        <v>7.523435488110408e-05</v>
       </c>
       <c r="DL4" t="n">
-        <v>1.396020888932981e-05</v>
+        <v>1.58807379193604e-05</v>
       </c>
       <c r="DM4" t="n">
-        <v>3.700106753967702e-05</v>
+        <v>0.0003454688121564686</v>
       </c>
       <c r="DN4" t="n">
-        <v>3.959263995056972e-05</v>
+        <v>5.931549821980298e-05</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.0001608866004971787</v>
+        <v>7.809103408362716e-08</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.0001574455673107877</v>
+        <v>4.313333192840219e-07</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.0001523290120530874</v>
+        <v>8.312737918458879e-06</v>
       </c>
       <c r="DR4" t="n">
-        <v>3.773572461795993e-05</v>
+        <v>3.618920163717121e-05</v>
       </c>
       <c r="DS4" t="n">
-        <v>1.616378722246736e-05</v>
+        <v>5.698278255295008e-05</v>
       </c>
       <c r="DT4" t="n">
-        <v>3.412656224099919e-05</v>
+        <v>1.587698352523148e-05</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.0002798077475745231</v>
+        <v>8.314320439239964e-05</v>
       </c>
       <c r="DV4" t="n">
-        <v>5.576421244768426e-06</v>
+        <v>4.115619049116503e-06</v>
       </c>
       <c r="DW4" t="n">
-        <v>3.742281842278317e-05</v>
+        <v>5.150374272488989e-05</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.0001806984655559063</v>
+        <v>1.906314719235525e-05</v>
       </c>
       <c r="DY4" t="n">
-        <v>7.886923413025215e-05</v>
+        <v>0.000173237087437883</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.0002079487312585115</v>
+        <v>8.468197484035045e-05</v>
       </c>
       <c r="EA4" t="n">
-        <v>6.268449214985594e-05</v>
+        <v>4.045617606607266e-05</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.0002690012042876333</v>
+        <v>0.0001317295536864549</v>
       </c>
       <c r="EC4" t="n">
-        <v>1.880593663372565e-05</v>
+        <v>3.055971319554374e-05</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.0001528798748040572</v>
+        <v>0.0001203620049636811</v>
       </c>
       <c r="EE4" t="n">
-        <v>4.699894998339005e-05</v>
+        <v>8.476735820295289e-05</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.0001227284665219486</v>
+        <v>2.999469143105671e-05</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.0002690555120352656</v>
+        <v>0.0001124965929193422</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.0001292451925110072</v>
+        <v>8.560639253119007e-05</v>
       </c>
       <c r="EI4" t="n">
-        <v>2.346418477827683e-05</v>
+        <v>1.996482023969293e-05</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.0003010878863278776</v>
+        <v>2.098502955050208e-05</v>
       </c>
       <c r="EK4" t="n">
-        <v>7.192074554041028e-05</v>
+        <v>1.87288060260471e-05</v>
       </c>
       <c r="EL4" t="n">
-        <v>5.657551446347497e-05</v>
+        <v>9.15773562155664e-05</v>
       </c>
       <c r="EM4" t="n">
-        <v>6.85078339301981e-05</v>
+        <v>5.943307405686937e-05</v>
       </c>
       <c r="EN4" t="n">
-        <v>8.972902287496254e-05</v>
+        <v>6.280782690737396e-05</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.0001259522105101496</v>
+        <v>6.263401701289695e-06</v>
       </c>
       <c r="EP4" t="n">
-        <v>1.061567309079692e-05</v>
+        <v>5.228782902122475e-05</v>
       </c>
       <c r="EQ4" t="n">
-        <v>5.581118603004143e-05</v>
+        <v>7.407937664538622e-05</v>
       </c>
       <c r="ER4" t="n">
-        <v>4.203137723379768e-05</v>
+        <v>0.000123861973406747</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.0002032972115557641</v>
+        <v>4.518661808106117e-05</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.0001567147264722735</v>
+        <v>0.0002897042722906917</v>
       </c>
       <c r="EU4" t="n">
-        <v>2.867043076548725e-05</v>
+        <v>0.0002691231202334166</v>
       </c>
       <c r="EV4" t="n">
-        <v>4.172139597358182e-05</v>
+        <v>0.0002278871834278107</v>
       </c>
       <c r="EW4" t="n">
-        <v>5.005458660889417e-06</v>
+        <v>6.702682003378868e-05</v>
       </c>
       <c r="EX4" t="n">
-        <v>5.056407098891214e-05</v>
+        <v>5.760459771408932e-06</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.0001389742246828973</v>
+        <v>0.0001166352521977387</v>
       </c>
       <c r="EZ4" t="n">
-        <v>8.963377331383526e-05</v>
+        <v>6.400271377060562e-05</v>
       </c>
       <c r="FA4" t="n">
-        <v>3.079211455769837e-05</v>
+        <v>7.118523353710771e-05</v>
       </c>
       <c r="FB4" t="n">
-        <v>3.264865517849103e-05</v>
+        <v>9.665080870036036e-05</v>
       </c>
       <c r="FC4" t="n">
-        <v>9.869491623248905e-05</v>
+        <v>4.194552820990793e-05</v>
       </c>
       <c r="FD4" t="n">
-        <v>1.268673986487556e-05</v>
+        <v>8.933524077292532e-05</v>
       </c>
       <c r="FE4" t="n">
-        <v>4.012740100733936e-05</v>
+        <v>4.278298729332164e-05</v>
       </c>
       <c r="FF4" t="n">
-        <v>3.355385706527159e-05</v>
+        <v>0.0001687853364273906</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.0001120977904065512</v>
+        <v>9.7881187684834e-05</v>
       </c>
       <c r="FH4" t="n">
-        <v>9.063980542123318e-05</v>
+        <v>0.0001395880535710603</v>
       </c>
       <c r="FI4" t="n">
-        <v>5.881974357180297e-05</v>
+        <v>6.157921598060057e-05</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.0001717031700536609</v>
+        <v>0.0001719635329209268</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.0001133553523686714</v>
+        <v>9.262881212634966e-05</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.0003159885527566075</v>
+        <v>6.308307638391852e-05</v>
       </c>
       <c r="FM4" t="n">
-        <v>1.683545087871607e-05</v>
+        <v>6.917952850926667e-05</v>
       </c>
       <c r="FN4" t="n">
-        <v>6.086014764150605e-06</v>
+        <v>0.0001474784512538463</v>
       </c>
       <c r="FO4" t="n">
-        <v>7.23372504580766e-05</v>
+        <v>0.000181666313437745</v>
       </c>
       <c r="FP4" t="n">
-        <v>9.636689355829731e-05</v>
+        <v>4.778348375111818e-05</v>
       </c>
       <c r="FQ4" t="n">
-        <v>4.688696935772896e-05</v>
+        <v>5.95950405113399e-05</v>
       </c>
       <c r="FR4" t="n">
-        <v>5.58119427296333e-05</v>
+        <v>1.165592038887553e-05</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.0004085126565769315</v>
+        <v>0.0001330308732576668</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.0001307405618717894</v>
+        <v>0.0005642255418933928</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.0002461237309034914</v>
+        <v>0.0003765610163100064</v>
       </c>
       <c r="FV4" t="n">
-        <v>3.652000305010006e-05</v>
+        <v>9.561640035826713e-05</v>
       </c>
       <c r="FW4" t="n">
-        <v>7.977025234140456e-06</v>
+        <v>0.0001083472961909138</v>
       </c>
       <c r="FX4" t="n">
-        <v>5.614017572952434e-05</v>
+        <v>0.0001794768468244001</v>
       </c>
       <c r="FY4" t="n">
-        <v>7.888067921157926e-05</v>
+        <v>0.0002078353281831369</v>
       </c>
       <c r="FZ4" t="n">
-        <v>6.754796049790457e-05</v>
+        <v>0.0001147802468040027</v>
       </c>
       <c r="GA4" t="n">
-        <v>1.300195435760543e-05</v>
+        <v>0.0001207746608997695</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.0003381749265827239</v>
+        <v>0.0002027640002779663</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.0003191769937984645</v>
+        <v>0.0001371922553516924</v>
       </c>
       <c r="GD4" t="n">
-        <v>2.319203304068651e-06</v>
+        <v>6.869137723697349e-05</v>
       </c>
       <c r="GE4" t="n">
-        <v>5.95667734160088e-05</v>
+        <v>0.0002082980936393142</v>
       </c>
       <c r="GF4" t="n">
-        <v>6.750636384822428e-05</v>
+        <v>0.0002026784932240844</v>
       </c>
       <c r="GG4" t="n">
-        <v>5.293706271913834e-05</v>
+        <v>9.700335067464039e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0005207012873142958</v>
+        <v>0.0001520510268164799</v>
       </c>
       <c r="B5" t="n">
-        <v>0.002207609126344323</v>
+        <v>0.000672454247251153</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001127452997025102</v>
+        <v>2.664746716618538e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0008465845021419227</v>
+        <v>0.0002166456979466602</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0008588578784838319</v>
+        <v>4.853466089116409e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0001308728242293</v>
+        <v>0.000201610557269305</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0002924010623246431</v>
+        <v>4.873017314821482e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002778082154691219</v>
+        <v>9.960869647329673e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002388752996921539</v>
+        <v>0.0001810707617551088</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001655165106058121</v>
+        <v>0.0001063050222001038</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003044182201847434</v>
+        <v>0.0006332911434583366</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0004501138173509389</v>
+        <v>1.365836578770541e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>7.21731994417496e-05</v>
+        <v>0.0002491837367415428</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0003831358626484871</v>
+        <v>5.336500908015296e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002687564585357904</v>
+        <v>4.173614433966577e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0005386975826695561</v>
+        <v>7.08475781721063e-05</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.002028091577813029</v>
+        <v>0.000155881600221619</v>
       </c>
       <c r="R5" t="n">
-        <v>0.002321490552276373</v>
+        <v>0.0001087610216927715</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001214372576214373</v>
+        <v>1.341525239695329e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0003140002372674644</v>
+        <v>4.578029256663285e-05</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001117266248911619</v>
+        <v>2.01358870981494e-05</v>
       </c>
       <c r="V5" t="n">
-        <v>3.145090886391699e-06</v>
+        <v>3.008017074535019e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>0.002818955341354012</v>
+        <v>0.000188530728337355</v>
       </c>
       <c r="X5" t="n">
-        <v>2.150905493181199e-05</v>
+        <v>1.27438033814542e-05</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0009970687096938491</v>
+        <v>7.49457540223375e-05</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.000697981333360076</v>
+        <v>3.295639908174053e-05</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0003562402562238276</v>
+        <v>8.027674630284309e-05</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0005595196271315217</v>
+        <v>2.411174500593916e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0003085297648794949</v>
+        <v>2.14955180126708e-05</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.0001905628014355898</v>
+        <v>2.486798621248454e-06</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0008847672725096345</v>
+        <v>3.134351209155284e-05</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.00116408453322947</v>
+        <v>3.877571361954324e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0003110211982857436</v>
+        <v>3.816530806943774e-05</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.0002091368805849925</v>
+        <v>8.649399387650192e-05</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.000948701286688447</v>
+        <v>9.455893450649455e-05</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.0001740807783789933</v>
+        <v>6.123057391960174e-05</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.0004522490198723972</v>
+        <v>4.720078322861809e-06</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.0004629440372809768</v>
+        <v>0.000148515886394307</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.0003366418823134154</v>
+        <v>5.731300916522741e-05</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.00153397535905242</v>
+        <v>3.167058821418323e-05</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.001096168882213533</v>
+        <v>8.220424206228927e-05</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.0001881562347989529</v>
+        <v>7.141250534914434e-05</v>
       </c>
       <c r="AQ5" t="n">
-        <v>9.56014555413276e-05</v>
+        <v>2.254274659208022e-05</v>
       </c>
       <c r="AR5" t="n">
-        <v>5.08022858412005e-05</v>
+        <v>4.009855911135674e-05</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.0005388385034166276</v>
+        <v>3.013521018147003e-05</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.002020215848460793</v>
+        <v>1.437404353055172e-05</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.002554346807301044</v>
+        <v>0.0002515691739972681</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.001475227880291641</v>
+        <v>2.801098708005156e-05</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.002447439823299646</v>
+        <v>0.0001894070010166615</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.003142221830785275</v>
+        <v>2.610163755889516e-05</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.0003360604750923812</v>
+        <v>0.0001370664831483737</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.0001429537369403988</v>
+        <v>0.0002270554250571877</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.001178253325633705</v>
+        <v>0.0002384190011071041</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.001348288147710264</v>
+        <v>1.50567720993422e-05</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.001458652201108634</v>
+        <v>2.832773498084862e-05</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.001044846721924841</v>
+        <v>0.0001218463075929321</v>
       </c>
       <c r="BE5" t="n">
-        <v>9.017359116114676e-05</v>
+        <v>1.060508293448947e-05</v>
       </c>
       <c r="BF5" t="n">
-        <v>9.082677570404485e-05</v>
+        <v>0.0001281033037230372</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.001679718610830605</v>
+        <v>0.0001350077945971861</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.002158991061151028</v>
+        <v>0.0001158719896920957</v>
       </c>
       <c r="BI5" t="n">
-        <v>9.218530612997711e-05</v>
+        <v>0.0001437549653928727</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.0002774649765342474</v>
+        <v>1.971933306776918e-05</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.0008297527092508972</v>
+        <v>0.0002428008592687547</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.001487891655415297</v>
+        <v>1.24231846712064e-05</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.0003887313650920987</v>
+        <v>0.0002258876338601112</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.001190463546663523</v>
+        <v>0.000107564774225466</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.000738613773137331</v>
+        <v>8.077317761490121e-05</v>
       </c>
       <c r="BP5" t="n">
-        <v>9.704025433165953e-05</v>
+        <v>0.0001525942352600396</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.0003343904973007739</v>
+        <v>5.358062480809167e-05</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.0003319043898954988</v>
+        <v>6.511504761874676e-05</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.0009532824624329805</v>
+        <v>0.0001187125744763762</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.0002597981947474182</v>
+        <v>4.47562852059491e-05</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.00108431011904031</v>
+        <v>3.854976239381358e-05</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.0005169485229998827</v>
+        <v>0.0002429306332487613</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.0001589087187312543</v>
+        <v>1.092472575692227e-05</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.00132712977938354</v>
+        <v>0.0001328594225924462</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.0008618976571597159</v>
+        <v>2.00480644707568e-05</v>
       </c>
       <c r="BZ5" t="n">
-        <v>4.768749931827188e-05</v>
+        <v>9.733768092701212e-05</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.0003852299996651709</v>
+        <v>0.000160247553139925</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.001436091028153896</v>
+        <v>0.0001385596551699564</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.000599587569013238</v>
+        <v>1.749074908730108e-05</v>
       </c>
       <c r="CD5" t="n">
-        <v>8.229748345911503e-06</v>
+        <v>3.067163197556511e-05</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.0004212123458273709</v>
+        <v>7.427793025271967e-05</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.0002685488725546747</v>
+        <v>1.876908936537802e-05</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.0002943772997241467</v>
+        <v>4.811225517187268e-05</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.0002369921567151323</v>
+        <v>3.023744284291752e-05</v>
       </c>
       <c r="CI5" t="n">
-        <v>6.610767741221935e-06</v>
+        <v>2.511060665710829e-05</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.0002499868569429964</v>
+        <v>7.747255585854873e-05</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.0004081466177012771</v>
+        <v>2.962192957056686e-05</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.0004934087046422064</v>
+        <v>3.099223977187648e-05</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.0002602816093713045</v>
+        <v>7.742414891254157e-05</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.0001858147443272173</v>
+        <v>0.0001135019992943853</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.001177687780000269</v>
+        <v>6.636074249399826e-05</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.001357140718027949</v>
+        <v>3.303758785477839e-05</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.0007470119744539261</v>
+        <v>0.0001230710768140852</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.0002412414614809677</v>
+        <v>0.0001082922972273082</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.0002183115284424275</v>
+        <v>0.0001949271536432207</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.0003992850542999804</v>
+        <v>9.229360148310661e-05</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.0008471357286907732</v>
+        <v>1.201917802973185e-05</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.0001286978949792683</v>
+        <v>2.987791958730668e-05</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.000200379901798442</v>
+        <v>0.000117737778055016</v>
       </c>
       <c r="CX5" t="n">
-        <v>8.328926924150437e-05</v>
+        <v>2.362308623560239e-05</v>
       </c>
       <c r="CY5" t="n">
-        <v>3.363637370057404e-05</v>
+        <v>5.101021815789863e-05</v>
       </c>
       <c r="CZ5" t="n">
-        <v>7.946992991492152e-05</v>
+        <v>1.229126246471424e-05</v>
       </c>
       <c r="DA5" t="n">
-        <v>5.947618774371222e-05</v>
+        <v>5.010690802009776e-05</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.0001712730299914256</v>
+        <v>6.3360232161358e-05</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.0003272893954999745</v>
+        <v>6.377143108693417e-06</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.0003833987575490028</v>
+        <v>1.804840576369315e-05</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.0001804898492991924</v>
+        <v>7.778769213473424e-05</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.000969399930909276</v>
+        <v>9.354410576634109e-05</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.0008743724902160466</v>
+        <v>3.190554707543924e-05</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.001710282871499658</v>
+        <v>6.862689042463899e-05</v>
       </c>
       <c r="DI5" t="n">
-        <v>6.823605508543551e-05</v>
+        <v>6.058977305656299e-05</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.0007494368473999202</v>
+        <v>1.38368322950555e-05</v>
       </c>
       <c r="DK5" t="n">
-        <v>8.278484165202826e-05</v>
+        <v>7.443325739586726e-05</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.001152982120402157</v>
+        <v>0.0001676723040873185</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.001162345055490732</v>
+        <v>7.014400762272999e-05</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.0009903246536850929</v>
+        <v>4.606809307006188e-05</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.001201970968395472</v>
+        <v>0.0002144337631762028</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.001010586973279715</v>
+        <v>0.0001492318115197122</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.0009820150444284081</v>
+        <v>6.986493099248037e-05</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.0005966586759313941</v>
+        <v>1.582813638378866e-05</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.002371616894379258</v>
+        <v>6.831215432612225e-05</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.0002108508779201657</v>
+        <v>6.932378892088309e-05</v>
       </c>
       <c r="DU5" t="n">
-        <v>9.264901746064425e-05</v>
+        <v>0.0001017955582938157</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.0008271880215033889</v>
+        <v>4.774989429279231e-05</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.0005803931271657348</v>
+        <v>1.119981061492581e-05</v>
       </c>
       <c r="DX5" t="n">
-        <v>1.904848613776267e-05</v>
+        <v>0.0001940820511663333</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.000469494319986552</v>
+        <v>6.834035957581364e-06</v>
       </c>
       <c r="DZ5" t="n">
-        <v>1.418462488800287e-06</v>
+        <v>9.434930689167231e-05</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.0008768715197220445</v>
+        <v>0.0002410069137113169</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.001573594287037849</v>
+        <v>1.98276866285596e-05</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.0001913011801661924</v>
+        <v>5.734283149649855e-06</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.0005485530709847808</v>
+        <v>7.76547531131655e-05</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.0005814886535517871</v>
+        <v>6.367575679178117e-06</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.0001127818832173944</v>
+        <v>4.506531695369631e-06</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.0003106259391643107</v>
+        <v>4.951634764438495e-06</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.000895834993571043</v>
+        <v>9.204804518958554e-05</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.0005891227046959102</v>
+        <v>9.167113603325561e-06</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.0009286172571592033</v>
+        <v>4.226925011607818e-05</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.000581536500249058</v>
+        <v>7.492153963539749e-05</v>
       </c>
       <c r="EL5" t="n">
-        <v>1.973181497305632e-06</v>
+        <v>5.588223939412273e-05</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.0006097693694755435</v>
+        <v>5.104549927636981e-05</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.0002790199068840593</v>
+        <v>1.297739345318405e-06</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.00140250229742378</v>
+        <v>9.306239007855766e-06</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.0005886472063139081</v>
+        <v>0.0001967426796909422</v>
       </c>
       <c r="EQ5" t="n">
-        <v>5.158258136361837e-05</v>
+        <v>4.457577961147763e-05</v>
       </c>
       <c r="ER5" t="n">
-        <v>9.383540600538254e-05</v>
+        <v>0.0001149558374891058</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.0007792320684529841</v>
+        <v>0.0001598458329681307</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.0002258023887407035</v>
+        <v>0.000184914271812886</v>
       </c>
       <c r="EU5" t="n">
-        <v>5.291275738272816e-05</v>
+        <v>0.0001636379747651517</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.0007825758075341582</v>
+        <v>0.0001555080234538764</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.0009187256218865514</v>
+        <v>3.767367161344737e-05</v>
       </c>
       <c r="EX5" t="n">
-        <v>2.191576641052961e-06</v>
+        <v>2.616768324514851e-05</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.0004612783086486161</v>
+        <v>0.0001015578745864332</v>
       </c>
       <c r="EZ5" t="n">
-        <v>9.172719728667289e-06</v>
+        <v>3.611090960475849e-06</v>
       </c>
       <c r="FA5" t="n">
-        <v>4.208144309814088e-05</v>
+        <v>6.677103374386206e-05</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.0001146392678492703</v>
+        <v>5.23278140462935e-05</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.0001109309960156679</v>
+        <v>4.650603659683838e-05</v>
       </c>
       <c r="FD5" t="n">
-        <v>1.45758967846632e-05</v>
+        <v>8.426912245340645e-05</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.0002567658084444702</v>
+        <v>1.413258814864093e-05</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.0005111794453114271</v>
+        <v>3.5942139220424e-05</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.0005990430945530534</v>
+        <v>4.986146814189851e-05</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.0006219925126060843</v>
+        <v>6.371031486196443e-05</v>
       </c>
       <c r="FI5" t="n">
-        <v>9.886155021376908e-05</v>
+        <v>6.007470801705495e-05</v>
       </c>
       <c r="FJ5" t="n">
-        <v>1.35404261527583e-05</v>
+        <v>0.0001117415013140999</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.0008957457030192018</v>
+        <v>3.280497912783176e-05</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.001040623057633638</v>
+        <v>8.716596494195983e-05</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.0004502995871007442</v>
+        <v>0.0001100490480894223</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.000584366440307349</v>
+        <v>8.389313006773591e-05</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.0006616996834054589</v>
+        <v>4.18769741372671e-05</v>
       </c>
       <c r="FP5" t="n">
-        <v>6.825276068411767e-05</v>
+        <v>5.199289080337621e-05</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.0003768063033930957</v>
+        <v>0.0001281292061321437</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.0005843148101121187</v>
+        <v>9.043338650371879e-05</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.001072720624506474</v>
+        <v>0.0001041873183567077</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.002827862743288279</v>
+        <v>0.0004945565015077591</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.0002997963456436992</v>
+        <v>0.0001278064446523786</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.000233894883422181</v>
+        <v>0.0001718712301226333</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.001268166117370129</v>
+        <v>1.096062715078006e-05</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.001243843464180827</v>
+        <v>3.826893953373656e-05</v>
       </c>
       <c r="FY5" t="n">
-        <v>6.181362550705671e-06</v>
+        <v>5.471097210829612e-06</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.0001472639123676345</v>
+        <v>1.028793121804483e-05</v>
       </c>
       <c r="GA5" t="n">
-        <v>9.844858141150326e-05</v>
+        <v>2.549259806983173e-05</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.0004592204641085118</v>
+        <v>8.887884177966043e-05</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.0002580276341177523</v>
+        <v>0.0001653544459259138</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.00108146748971194</v>
+        <v>4.989537410438061e-05</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.0002517265093047172</v>
+        <v>0.0001209671827382408</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.0003663084062281996</v>
+        <v>0.0001033681546687149</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.0011783626396209</v>
+        <v>4.83861003885977e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.658590463193832e-06</v>
+        <v>1.51335342479797e-07</v>
       </c>
       <c r="B6" t="n">
-        <v>4.187495505902916e-06</v>
+        <v>5.794438493467169e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>2.726184789025865e-08</v>
+        <v>2.86611054889363e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>4.892937340628123e-06</v>
+        <v>3.48543522932232e-07</v>
       </c>
       <c r="E6" t="n">
-        <v>9.29344992073311e-07</v>
+        <v>1.779484648523066e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>1.651764705457026e-06</v>
+        <v>1.007287323773198e-06</v>
       </c>
       <c r="G6" t="n">
-        <v>3.158130084557342e-06</v>
+        <v>8.437550036433095e-08</v>
       </c>
       <c r="H6" t="n">
-        <v>1.827899154704937e-06</v>
+        <v>9.079057150529479e-08</v>
       </c>
       <c r="I6" t="n">
-        <v>2.10600410355255e-06</v>
+        <v>1.232650788551837e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>1.520715045444376e-06</v>
+        <v>1.541795313642069e-07</v>
       </c>
       <c r="K6" t="n">
-        <v>1.077344450095552e-06</v>
+        <v>7.426530501675188e-09</v>
       </c>
       <c r="L6" t="n">
-        <v>1.6266852753688e-08</v>
+        <v>2.423781211291498e-07</v>
       </c>
       <c r="M6" t="n">
-        <v>2.749648274402716e-06</v>
+        <v>7.679982445552014e-07</v>
       </c>
       <c r="N6" t="n">
-        <v>2.494482487236382e-07</v>
+        <v>2.962389373806218e-07</v>
       </c>
       <c r="O6" t="n">
-        <v>1.411668449691206e-06</v>
+        <v>9.514128009868728e-07</v>
       </c>
       <c r="P6" t="n">
-        <v>1.172760221379576e-06</v>
+        <v>1.870352832611388e-07</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.889982948152465e-07</v>
+        <v>1.553584070279612e-07</v>
       </c>
       <c r="R6" t="n">
-        <v>1.030559474202164e-06</v>
+        <v>4.749291804273525e-07</v>
       </c>
       <c r="S6" t="n">
-        <v>7.332504310397781e-07</v>
+        <v>2.447688132178882e-07</v>
       </c>
       <c r="T6" t="n">
-        <v>8.530982995580416e-07</v>
+        <v>7.463658135975493e-08</v>
       </c>
       <c r="U6" t="n">
-        <v>5.327849521563621e-07</v>
+        <v>9.796664102168506e-08</v>
       </c>
       <c r="V6" t="n">
-        <v>1.294473463531176e-06</v>
+        <v>1.330660239773351e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>3.410631279621157e-06</v>
+        <v>6.372654297592817e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>8.250534619946848e-07</v>
+        <v>3.57361003011647e-08</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.051089490531012e-07</v>
+        <v>9.539866141494713e-08</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.538791252642113e-06</v>
+        <v>4.129203148295346e-07</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.378708571399329e-08</v>
+        <v>6.38972323940834e-08</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.902388476082706e-06</v>
+        <v>6.596387436275108e-08</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.292168563959422e-09</v>
+        <v>1.717701110237613e-07</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.506969056208618e-06</v>
+        <v>5.269943699204305e-07</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.989540692193259e-07</v>
+        <v>4.003192088930518e-07</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.381289735036262e-06</v>
+        <v>7.041911942451407e-08</v>
       </c>
       <c r="AG6" t="n">
-        <v>3.527033527461754e-07</v>
+        <v>6.578377309551797e-08</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.54646679929283e-07</v>
+        <v>4.142334546486381e-07</v>
       </c>
       <c r="AI6" t="n">
-        <v>7.350652708737471e-08</v>
+        <v>2.902496589740622e-07</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2.025286960360972e-07</v>
+        <v>2.916858932167088e-07</v>
       </c>
       <c r="AK6" t="n">
-        <v>7.456025059582316e-07</v>
+        <v>9.261235334179219e-08</v>
       </c>
       <c r="AL6" t="n">
-        <v>9.305386470259691e-07</v>
+        <v>1.032972818393318e-07</v>
       </c>
       <c r="AM6" t="n">
-        <v>4.411504335166683e-07</v>
+        <v>1.930908268832354e-07</v>
       </c>
       <c r="AN6" t="n">
-        <v>1.986534698517062e-06</v>
+        <v>3.990031700595864e-07</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.307107709180855e-06</v>
+        <v>5.140033181305625e-07</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.492104161116004e-06</v>
+        <v>2.282621949234453e-07</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.531303380237659e-07</v>
+        <v>6.905773375365243e-08</v>
       </c>
       <c r="AR6" t="n">
-        <v>4.053012503391074e-07</v>
+        <v>5.916308865039355e-08</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.041203212537312e-08</v>
+        <v>4.151199384239135e-09</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.469115770509234e-06</v>
+        <v>1.755141454395925e-08</v>
       </c>
       <c r="AU6" t="n">
-        <v>2.702692199818557e-06</v>
+        <v>5.686259214598977e-07</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.434096475350088e-06</v>
+        <v>2.644408425567235e-07</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.864703103317879e-06</v>
+        <v>8.855814144226315e-07</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.508553964413295e-06</v>
+        <v>6.389103646142757e-07</v>
       </c>
       <c r="AY6" t="n">
-        <v>8.066123768912803e-08</v>
+        <v>4.372361672722036e-07</v>
       </c>
       <c r="AZ6" t="n">
-        <v>2.5184995138261e-06</v>
+        <v>7.04310082255688e-07</v>
       </c>
       <c r="BA6" t="n">
-        <v>1.667725541665277e-06</v>
+        <v>7.966418138494191e-07</v>
       </c>
       <c r="BB6" t="n">
-        <v>8.249973006968503e-07</v>
+        <v>5.740438950851967e-07</v>
       </c>
       <c r="BC6" t="n">
-        <v>1.466689923290687e-06</v>
+        <v>5.810103687053925e-08</v>
       </c>
       <c r="BD6" t="n">
-        <v>8.857271041051717e-07</v>
+        <v>7.484100450483311e-08</v>
       </c>
       <c r="BE6" t="n">
-        <v>9.611608220438939e-08</v>
+        <v>3.859615844703512e-07</v>
       </c>
       <c r="BF6" t="n">
-        <v>1.740607558531337e-06</v>
+        <v>2.016520284087164e-07</v>
       </c>
       <c r="BG6" t="n">
-        <v>9.150354571829666e-07</v>
+        <v>2.4488997496519e-09</v>
       </c>
       <c r="BH6" t="n">
-        <v>8.882436759449774e-07</v>
+        <v>3.404430231057631e-07</v>
       </c>
       <c r="BI6" t="n">
-        <v>1.47499929425976e-06</v>
+        <v>2.496465754120436e-07</v>
       </c>
       <c r="BJ6" t="n">
-        <v>5.884049869564478e-07</v>
+        <v>1.32864741431149e-08</v>
       </c>
       <c r="BK6" t="n">
-        <v>7.766166731926205e-08</v>
+        <v>2.091319259989177e-07</v>
       </c>
       <c r="BL6" t="n">
-        <v>1.07676771676779e-06</v>
+        <v>5.393769697548123e-08</v>
       </c>
       <c r="BM6" t="n">
-        <v>1.738699893394369e-06</v>
+        <v>2.81392971146488e-07</v>
       </c>
       <c r="BN6" t="n">
-        <v>1.20064203201764e-06</v>
+        <v>1.510807976501383e-07</v>
       </c>
       <c r="BO6" t="n">
-        <v>4.356657825610455e-07</v>
+        <v>3.38878578531876e-07</v>
       </c>
       <c r="BP6" t="n">
-        <v>1.809579543987638e-06</v>
+        <v>2.62146755858339e-07</v>
       </c>
       <c r="BQ6" t="n">
-        <v>7.231589620459999e-07</v>
+        <v>3.314065679660416e-07</v>
       </c>
       <c r="BR6" t="n">
-        <v>8.737105190448347e-07</v>
+        <v>2.601752413511349e-08</v>
       </c>
       <c r="BS6" t="n">
-        <v>7.468484000128228e-07</v>
+        <v>4.964110758010065e-07</v>
       </c>
       <c r="BT6" t="n">
-        <v>2.848011604328349e-08</v>
+        <v>4.130188813178393e-07</v>
       </c>
       <c r="BU6" t="n">
-        <v>9.693414995126659e-07</v>
+        <v>4.116382967822574e-08</v>
       </c>
       <c r="BV6" t="n">
-        <v>2.331611455019811e-07</v>
+        <v>2.176928006747403e-07</v>
       </c>
       <c r="BW6" t="n">
-        <v>1.119440184993437e-08</v>
+        <v>2.129175840082098e-07</v>
       </c>
       <c r="BX6" t="n">
-        <v>3.613753051467938e-06</v>
+        <v>1.717412771995441e-07</v>
       </c>
       <c r="BY6" t="n">
-        <v>3.551461077222484e-06</v>
+        <v>3.429390744713601e-07</v>
       </c>
       <c r="BZ6" t="n">
-        <v>2.156873279091087e-06</v>
+        <v>1.621894227810117e-07</v>
       </c>
       <c r="CA6" t="n">
-        <v>1.283542474084243e-06</v>
+        <v>1.479231741541298e-07</v>
       </c>
       <c r="CB6" t="n">
-        <v>2.105749246084088e-07</v>
+        <v>6.432612735807197e-07</v>
       </c>
       <c r="CC6" t="n">
-        <v>3.634230552052031e-07</v>
+        <v>2.357290007637403e-08</v>
       </c>
       <c r="CD6" t="n">
-        <v>8.89150044258713e-07</v>
+        <v>4.925877306050097e-08</v>
       </c>
       <c r="CE6" t="n">
-        <v>3.42335710001862e-07</v>
+        <v>3.833669026676034e-08</v>
       </c>
       <c r="CF6" t="n">
-        <v>1.167019405556857e-07</v>
+        <v>1.026510290103033e-07</v>
       </c>
       <c r="CG6" t="n">
-        <v>1.155424001808569e-06</v>
+        <v>8.24530417276037e-08</v>
       </c>
       <c r="CH6" t="n">
-        <v>1.769804072182524e-07</v>
+        <v>3.468761633484974e-08</v>
       </c>
       <c r="CI6" t="n">
-        <v>2.035372119735257e-07</v>
+        <v>8.66575433633443e-08</v>
       </c>
       <c r="CJ6" t="n">
-        <v>2.242545349417924e-07</v>
+        <v>1.599957499820448e-08</v>
       </c>
       <c r="CK6" t="n">
-        <v>4.60607679997338e-07</v>
+        <v>8.218827218797742e-08</v>
       </c>
       <c r="CL6" t="n">
-        <v>3.884962040956452e-07</v>
+        <v>1.811110905691748e-08</v>
       </c>
       <c r="CM6" t="n">
-        <v>5.406525360740488e-08</v>
+        <v>4.660129349076669e-08</v>
       </c>
       <c r="CN6" t="n">
-        <v>4.98310669172497e-07</v>
+        <v>2.540680270612938e-07</v>
       </c>
       <c r="CO6" t="n">
-        <v>2.806289671752893e-07</v>
+        <v>1.438685188759337e-07</v>
       </c>
       <c r="CP6" t="n">
-        <v>2.827325033649686e-06</v>
+        <v>1.310399966314435e-07</v>
       </c>
       <c r="CQ6" t="n">
-        <v>7.940550403873203e-07</v>
+        <v>8.133165607659976e-08</v>
       </c>
       <c r="CR6" t="n">
-        <v>2.846262759703677e-06</v>
+        <v>2.319096239489227e-07</v>
       </c>
       <c r="CS6" t="n">
-        <v>1.130343321165128e-07</v>
+        <v>2.318785590205152e-07</v>
       </c>
       <c r="CT6" t="n">
-        <v>1.745245185702515e-06</v>
+        <v>3.704072923937929e-07</v>
       </c>
       <c r="CU6" t="n">
-        <v>1.799327719709254e-06</v>
+        <v>3.717793788382551e-07</v>
       </c>
       <c r="CV6" t="n">
-        <v>9.262623734684894e-07</v>
+        <v>1.049900077987331e-08</v>
       </c>
       <c r="CW6" t="n">
-        <v>8.10846984222735e-07</v>
+        <v>3.805808290735513e-08</v>
       </c>
       <c r="CX6" t="n">
-        <v>8.956083519251479e-08</v>
+        <v>1.039453536577639e-07</v>
       </c>
       <c r="CY6" t="n">
-        <v>8.403939091294887e-07</v>
+        <v>1.749931044514597e-08</v>
       </c>
       <c r="CZ6" t="n">
-        <v>3.648077040452335e-08</v>
+        <v>1.563095537449044e-07</v>
       </c>
       <c r="DA6" t="n">
-        <v>2.804042935622419e-07</v>
+        <v>3.946396276433006e-08</v>
       </c>
       <c r="DB6" t="n">
-        <v>6.614822467554404e-08</v>
+        <v>9.176635984431414e-08</v>
       </c>
       <c r="DC6" t="n">
-        <v>3.426547436902183e-07</v>
+        <v>4.113981333375705e-08</v>
       </c>
       <c r="DD6" t="n">
-        <v>4.081233839769993e-07</v>
+        <v>7.815800984189991e-08</v>
       </c>
       <c r="DE6" t="n">
-        <v>1.54175086208852e-06</v>
+        <v>1.93203817389076e-07</v>
       </c>
       <c r="DF6" t="n">
-        <v>5.300880161485111e-07</v>
+        <v>2.6085484705618e-07</v>
       </c>
       <c r="DG6" t="n">
-        <v>1.894043634820264e-06</v>
+        <v>1.844425412400597e-07</v>
       </c>
       <c r="DH6" t="n">
-        <v>1.079054982255911e-06</v>
+        <v>1.275993213312177e-07</v>
       </c>
       <c r="DI6" t="n">
-        <v>2.818477469190839e-06</v>
+        <v>2.206366644941227e-07</v>
       </c>
       <c r="DJ6" t="n">
-        <v>2.963296765301493e-06</v>
+        <v>8.802932711660105e-07</v>
       </c>
       <c r="DK6" t="n">
-        <v>1.068287247107946e-06</v>
+        <v>7.096806697859392e-09</v>
       </c>
       <c r="DL6" t="n">
-        <v>1.796088213268376e-06</v>
+        <v>2.436847807985032e-07</v>
       </c>
       <c r="DM6" t="n">
-        <v>1.625592631171457e-06</v>
+        <v>8.628807108834735e-07</v>
       </c>
       <c r="DN6" t="n">
-        <v>7.224888349810499e-07</v>
+        <v>1.685037176457627e-07</v>
       </c>
       <c r="DO6" t="n">
-        <v>1.299596874559938e-06</v>
+        <v>1.418372477246521e-07</v>
       </c>
       <c r="DP6" t="n">
-        <v>5.171381189938984e-07</v>
+        <v>3.076684684799602e-09</v>
       </c>
       <c r="DQ6" t="n">
-        <v>6.871531468277681e-07</v>
+        <v>1.30339401493984e-08</v>
       </c>
       <c r="DR6" t="n">
-        <v>1.101196630770573e-06</v>
+        <v>1.40853714469813e-07</v>
       </c>
       <c r="DS6" t="n">
-        <v>9.988718829845311e-07</v>
+        <v>1.652443728517028e-07</v>
       </c>
       <c r="DT6" t="n">
-        <v>9.258359909836145e-07</v>
+        <v>3.491387445819782e-08</v>
       </c>
       <c r="DU6" t="n">
-        <v>8.986519901554857e-07</v>
+        <v>1.158979898718826e-07</v>
       </c>
       <c r="DV6" t="n">
-        <v>1.066063077814761e-06</v>
+        <v>4.683290626417147e-07</v>
       </c>
       <c r="DW6" t="n">
-        <v>1.187642766353747e-07</v>
+        <v>5.657461343844261e-08</v>
       </c>
       <c r="DX6" t="n">
-        <v>7.213407684503181e-07</v>
+        <v>6.424392040571547e-08</v>
       </c>
       <c r="DY6" t="n">
-        <v>5.297425218486751e-07</v>
+        <v>2.290845912966688e-07</v>
       </c>
       <c r="DZ6" t="n">
-        <v>1.923422587424284e-06</v>
+        <v>1.584961140110863e-08</v>
       </c>
       <c r="EA6" t="n">
-        <v>1.146403974416899e-06</v>
+        <v>4.035359495446755e-07</v>
       </c>
       <c r="EB6" t="n">
-        <v>2.752133468675311e-06</v>
+        <v>3.928386433926789e-07</v>
       </c>
       <c r="EC6" t="n">
-        <v>4.838242375626578e-07</v>
+        <v>3.534575512276206e-07</v>
       </c>
       <c r="ED6" t="n">
-        <v>9.502813895778672e-07</v>
+        <v>1.79201734340495e-07</v>
       </c>
       <c r="EE6" t="n">
-        <v>1.351273795080488e-06</v>
+        <v>4.469378112048616e-08</v>
       </c>
       <c r="EF6" t="n">
-        <v>1.06212564787711e-06</v>
+        <v>7.111463418141284e-08</v>
       </c>
       <c r="EG6" t="n">
-        <v>6.719864131810027e-07</v>
+        <v>3.109367341380675e-08</v>
       </c>
       <c r="EH6" t="n">
-        <v>6.906278144924727e-07</v>
+        <v>5.471672537282757e-08</v>
       </c>
       <c r="EI6" t="n">
-        <v>3.08810683691263e-07</v>
+        <v>3.067166289838497e-07</v>
       </c>
       <c r="EJ6" t="n">
-        <v>1.284715040128503e-06</v>
+        <v>1.524847164091625e-07</v>
       </c>
       <c r="EK6" t="n">
-        <v>4.014877390545735e-07</v>
+        <v>3.485947530634803e-08</v>
       </c>
       <c r="EL6" t="n">
-        <v>2.959100697808026e-07</v>
+        <v>1.78397527861307e-07</v>
       </c>
       <c r="EM6" t="n">
-        <v>5.786020551568072e-09</v>
+        <v>3.993239943156368e-07</v>
       </c>
       <c r="EN6" t="n">
-        <v>1.27718308817748e-07</v>
+        <v>9.069486139878791e-08</v>
       </c>
       <c r="EO6" t="n">
-        <v>1.722643560242432e-06</v>
+        <v>1.487585450377082e-07</v>
       </c>
       <c r="EP6" t="n">
-        <v>3.28721085907091e-07</v>
+        <v>1.051390654538409e-07</v>
       </c>
       <c r="EQ6" t="n">
-        <v>1.788017982562451e-07</v>
+        <v>8.743522528220637e-08</v>
       </c>
       <c r="ER6" t="n">
-        <v>4.704628508989117e-07</v>
+        <v>1.3616619298773e-07</v>
       </c>
       <c r="ES6" t="n">
-        <v>2.816304061070696e-07</v>
+        <v>3.79187838461803e-07</v>
       </c>
       <c r="ET6" t="n">
-        <v>1.325414302755235e-07</v>
+        <v>4.165747213846771e-07</v>
       </c>
       <c r="EU6" t="n">
-        <v>2.026928086706903e-06</v>
+        <v>2.748637939475884e-07</v>
       </c>
       <c r="EV6" t="n">
-        <v>3.816968501269002e-07</v>
+        <v>6.348069518935517e-07</v>
       </c>
       <c r="EW6" t="n">
-        <v>5.041486588197586e-07</v>
+        <v>5.160191562936234e-08</v>
       </c>
       <c r="EX6" t="n">
-        <v>7.108970407898596e-07</v>
+        <v>4.288942534458329e-10</v>
       </c>
       <c r="EY6" t="n">
-        <v>4.898837460132199e-07</v>
+        <v>3.510385937488536e-08</v>
       </c>
       <c r="EZ6" t="n">
-        <v>2.025399226113223e-08</v>
+        <v>3.870302744957144e-09</v>
       </c>
       <c r="FA6" t="n">
-        <v>6.738329147992772e-07</v>
+        <v>7.695658155171259e-08</v>
       </c>
       <c r="FB6" t="n">
-        <v>3.627701516961679e-07</v>
+        <v>1.214438896113279e-07</v>
       </c>
       <c r="FC6" t="n">
-        <v>2.872903905881685e-07</v>
+        <v>3.068571174935641e-09</v>
       </c>
       <c r="FD6" t="n">
-        <v>7.260851475621166e-08</v>
+        <v>1.946476402281405e-08</v>
       </c>
       <c r="FE6" t="n">
-        <v>1.838859162717199e-07</v>
+        <v>1.141685572747519e-07</v>
       </c>
       <c r="FF6" t="n">
-        <v>1.607644719570089e-07</v>
+        <v>4.460400759853655e-08</v>
       </c>
       <c r="FG6" t="n">
-        <v>4.579460721743089e-08</v>
+        <v>1.131399187670468e-07</v>
       </c>
       <c r="FH6" t="n">
-        <v>2.431728944429778e-06</v>
+        <v>4.87448019725889e-08</v>
       </c>
       <c r="FI6" t="n">
-        <v>2.911225465140888e-07</v>
+        <v>7.127855639055269e-08</v>
       </c>
       <c r="FJ6" t="n">
-        <v>3.011040234923712e-07</v>
+        <v>3.107913926214678e-07</v>
       </c>
       <c r="FK6" t="n">
-        <v>1.703900124994107e-06</v>
+        <v>2.82999138789819e-07</v>
       </c>
       <c r="FL6" t="n">
-        <v>1.947638338606339e-06</v>
+        <v>4.583908435051853e-07</v>
       </c>
       <c r="FM6" t="n">
-        <v>1.107794787458261e-06</v>
+        <v>1.066525285864373e-07</v>
       </c>
       <c r="FN6" t="n">
-        <v>5.729369831897202e-07</v>
+        <v>2.212891843100806e-07</v>
       </c>
       <c r="FO6" t="n">
-        <v>2.61565844539291e-07</v>
+        <v>2.189476191460926e-07</v>
       </c>
       <c r="FP6" t="n">
-        <v>6.750173611180799e-07</v>
+        <v>1.597447436552102e-07</v>
       </c>
       <c r="FQ6" t="n">
-        <v>8.656526802042208e-07</v>
+        <v>6.025929621955584e-08</v>
       </c>
       <c r="FR6" t="n">
-        <v>1.731898692014511e-06</v>
+        <v>1.055305958175268e-07</v>
       </c>
       <c r="FS6" t="n">
-        <v>1.559365728098783e-06</v>
+        <v>1.993046794268594e-08</v>
       </c>
       <c r="FT6" t="n">
-        <v>7.070474339343491e-07</v>
+        <v>1.654714537835389e-06</v>
       </c>
       <c r="FU6" t="n">
-        <v>1.876698547675915e-06</v>
+        <v>4.04469119530404e-07</v>
       </c>
       <c r="FV6" t="n">
-        <v>2.258177289604646e-07</v>
+        <v>3.736327585102117e-07</v>
       </c>
       <c r="FW6" t="n">
-        <v>9.319785476691322e-07</v>
+        <v>1.322527225511294e-07</v>
       </c>
       <c r="FX6" t="n">
-        <v>1.035846025843057e-06</v>
+        <v>2.152693383550286e-07</v>
       </c>
       <c r="FY6" t="n">
-        <v>2.031995336437831e-06</v>
+        <v>2.642608478709008e-07</v>
       </c>
       <c r="FZ6" t="n">
-        <v>7.843078719815821e-07</v>
+        <v>2.71742681690057e-08</v>
       </c>
       <c r="GA6" t="n">
-        <v>5.899059942748863e-07</v>
+        <v>2.839079229488561e-07</v>
       </c>
       <c r="GB6" t="n">
-        <v>1.185108203571872e-06</v>
+        <v>2.31476192880109e-07</v>
       </c>
       <c r="GC6" t="n">
-        <v>7.479357009287924e-07</v>
+        <v>2.446705877900968e-07</v>
       </c>
       <c r="GD6" t="n">
-        <v>1.799498591026349e-06</v>
+        <v>4.664136099563621e-07</v>
       </c>
       <c r="GE6" t="n">
-        <v>4.696407529536373e-07</v>
+        <v>2.649416046551778e-07</v>
       </c>
       <c r="GF6" t="n">
-        <v>1.157953420261038e-06</v>
+        <v>2.704527446439897e-07</v>
       </c>
       <c r="GG6" t="n">
-        <v>9.546070032229181e-07</v>
+        <v>8.70787175699661e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0001002112112473696</v>
+        <v>8.221237294492312e-06</v>
       </c>
       <c r="B7" t="n">
-        <v>6.568439130205661e-05</v>
+        <v>1.490891190769617e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001012874126899987</v>
+        <v>1.643159066588851e-06</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0005384437972679734</v>
+        <v>1.283749952563085e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0003378399123903364</v>
+        <v>1.473182237532455e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0002692350535653532</v>
+        <v>4.672777322412003e-06</v>
       </c>
       <c r="G7" t="n">
-        <v>0.000282558670733124</v>
+        <v>8.908580639399588e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>1.443918972654501e-05</v>
+        <v>1.221206002810504e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>2.856023093045224e-05</v>
+        <v>2.038004822679795e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001482126099290326</v>
+        <v>8.819902177492622e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>9.763847629074007e-05</v>
+        <v>1.180763774755178e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002022869302891195</v>
+        <v>8.625697773823049e-07</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0002910642069764435</v>
+        <v>1.433805118722375e-05</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0006076357676647604</v>
+        <v>2.079614205285907e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0001520923397038132</v>
+        <v>6.851690613984829e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>1.524065737612545e-05</v>
+        <v>6.927317599547678e-07</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0001136709543061443</v>
+        <v>2.026072934313561e-06</v>
       </c>
       <c r="R7" t="n">
-        <v>5.566705294768326e-05</v>
+        <v>1.132223133026855e-05</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0001293031382374465</v>
+        <v>6.682934667878726e-07</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0002331065043108538</v>
+        <v>4.969265319232363e-06</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0002093177754431963</v>
+        <v>4.800253009307198e-06</v>
       </c>
       <c r="V7" t="n">
-        <v>0.000175875989953056</v>
+        <v>5.964914635114837e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0006473875255323946</v>
+        <v>1.367619006487075e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>5.571648944169283e-05</v>
+        <v>4.022670054837363e-06</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.000140269024996087</v>
+        <v>2.618773123685969e-06</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0001411062548868358</v>
+        <v>4.107738732272992e-06</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.346511791984085e-05</v>
+        <v>3.716498213179875e-06</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0002181706367991865</v>
+        <v>1.256834593732492e-06</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.404664989328012e-05</v>
+        <v>4.894358880846994e-06</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.000186473989742808</v>
+        <v>1.056637120200321e-05</v>
       </c>
       <c r="AE7" t="n">
-        <v>5.258213423076086e-05</v>
+        <v>1.056950895872433e-05</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.0001193907955894247</v>
+        <v>1.763527734510717e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4.57308633485809e-05</v>
+        <v>6.647308509855065e-06</v>
       </c>
       <c r="AH7" t="n">
-        <v>8.479839016217738e-05</v>
+        <v>1.063496597453195e-06</v>
       </c>
       <c r="AI7" t="n">
-        <v>9.569453686708584e-05</v>
+        <v>3.078641839238117e-06</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6.986894004512578e-05</v>
+        <v>6.49716366751818e-06</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.0001543270627735183</v>
+        <v>1.56654868987971e-06</v>
       </c>
       <c r="AL7" t="n">
-        <v>3.923675831174478e-05</v>
+        <v>6.534244676004164e-06</v>
       </c>
       <c r="AM7" t="n">
-        <v>3.216423647245392e-05</v>
+        <v>5.169204086996615e-06</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.0002483726711943746</v>
+        <v>3.632318112067878e-06</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.420229278272018e-05</v>
+        <v>9.675952242105268e-06</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.0001342325995210558</v>
+        <v>8.358934792340733e-06</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.51142796514614e-06</v>
+        <v>2.439985792079824e-06</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.0001039697381202132</v>
+        <v>3.745733692994691e-06</v>
       </c>
       <c r="AS7" t="n">
-        <v>6.639875209657475e-07</v>
+        <v>4.575735488288046e-07</v>
       </c>
       <c r="AT7" t="n">
-        <v>8.434920164290816e-05</v>
+        <v>2.014983692788519e-06</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.0001062946394085884</v>
+        <v>1.023642289510462e-05</v>
       </c>
       <c r="AV7" t="n">
-        <v>2.3676548153162e-06</v>
+        <v>3.539497811289039e-06</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.0004881269996985793</v>
+        <v>1.006464935926488e-05</v>
       </c>
       <c r="AX7" t="n">
-        <v>9.970551036531106e-05</v>
+        <v>3.279152906543459e-06</v>
       </c>
       <c r="AY7" t="n">
-        <v>2.201334245910402e-05</v>
+        <v>1.240954406966921e-05</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.0001376728032482788</v>
+        <v>9.758488886291161e-06</v>
       </c>
       <c r="BA7" t="n">
-        <v>9.870715439319611e-05</v>
+        <v>1.34098700073082e-05</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.0001245645980816334</v>
+        <v>7.828935849829577e-06</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.0002084069128613919</v>
+        <v>6.973495146667119e-06</v>
       </c>
       <c r="BD7" t="n">
-        <v>7.344195182668045e-06</v>
+        <v>9.228782801073976e-06</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.0001165869471151382</v>
+        <v>3.934981577913277e-06</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.0001530992740299553</v>
+        <v>7.557214303233195e-06</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.0002352448791498318</v>
+        <v>8.808297025098e-07</v>
       </c>
       <c r="BH7" t="n">
-        <v>3.153882062179036e-05</v>
+        <v>4.055041245010216e-06</v>
       </c>
       <c r="BI7" t="n">
-        <v>2.20247165998444e-05</v>
+        <v>3.577610414140509e-06</v>
       </c>
       <c r="BJ7" t="n">
-        <v>1.540116318210494e-05</v>
+        <v>5.135731953487266e-06</v>
       </c>
       <c r="BK7" t="n">
-        <v>2.648890404088888e-05</v>
+        <v>2.427619983791374e-05</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.0002645385393407196</v>
+        <v>7.891859240771737e-06</v>
       </c>
       <c r="BM7" t="n">
-        <v>3.152949284412898e-05</v>
+        <v>7.946090590849053e-06</v>
       </c>
       <c r="BN7" t="n">
-        <v>6.518860027426854e-05</v>
+        <v>1.279740172321908e-05</v>
       </c>
       <c r="BO7" t="n">
-        <v>1.036673347698525e-05</v>
+        <v>1.225916366820456e-05</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.0001580004318384454</v>
+        <v>1.20815320769907e-05</v>
       </c>
       <c r="BQ7" t="n">
-        <v>9.040875738719478e-05</v>
+        <v>4.064234872203087e-06</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.0001073804087354802</v>
+        <v>6.127491360530257e-06</v>
       </c>
       <c r="BS7" t="n">
-        <v>2.434397720207926e-05</v>
+        <v>7.87603494245559e-06</v>
       </c>
       <c r="BT7" t="n">
-        <v>2.204124939453322e-06</v>
+        <v>3.680435838759877e-06</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.0001563741243444383</v>
+        <v>6.749413842044305e-06</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.0001521669764770195</v>
+        <v>1.391183468513191e-05</v>
       </c>
       <c r="BW7" t="n">
-        <v>3.843644662993029e-06</v>
+        <v>3.513446699798806e-06</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.000438844901509583</v>
+        <v>5.475842499436112e-06</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.0001903044176287949</v>
+        <v>8.310517841891851e-06</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.0002353976160520688</v>
+        <v>4.662955234380206e-06</v>
       </c>
       <c r="CA7" t="n">
-        <v>3.640930299297906e-05</v>
+        <v>5.529624104383402e-06</v>
       </c>
       <c r="CB7" t="n">
-        <v>1.638021603866946e-05</v>
+        <v>8.680442988406867e-06</v>
       </c>
       <c r="CC7" t="n">
-        <v>4.380896280054003e-05</v>
+        <v>8.911745680961758e-06</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.0001054174572345801</v>
+        <v>1.729798668748117e-06</v>
       </c>
       <c r="CE7" t="n">
-        <v>2.670427784323692e-05</v>
+        <v>6.736377144989092e-08</v>
       </c>
       <c r="CF7" t="n">
-        <v>5.951904313405976e-06</v>
+        <v>1.859105282164819e-06</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.0001121268069255166</v>
+        <v>1.988169060496148e-06</v>
       </c>
       <c r="CH7" t="n">
-        <v>6.415143434423953e-05</v>
+        <v>3.504657570374548e-06</v>
       </c>
       <c r="CI7" t="n">
-        <v>7.034400368866045e-07</v>
+        <v>1.381658421450993e-06</v>
       </c>
       <c r="CJ7" t="n">
-        <v>2.766501711448655e-05</v>
+        <v>2.620549821585882e-08</v>
       </c>
       <c r="CK7" t="n">
-        <v>3.387431570445187e-05</v>
+        <v>4.887791419605492e-06</v>
       </c>
       <c r="CL7" t="n">
-        <v>8.77218280948e-06</v>
+        <v>4.137322775932262e-06</v>
       </c>
       <c r="CM7" t="n">
-        <v>6.279361696215346e-05</v>
+        <v>2.059848839053302e-06</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.0001583602133905515</v>
+        <v>9.00275608728407e-06</v>
       </c>
       <c r="CO7" t="n">
-        <v>5.19526147400029e-05</v>
+        <v>3.929297690774547e-06</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.0002911979681812227</v>
+        <v>5.307161700329743e-06</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.0001316457928624004</v>
+        <v>9.63006095844321e-06</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.0002422754187136889</v>
+        <v>9.371399301016936e-08</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.0001907227997435257</v>
+        <v>1.375717783957953e-05</v>
       </c>
       <c r="CT7" t="n">
-        <v>4.722172161564231e-05</v>
+        <v>1.132253782998305e-05</v>
       </c>
       <c r="CU7" t="n">
-        <v>7.147646101657301e-05</v>
+        <v>1.263761191694357e-06</v>
       </c>
       <c r="CV7" t="n">
-        <v>9.204426896758378e-05</v>
+        <v>7.729616982032894e-07</v>
       </c>
       <c r="CW7" t="n">
-        <v>1.452486412745202e-05</v>
+        <v>3.438930434640497e-06</v>
       </c>
       <c r="CX7" t="n">
-        <v>2.09411300602369e-05</v>
+        <v>1.249230535904644e-06</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.0001068073252099566</v>
+        <v>1.43926183682197e-06</v>
       </c>
       <c r="CZ7" t="n">
-        <v>9.648828563513234e-05</v>
+        <v>3.074237838518457e-06</v>
       </c>
       <c r="DA7" t="n">
-        <v>4.433761932887137e-05</v>
+        <v>3.479545966911246e-07</v>
       </c>
       <c r="DB7" t="n">
-        <v>2.008699630096089e-05</v>
+        <v>2.452031822031131e-06</v>
       </c>
       <c r="DC7" t="n">
-        <v>3.324745193822309e-05</v>
+        <v>2.659568508533994e-06</v>
       </c>
       <c r="DD7" t="n">
-        <v>3.042650132556446e-05</v>
+        <v>1.827097662499e-06</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.0002557961270213127</v>
+        <v>1.29918335005641e-05</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.0002020042738877237</v>
+        <v>3.847715106530814e-06</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.0001097242202376947</v>
+        <v>6.057000064174645e-06</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.000214815343497321</v>
+        <v>1.401600184181007e-05</v>
       </c>
       <c r="DI7" t="n">
-        <v>6.417715485440567e-05</v>
+        <v>5.265421350486577e-06</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.0001082319286069833</v>
+        <v>7.945541256049182e-06</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.0001102133319363929</v>
+        <v>4.781988991453545e-07</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.0001395486178807914</v>
+        <v>7.244888365676161e-06</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.0001114452315960079</v>
+        <v>5.619100193143822e-06</v>
       </c>
       <c r="DN7" t="n">
-        <v>4.265802635927685e-05</v>
+        <v>1.734638317429926e-06</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.0001125683120335452</v>
+        <v>1.596566221451212e-06</v>
       </c>
       <c r="DP7" t="n">
-        <v>3.331733751110733e-05</v>
+        <v>9.884782230074052e-06</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.0001867942773969844</v>
+        <v>7.974666004884057e-06</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.0001810162211768329</v>
+        <v>4.342027750681154e-06</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.0001623649732209742</v>
+        <v>3.480425220914185e-06</v>
       </c>
       <c r="DT7" t="n">
-        <v>5.145366230863146e-05</v>
+        <v>5.162646175449481e-06</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.000314072472974658</v>
+        <v>7.484539423785463e-07</v>
       </c>
       <c r="DV7" t="n">
-        <v>2.517124266887549e-05</v>
+        <v>1.031198735290673e-06</v>
       </c>
       <c r="DW7" t="n">
-        <v>3.644177195383236e-05</v>
+        <v>8.091702738965978e-07</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.0001838562602642924</v>
+        <v>2.992060672113439e-06</v>
       </c>
       <c r="DY7" t="n">
-        <v>6.566814408870414e-05</v>
+        <v>1.154328970187635e-06</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.0001875534653663635</v>
+        <v>3.440160526224645e-06</v>
       </c>
       <c r="EA7" t="n">
-        <v>3.482476677163504e-05</v>
+        <v>1.309194158238824e-05</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.0002608992799650878</v>
+        <v>3.283345222371281e-07</v>
       </c>
       <c r="EC7" t="n">
-        <v>6.735212809871882e-05</v>
+        <v>8.105193387564213e-07</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.0002490455517545342</v>
+        <v>4.818381057702936e-06</v>
       </c>
       <c r="EE7" t="n">
-        <v>2.764845885394607e-05</v>
+        <v>5.672837232850725e-06</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.0001027052276185714</v>
+        <v>1.543942744319793e-06</v>
       </c>
       <c r="EG7" t="n">
-        <v>3.831223148154095e-05</v>
+        <v>2.741895968938479e-06</v>
       </c>
       <c r="EH7" t="n">
-        <v>1.911342405946925e-05</v>
+        <v>3.176954351147288e-06</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.0001346500212093815</v>
+        <v>3.170440322719514e-06</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.0001256781397387385</v>
+        <v>4.810892278328538e-06</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.0001583125558681786</v>
+        <v>3.73158763977699e-06</v>
       </c>
       <c r="EL7" t="n">
-        <v>1.65886158356443e-05</v>
+        <v>9.03808086150093e-08</v>
       </c>
       <c r="EM7" t="n">
-        <v>2.443935227347538e-05</v>
+        <v>8.510760380886495e-06</v>
       </c>
       <c r="EN7" t="n">
-        <v>1.242755934072193e-05</v>
+        <v>3.98614884034032e-06</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.0002945586456917226</v>
+        <v>4.141842850913235e-07</v>
       </c>
       <c r="EP7" t="n">
-        <v>5.026906001148745e-05</v>
+        <v>3.599702722567599e-06</v>
       </c>
       <c r="EQ7" t="n">
-        <v>2.435217902529985e-05</v>
+        <v>4.360912839729281e-07</v>
       </c>
       <c r="ER7" t="n">
-        <v>6.414236850105226e-05</v>
+        <v>8.246496690844651e-06</v>
       </c>
       <c r="ES7" t="n">
-        <v>7.331185042858124e-05</v>
+        <v>1.091886133508524e-05</v>
       </c>
       <c r="ET7" t="n">
-        <v>9.325324936071411e-05</v>
+        <v>5.512759344128426e-06</v>
       </c>
       <c r="EU7" t="n">
-        <v>1.029395207297057e-05</v>
+        <v>6.622488854191033e-06</v>
       </c>
       <c r="EV7" t="n">
-        <v>1.247531145054381e-05</v>
+        <v>1.274814439966576e-05</v>
       </c>
       <c r="EW7" t="n">
-        <v>8.889755918062292e-06</v>
+        <v>4.4586022340809e-07</v>
       </c>
       <c r="EX7" t="n">
-        <v>7.616911170771345e-05</v>
+        <v>2.117554345204553e-07</v>
       </c>
       <c r="EY7" t="n">
-        <v>2.684407445485704e-05</v>
+        <v>3.867243322019931e-06</v>
       </c>
       <c r="EZ7" t="n">
-        <v>1.775631972122937e-05</v>
+        <v>2.68737085207249e-06</v>
       </c>
       <c r="FA7" t="n">
-        <v>5.644467091769911e-05</v>
+        <v>1.127049245042144e-06</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.0001133641562773846</v>
+        <v>2.514327889002743e-06</v>
       </c>
       <c r="FC7" t="n">
-        <v>7.327473576879129e-05</v>
+        <v>2.087971324726823e-07</v>
       </c>
       <c r="FD7" t="n">
-        <v>1.007217088044854e-05</v>
+        <v>1.696700905995385e-06</v>
       </c>
       <c r="FE7" t="n">
-        <v>3.892292443197221e-05</v>
+        <v>3.963855306210462e-06</v>
       </c>
       <c r="FF7" t="n">
-        <v>4.240076123096514e-06</v>
+        <v>1.160539227385016e-06</v>
       </c>
       <c r="FG7" t="n">
-        <v>7.163304690038785e-05</v>
+        <v>2.607615670058294e-06</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.0001187986053992063</v>
+        <v>7.962158633745275e-06</v>
       </c>
       <c r="FI7" t="n">
-        <v>4.85888376715593e-05</v>
+        <v>1.903084012155887e-06</v>
       </c>
       <c r="FJ7" t="n">
-        <v>7.916908361949027e-05</v>
+        <v>1.023195181915071e-07</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.0001074982283171266</v>
+        <v>7.796526006131899e-06</v>
       </c>
       <c r="FL7" t="n">
-        <v>2.972538095491473e-05</v>
+        <v>7.670170816709287e-06</v>
       </c>
       <c r="FM7" t="n">
-        <v>7.058471237542108e-05</v>
+        <v>2.931208655354567e-06</v>
       </c>
       <c r="FN7" t="n">
-        <v>1.294117919314886e-05</v>
+        <v>4.155123860982712e-06</v>
       </c>
       <c r="FO7" t="n">
-        <v>3.490355811663903e-05</v>
+        <v>7.446476047334727e-06</v>
       </c>
       <c r="FP7" t="n">
-        <v>3.065199052798562e-05</v>
+        <v>1.201390773530875e-06</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.0001845940278144553</v>
+        <v>8.617666026111692e-06</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.0001041669747792184</v>
+        <v>6.341478638205444e-06</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.0001036750909406692</v>
+        <v>2.549254531913903e-06</v>
       </c>
       <c r="FT7" t="n">
-        <v>6.809478509239852e-05</v>
+        <v>3.344181823194958e-05</v>
       </c>
       <c r="FU7" t="n">
-        <v>2.861834764189553e-05</v>
+        <v>5.687324573955266e-06</v>
       </c>
       <c r="FV7" t="n">
-        <v>3.779252438107505e-05</v>
+        <v>6.213535925780889e-06</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.0001296990376431495</v>
+        <v>7.162719612097135e-06</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.0001276839466299862</v>
+        <v>3.715258344527683e-06</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.0002330757706658915</v>
+        <v>4.361312676337548e-06</v>
       </c>
       <c r="FZ7" t="n">
-        <v>5.702652561012655e-05</v>
+        <v>7.193739293143153e-07</v>
       </c>
       <c r="GA7" t="n">
-        <v>8.496062946505845e-06</v>
+        <v>3.27431871482986e-06</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.0001981872337637469</v>
+        <v>2.345540906389942e-06</v>
       </c>
       <c r="GC7" t="n">
-        <v>9.065596532309428e-05</v>
+        <v>2.803340976242907e-06</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.0001436250022379681</v>
+        <v>4.885106591245858e-06</v>
       </c>
       <c r="GE7" t="n">
-        <v>9.762533591128886e-05</v>
+        <v>9.212285476678517e-07</v>
       </c>
       <c r="GF7" t="n">
-        <v>2.852240140782669e-05</v>
+        <v>1.417768430655997e-06</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.0001056094697560184</v>
+        <v>4.574437753035454e-06</v>
       </c>
     </row>
     <row r="8">
@@ -4987,5123 +4987,5123 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.181447623821441e-05</v>
+        <v>3.11771282213158e-06</v>
       </c>
       <c r="B9" t="n">
-        <v>8.572885235480499e-06</v>
+        <v>2.212326762673911e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>6.171903351059882e-06</v>
+        <v>1.467133415644639e-06</v>
       </c>
       <c r="D9" t="n">
-        <v>6.995570402068552e-06</v>
+        <v>1.188205260405084e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>4.327514943724964e-06</v>
+        <v>1.960024565050844e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>5.378930381993996e-06</v>
+        <v>8.459283890260849e-06</v>
       </c>
       <c r="G9" t="n">
-        <v>6.975669748499058e-06</v>
+        <v>4.646848537959158e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>1.560094688102254e-06</v>
+        <v>7.744516551611014e-06</v>
       </c>
       <c r="I9" t="n">
-        <v>1.876311034720857e-05</v>
+        <v>9.398635484103579e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>8.550076017854735e-06</v>
+        <v>4.372547209641198e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>1.816311396396486e-06</v>
+        <v>1.571254324517213e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>6.41151473246282e-06</v>
+        <v>1.498723690929182e-06</v>
       </c>
       <c r="M9" t="n">
-        <v>5.380135917221196e-06</v>
+        <v>5.908109415031504e-06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.892932909366209e-07</v>
+        <v>1.984555638046004e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>4.503399395616725e-07</v>
+        <v>4.297903615224641e-07</v>
       </c>
       <c r="P9" t="n">
-        <v>6.564364412042778e-06</v>
+        <v>3.529052946760203e-06</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.901068223261973e-06</v>
+        <v>3.492879613986588e-06</v>
       </c>
       <c r="R9" t="n">
-        <v>1.218186753249029e-05</v>
+        <v>4.205315235594753e-06</v>
       </c>
       <c r="S9" t="n">
-        <v>3.091102598773432e-06</v>
+        <v>8.938975497585488e-07</v>
       </c>
       <c r="T9" t="n">
-        <v>3.203142568963813e-06</v>
+        <v>1.156556095338601e-06</v>
       </c>
       <c r="U9" t="n">
-        <v>1.279352886740526e-06</v>
+        <v>1.06189065718354e-06</v>
       </c>
       <c r="V9" t="n">
-        <v>3.544130095178843e-06</v>
+        <v>6.929716619197279e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>1.732343207550002e-06</v>
+        <v>1.726535447232891e-05</v>
       </c>
       <c r="X9" t="n">
-        <v>1.562345346428629e-06</v>
+        <v>4.152184828853933e-06</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.314005309424829e-06</v>
+        <v>4.961600552633172e-06</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.603994974175293e-06</v>
+        <v>3.620117013269919e-06</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.926642764577991e-06</v>
+        <v>2.911011165451782e-07</v>
       </c>
       <c r="AB9" t="n">
-        <v>3.340964667586377e-06</v>
+        <v>3.280620376244769e-06</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.56620490088244e-06</v>
+        <v>1.595949129296059e-06</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.020744639390614e-05</v>
+        <v>2.927539298980264e-06</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.894440174510237e-06</v>
+        <v>4.076384811924072e-06</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.927805664716288e-06</v>
+        <v>1.144794441643171e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>8.139307283272501e-06</v>
+        <v>6.459712039941223e-06</v>
       </c>
       <c r="AH9" t="n">
-        <v>2.876678536267718e-06</v>
+        <v>4.731041826744331e-06</v>
       </c>
       <c r="AI9" t="n">
-        <v>3.944835043512285e-06</v>
+        <v>8.3921725035907e-07</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5.197788595978636e-06</v>
+        <v>2.531175482545223e-07</v>
       </c>
       <c r="AK9" t="n">
-        <v>4.76295463158749e-06</v>
+        <v>2.103452516166726e-06</v>
       </c>
       <c r="AL9" t="n">
-        <v>9.984389180317521e-06</v>
+        <v>1.425790287612472e-06</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.948601149910246e-06</v>
+        <v>1.483837195337401e-07</v>
       </c>
       <c r="AN9" t="n">
-        <v>6.49826688459143e-07</v>
+        <v>2.643452319261996e-07</v>
       </c>
       <c r="AO9" t="n">
-        <v>4.128813202441961e-07</v>
+        <v>9.58390228333883e-06</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.694794036666281e-06</v>
+        <v>5.08535822518752e-06</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.576312627094012e-07</v>
+        <v>2.928930371126626e-06</v>
       </c>
       <c r="AR9" t="n">
-        <v>3.386537628102815e-06</v>
+        <v>5.970152415102348e-06</v>
       </c>
       <c r="AS9" t="n">
-        <v>4.309973519411869e-06</v>
+        <v>4.988938144379063e-06</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.022796479650424e-06</v>
+        <v>1.570064682709926e-06</v>
       </c>
       <c r="AU9" t="n">
-        <v>1.339269374511787e-06</v>
+        <v>6.332499651762191e-06</v>
       </c>
       <c r="AV9" t="n">
-        <v>1.528635038994253e-06</v>
+        <v>1.780802676876192e-06</v>
       </c>
       <c r="AW9" t="n">
-        <v>1.021879870677367e-05</v>
+        <v>6.198197297635488e-06</v>
       </c>
       <c r="AX9" t="n">
-        <v>2.023722117883153e-06</v>
+        <v>1.326948950008955e-05</v>
       </c>
       <c r="AY9" t="n">
-        <v>5.871090706932591e-07</v>
+        <v>1.669155608396977e-05</v>
       </c>
       <c r="AZ9" t="n">
-        <v>3.558503067324637e-06</v>
+        <v>5.832075657963287e-06</v>
       </c>
       <c r="BA9" t="n">
-        <v>3.921610641555162e-06</v>
+        <v>1.27462126329192e-05</v>
       </c>
       <c r="BB9" t="n">
-        <v>8.812686246528756e-06</v>
+        <v>3.713438673003111e-06</v>
       </c>
       <c r="BC9" t="n">
-        <v>6.44309466224513e-06</v>
+        <v>4.569340944726719e-06</v>
       </c>
       <c r="BD9" t="n">
-        <v>4.68444113721489e-07</v>
+        <v>5.386838893173262e-06</v>
       </c>
       <c r="BE9" t="n">
-        <v>4.1329049054184e-06</v>
+        <v>2.347554300285992e-06</v>
       </c>
       <c r="BF9" t="n">
-        <v>9.759036402101628e-06</v>
+        <v>3.253276190662291e-06</v>
       </c>
       <c r="BG9" t="n">
-        <v>1.762581177899847e-06</v>
+        <v>5.533683179237414e-06</v>
       </c>
       <c r="BH9" t="n">
-        <v>1.091816193365958e-05</v>
+        <v>3.565375664038584e-06</v>
       </c>
       <c r="BI9" t="n">
-        <v>5.057528369434294e-07</v>
+        <v>4.456199349078815e-06</v>
       </c>
       <c r="BJ9" t="n">
-        <v>1.932569375640014e-06</v>
+        <v>4.839273969992064e-06</v>
       </c>
       <c r="BK9" t="n">
-        <v>5.992483238514978e-06</v>
+        <v>3.948908670281526e-06</v>
       </c>
       <c r="BL9" t="n">
-        <v>1.433514512427791e-06</v>
+        <v>1.804467729016324e-06</v>
       </c>
       <c r="BM9" t="n">
-        <v>2.149339707102627e-06</v>
+        <v>4.48942273578723e-06</v>
       </c>
       <c r="BN9" t="n">
-        <v>1.347307488686056e-06</v>
+        <v>2.963614917916857e-07</v>
       </c>
       <c r="BO9" t="n">
-        <v>4.089668891538167e-06</v>
+        <v>4.280689609004185e-06</v>
       </c>
       <c r="BP9" t="n">
-        <v>2.844112259481335e-06</v>
+        <v>4.853398877457948e-06</v>
       </c>
       <c r="BQ9" t="n">
-        <v>2.528388449718477e-07</v>
+        <v>2.113314849339076e-06</v>
       </c>
       <c r="BR9" t="n">
-        <v>1.783579364200705e-06</v>
+        <v>2.912119953180081e-06</v>
       </c>
       <c r="BS9" t="n">
-        <v>2.693924670893466e-06</v>
+        <v>1.416245140717365e-06</v>
       </c>
       <c r="BT9" t="n">
-        <v>4.640436600311659e-06</v>
+        <v>1.934876536324737e-06</v>
       </c>
       <c r="BU9" t="n">
-        <v>1.717515260679647e-06</v>
+        <v>1.399478037455992e-06</v>
       </c>
       <c r="BV9" t="n">
-        <v>1.166769379778998e-06</v>
+        <v>5.682995833922178e-06</v>
       </c>
       <c r="BW9" t="n">
-        <v>2.355700416956097e-06</v>
+        <v>1.086790121007652e-06</v>
       </c>
       <c r="BX9" t="n">
-        <v>4.724734026240185e-06</v>
+        <v>8.969272130343597e-06</v>
       </c>
       <c r="BY9" t="n">
-        <v>8.380178769584745e-06</v>
+        <v>1.386395615554648e-05</v>
       </c>
       <c r="BZ9" t="n">
-        <v>1.015547786664683e-05</v>
+        <v>2.060714621165971e-07</v>
       </c>
       <c r="CA9" t="n">
-        <v>2.184922550441115e-06</v>
+        <v>4.152599103690591e-06</v>
       </c>
       <c r="CB9" t="n">
-        <v>7.749720680294558e-06</v>
+        <v>6.601637323910836e-06</v>
       </c>
       <c r="CC9" t="n">
-        <v>6.36867525827256e-06</v>
+        <v>6.94207983542583e-07</v>
       </c>
       <c r="CD9" t="n">
-        <v>2.207042371082935e-06</v>
+        <v>1.559580482535239e-06</v>
       </c>
       <c r="CE9" t="n">
-        <v>9.271587941839243e-07</v>
+        <v>3.370500735400128e-06</v>
       </c>
       <c r="CF9" t="n">
-        <v>2.77012622973416e-06</v>
+        <v>1.565203888276301e-06</v>
       </c>
       <c r="CG9" t="n">
-        <v>1.055850134434877e-06</v>
+        <v>1.878518332887325e-06</v>
       </c>
       <c r="CH9" t="n">
-        <v>4.312021701480262e-06</v>
+        <v>3.461572305241134e-06</v>
       </c>
       <c r="CI9" t="n">
-        <v>1.35915456667135e-06</v>
+        <v>5.477415925270179e-07</v>
       </c>
       <c r="CJ9" t="n">
-        <v>2.835983877957915e-06</v>
+        <v>1.768792230905092e-06</v>
       </c>
       <c r="CK9" t="n">
-        <v>7.621760005349643e-07</v>
+        <v>7.628801768078119e-07</v>
       </c>
       <c r="CL9" t="n">
-        <v>3.830472451227251e-06</v>
+        <v>9.85164206213085e-07</v>
       </c>
       <c r="CM9" t="n">
-        <v>6.971991297177738e-06</v>
+        <v>2.834287215591758e-06</v>
       </c>
       <c r="CN9" t="n">
-        <v>9.221470463671722e-06</v>
+        <v>5.538430741580669e-06</v>
       </c>
       <c r="CO9" t="n">
-        <v>1.932762643264141e-06</v>
+        <v>2.544937842685613e-06</v>
       </c>
       <c r="CP9" t="n">
-        <v>8.218155016948003e-06</v>
+        <v>3.585094873415073e-06</v>
       </c>
       <c r="CQ9" t="n">
-        <v>6.203919383551693e-06</v>
+        <v>3.365335487615084e-06</v>
       </c>
       <c r="CR9" t="n">
-        <v>6.063595265004551e-06</v>
+        <v>5.701530881196959e-06</v>
       </c>
       <c r="CS9" t="n">
-        <v>1.507907768427685e-06</v>
+        <v>1.527410631751991e-06</v>
       </c>
       <c r="CT9" t="n">
-        <v>1.890752741928736e-06</v>
+        <v>8.768166708250646e-07</v>
       </c>
       <c r="CU9" t="n">
-        <v>8.18683020042954e-06</v>
+        <v>5.289858108881162e-06</v>
       </c>
       <c r="CV9" t="n">
-        <v>1.364577201456996e-06</v>
+        <v>1.097820927498105e-06</v>
       </c>
       <c r="CW9" t="n">
-        <v>1.292997922064387e-06</v>
+        <v>4.206429366604425e-06</v>
       </c>
       <c r="CX9" t="n">
-        <v>8.093334145087283e-07</v>
+        <v>9.673968861534377e-07</v>
       </c>
       <c r="CY9" t="n">
-        <v>2.279811724292813e-06</v>
+        <v>1.160722831627936e-06</v>
       </c>
       <c r="CZ9" t="n">
-        <v>2.743467575783143e-06</v>
+        <v>4.469994109967956e-06</v>
       </c>
       <c r="DA9" t="n">
-        <v>9.03123236639658e-07</v>
+        <v>1.047006890075863e-06</v>
       </c>
       <c r="DB9" t="n">
-        <v>2.959242920042016e-06</v>
+        <v>2.268716798425885e-06</v>
       </c>
       <c r="DC9" t="n">
-        <v>2.839034550561337e-06</v>
+        <v>6.101024609961314e-07</v>
       </c>
       <c r="DD9" t="n">
-        <v>4.736872142530046e-06</v>
+        <v>2.801859011469787e-07</v>
       </c>
       <c r="DE9" t="n">
-        <v>2.49530194196268e-06</v>
+        <v>1.903207703435328e-06</v>
       </c>
       <c r="DF9" t="n">
-        <v>3.638747330114711e-07</v>
+        <v>8.164562132151332e-06</v>
       </c>
       <c r="DG9" t="n">
-        <v>6.506611953227548e-06</v>
+        <v>3.819792254944332e-06</v>
       </c>
       <c r="DH9" t="n">
-        <v>4.358238584245555e-06</v>
+        <v>1.316306315857219e-05</v>
       </c>
       <c r="DI9" t="n">
-        <v>1.478256763220998e-06</v>
+        <v>1.037580204865662e-06</v>
       </c>
       <c r="DJ9" t="n">
-        <v>1.729845735098934e-06</v>
+        <v>8.030813660298008e-06</v>
       </c>
       <c r="DK9" t="n">
-        <v>3.948249741370091e-06</v>
+        <v>7.142699359974358e-06</v>
       </c>
       <c r="DL9" t="n">
-        <v>1.909671709654504e-06</v>
+        <v>4.565857125271577e-06</v>
       </c>
       <c r="DM9" t="n">
-        <v>2.501091330486815e-06</v>
+        <v>4.042079126520548e-06</v>
       </c>
       <c r="DN9" t="n">
-        <v>3.969314093410503e-06</v>
+        <v>1.285575535803218e-06</v>
       </c>
       <c r="DO9" t="n">
-        <v>8.911809345590882e-06</v>
+        <v>5.849880380992545e-06</v>
       </c>
       <c r="DP9" t="n">
-        <v>3.619656467890309e-07</v>
+        <v>1.808933689062542e-06</v>
       </c>
       <c r="DQ9" t="n">
-        <v>1.745692657095788e-06</v>
+        <v>2.831266556313494e-06</v>
       </c>
       <c r="DR9" t="n">
-        <v>6.381311550285318e-07</v>
+        <v>3.691392748805811e-06</v>
       </c>
       <c r="DS9" t="n">
-        <v>3.397510681679705e-07</v>
+        <v>6.000200301059522e-06</v>
       </c>
       <c r="DT9" t="n">
-        <v>2.987570496770786e-06</v>
+        <v>2.120846602338133e-06</v>
       </c>
       <c r="DU9" t="n">
-        <v>4.522709332377417e-06</v>
+        <v>2.159715677407803e-06</v>
       </c>
       <c r="DV9" t="n">
-        <v>9.186001989291981e-06</v>
+        <v>1.497610469414212e-06</v>
       </c>
       <c r="DW9" t="n">
-        <v>3.132112851744751e-06</v>
+        <v>5.042401880928082e-06</v>
       </c>
       <c r="DX9" t="n">
-        <v>2.847315045073628e-06</v>
+        <v>6.439265689550666e-07</v>
       </c>
       <c r="DY9" t="n">
-        <v>4.086998615093762e-07</v>
+        <v>3.615538844314869e-06</v>
       </c>
       <c r="DZ9" t="n">
-        <v>6.46346904886741e-07</v>
+        <v>4.219168204144808e-06</v>
       </c>
       <c r="EA9" t="n">
-        <v>5.557233635045122e-06</v>
+        <v>8.736706149647944e-06</v>
       </c>
       <c r="EB9" t="n">
-        <v>2.688682798179798e-06</v>
+        <v>5.886087706130638e-07</v>
       </c>
       <c r="EC9" t="n">
-        <v>1.042760757741235e-07</v>
+        <v>1.875253133221122e-06</v>
       </c>
       <c r="ED9" t="n">
-        <v>2.876816324715037e-06</v>
+        <v>2.798570051254501e-07</v>
       </c>
       <c r="EE9" t="n">
-        <v>3.445423544690129e-06</v>
+        <v>3.617900574681698e-06</v>
       </c>
       <c r="EF9" t="n">
-        <v>1.263522676708817e-06</v>
+        <v>1.50124463971224e-07</v>
       </c>
       <c r="EG9" t="n">
-        <v>3.811088390648365e-06</v>
+        <v>1.26824988910812e-06</v>
       </c>
       <c r="EH9" t="n">
-        <v>6.393257081072079e-06</v>
+        <v>2.867100647563348e-06</v>
       </c>
       <c r="EI9" t="n">
-        <v>5.75940703129163e-07</v>
+        <v>4.128831278649159e-06</v>
       </c>
       <c r="EJ9" t="n">
-        <v>5.44510294275824e-06</v>
+        <v>4.731304215965793e-06</v>
       </c>
       <c r="EK9" t="n">
-        <v>6.698483048239723e-07</v>
+        <v>1.540285211376613e-06</v>
       </c>
       <c r="EL9" t="n">
-        <v>2.164078068744857e-06</v>
+        <v>2.053225216513965e-06</v>
       </c>
       <c r="EM9" t="n">
-        <v>3.743815113921301e-06</v>
+        <v>1.800915811145387e-06</v>
       </c>
       <c r="EN9" t="n">
-        <v>5.462459739646874e-06</v>
+        <v>9.592702099325834e-07</v>
       </c>
       <c r="EO9" t="n">
-        <v>3.055322963518847e-07</v>
+        <v>2.743172217378742e-06</v>
       </c>
       <c r="EP9" t="n">
-        <v>4.067749159730738e-07</v>
+        <v>5.512190455192467e-06</v>
       </c>
       <c r="EQ9" t="n">
-        <v>3.259411414546776e-06</v>
+        <v>2.177154328819597e-06</v>
       </c>
       <c r="ER9" t="n">
-        <v>5.778892386842926e-07</v>
+        <v>2.182616071877419e-06</v>
       </c>
       <c r="ES9" t="n">
-        <v>3.241965487177367e-07</v>
+        <v>1.902251142382738e-06</v>
       </c>
       <c r="ET9" t="n">
-        <v>3.761325615414535e-07</v>
+        <v>1.026205336529529e-05</v>
       </c>
       <c r="EU9" t="n">
-        <v>1.137425897468347e-06</v>
+        <v>6.739948275935603e-06</v>
       </c>
       <c r="EV9" t="n">
-        <v>7.814630862412741e-07</v>
+        <v>2.300087771800463e-06</v>
       </c>
       <c r="EW9" t="n">
-        <v>6.957518962735776e-06</v>
+        <v>2.7216822218179e-07</v>
       </c>
       <c r="EX9" t="n">
-        <v>8.551875225748518e-07</v>
+        <v>1.885832261905307e-06</v>
       </c>
       <c r="EY9" t="n">
-        <v>1.837338459154125e-07</v>
+        <v>2.676145413715858e-06</v>
       </c>
       <c r="EZ9" t="n">
-        <v>2.221305749117164e-06</v>
+        <v>4.852623192164174e-09</v>
       </c>
       <c r="FA9" t="n">
-        <v>2.66995743913867e-06</v>
+        <v>2.732991561060771e-06</v>
       </c>
       <c r="FB9" t="n">
-        <v>3.584627847885713e-06</v>
+        <v>4.232369064993691e-06</v>
       </c>
       <c r="FC9" t="n">
-        <v>2.703462314457283e-06</v>
+        <v>1.749857347022044e-06</v>
       </c>
       <c r="FD9" t="n">
-        <v>2.784967591651366e-06</v>
+        <v>1.918351244967198e-06</v>
       </c>
       <c r="FE9" t="n">
-        <v>1.201089958158263e-06</v>
+        <v>4.97682151490153e-07</v>
       </c>
       <c r="FF9" t="n">
-        <v>4.45821751782205e-06</v>
+        <v>1.233037210113253e-06</v>
       </c>
       <c r="FG9" t="n">
-        <v>5.642799806082621e-06</v>
+        <v>6.681443665002007e-07</v>
       </c>
       <c r="FH9" t="n">
-        <v>6.112570190452971e-06</v>
+        <v>5.725788923882646e-06</v>
       </c>
       <c r="FI9" t="n">
-        <v>2.787500534395804e-06</v>
+        <v>4.539930159808137e-06</v>
       </c>
       <c r="FJ9" t="n">
-        <v>3.431491450101021e-06</v>
+        <v>4.367791007098276e-06</v>
       </c>
       <c r="FK9" t="n">
-        <v>3.704744813148864e-06</v>
+        <v>6.938602837180952e-06</v>
       </c>
       <c r="FL9" t="n">
-        <v>6.696630862279562e-06</v>
+        <v>1.568521383887855e-06</v>
       </c>
       <c r="FM9" t="n">
-        <v>4.895126039627939e-06</v>
+        <v>6.898314381942328e-07</v>
       </c>
       <c r="FN9" t="n">
-        <v>8.820685479804524e-07</v>
+        <v>5.060247985966271e-06</v>
       </c>
       <c r="FO9" t="n">
-        <v>8.490327672916465e-06</v>
+        <v>1.028056999530236e-06</v>
       </c>
       <c r="FP9" t="n">
-        <v>6.903493954268924e-08</v>
+        <v>6.445047802117188e-06</v>
       </c>
       <c r="FQ9" t="n">
-        <v>5.932337444392033e-06</v>
+        <v>3.223993871870334e-06</v>
       </c>
       <c r="FR9" t="n">
-        <v>4.373344836494653e-06</v>
+        <v>8.625747227597458e-07</v>
       </c>
       <c r="FS9" t="n">
-        <v>3.571475645003375e-06</v>
+        <v>8.40298639559478e-07</v>
       </c>
       <c r="FT9" t="n">
-        <v>1.707737283140887e-05</v>
+        <v>4.495139819482574e-06</v>
       </c>
       <c r="FU9" t="n">
-        <v>1.906242459881469e-06</v>
+        <v>2.224639047199162e-06</v>
       </c>
       <c r="FV9" t="n">
-        <v>3.991656853941095e-07</v>
+        <v>7.276216820173431e-06</v>
       </c>
       <c r="FW9" t="n">
-        <v>8.439586963504553e-06</v>
+        <v>6.532861334562767e-06</v>
       </c>
       <c r="FX9" t="n">
-        <v>2.398071046627592e-06</v>
+        <v>1.759675797075033e-06</v>
       </c>
       <c r="FY9" t="n">
-        <v>6.568455773958704e-06</v>
+        <v>6.394831871148199e-06</v>
       </c>
       <c r="FZ9" t="n">
-        <v>3.621151108745835e-06</v>
+        <v>1.852887976383499e-06</v>
       </c>
       <c r="GA9" t="n">
-        <v>5.906562137170113e-07</v>
+        <v>4.975053343514446e-06</v>
       </c>
       <c r="GB9" t="n">
-        <v>2.777138206511154e-06</v>
+        <v>2.382676711931708e-06</v>
       </c>
       <c r="GC9" t="n">
-        <v>4.235935193719342e-07</v>
+        <v>4.085713499080157e-06</v>
       </c>
       <c r="GD9" t="n">
-        <v>3.129228389298078e-06</v>
+        <v>2.504048097762279e-06</v>
       </c>
       <c r="GE9" t="n">
-        <v>8.774310344961123e-08</v>
+        <v>4.920233550365083e-06</v>
       </c>
       <c r="GF9" t="n">
-        <v>4.596910457621561e-06</v>
+        <v>4.813950454263249e-06</v>
       </c>
       <c r="GG9" t="n">
-        <v>1.360389660476358e-06</v>
+        <v>5.339000381354708e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0001160384563263506</v>
+        <v>0.0002599146973807365</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0005604514153674245</v>
+        <v>0.0008242044132202864</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003764902648981661</v>
+        <v>1.213458472193452e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0002454086497891694</v>
+        <v>0.0005212094401940703</v>
       </c>
       <c r="E10" t="n">
-        <v>0.000543199828825891</v>
+        <v>0.001337003079243004</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0009399314876645803</v>
+        <v>0.0003899869625456631</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0003321956901345402</v>
+        <v>0.0002788218553178012</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0005161829176358879</v>
+        <v>0.001323973760008812</v>
       </c>
       <c r="I10" t="n">
-        <v>0.000280514097539708</v>
+        <v>0.0002115378447342664</v>
       </c>
       <c r="J10" t="n">
-        <v>1.368455468764296e-05</v>
+        <v>0.0004025087109766901</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0001210117334267125</v>
+        <v>0.0005992384976707399</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001841086486820132</v>
+        <v>0.0001255188399227336</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0003277519717812538</v>
+        <v>0.0002851375902537256</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0005240705795586109</v>
+        <v>0.0009455231484025717</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0006981882615946233</v>
+        <v>0.0005874073831364512</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0001031260690069757</v>
+        <v>0.0005620726733468473</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0003778018290176988</v>
+        <v>0.0006967756780795753</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0001905128447106108</v>
+        <v>0.0001552500907564536</v>
       </c>
       <c r="S10" t="n">
-        <v>7.365350029431283e-05</v>
+        <v>0.0001243180595338345</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0001140927051892504</v>
+        <v>9.627874533180147e-06</v>
       </c>
       <c r="U10" t="n">
-        <v>5.213816621107981e-05</v>
+        <v>0.000251847697654739</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0002393871254753321</v>
+        <v>0.0003748171438928694</v>
       </c>
       <c r="W10" t="n">
-        <v>8.495151996612549e-05</v>
+        <v>0.001004655961878598</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0003131368721369654</v>
+        <v>0.0002168864739360288</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0001630933984415606</v>
+        <v>0.0002307065005879849</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0001563326368341222</v>
+        <v>0.0004007784882560372</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.0001031271240208298</v>
+        <v>0.0002347230183659121</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.778971823630854e-05</v>
+        <v>0.0004025475645903498</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0002434731868561357</v>
+        <v>0.0001331492385361344</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.0001453628501622006</v>
+        <v>1.124912523664534e-05</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0003289651940576732</v>
+        <v>4.768486542161554e-05</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0001761172898113728</v>
+        <v>0.0002721432829275727</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.998528543685097e-05</v>
+        <v>0.0005420828820206225</v>
       </c>
       <c r="AH10" t="n">
-        <v>3.700184970512055e-05</v>
+        <v>0.0004836602893192321</v>
       </c>
       <c r="AI10" t="n">
-        <v>9.720456000650302e-05</v>
+        <v>0.0003189383423887193</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.0003384941373951733</v>
+        <v>0.0002930330811068416</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.592461896711029e-05</v>
+        <v>6.504019256681204e-05</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.0005219542654231191</v>
+        <v>0.00027215521549806</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.0001909653219627216</v>
+        <v>4.92143735755235e-05</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.592211967566982e-05</v>
+        <v>0.0001997849758481607</v>
       </c>
       <c r="AO10" t="n">
-        <v>3.495181772450451e-06</v>
+        <v>0.0004928166745230556</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.0001862971985246986</v>
+        <v>0.0003768598253373057</v>
       </c>
       <c r="AQ10" t="n">
-        <v>6.210414539964404e-06</v>
+        <v>0.0001915887405630201</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.0002056077501038089</v>
+        <v>0.0003705019480548799</v>
       </c>
       <c r="AS10" t="n">
-        <v>5.892126137041487e-05</v>
+        <v>0.0001100744193536229</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.0001905944955069572</v>
+        <v>2.872737240977585e-05</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.0005735046579502523</v>
+        <v>4.63801552541554e-06</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.0005398168577812612</v>
+        <v>7.004552753642201e-05</v>
       </c>
       <c r="AW10" t="n">
-        <v>2.78159131994471e-05</v>
+        <v>3.162001667078584e-05</v>
       </c>
       <c r="AX10" t="n">
-        <v>6.047581700840965e-05</v>
+        <v>0.001073095249012113</v>
       </c>
       <c r="AY10" t="n">
-        <v>3.389919584151357e-05</v>
+        <v>0.001097427564673126</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.0002575443650130183</v>
+        <v>0.0001520261721452698</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.0003111188416369259</v>
+        <v>0.0004113097966182977</v>
       </c>
       <c r="BB10" t="n">
-        <v>1.35031805257313e-05</v>
+        <v>0.0004265780444256961</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.0001747699279803783</v>
+        <v>0.0004693077062256634</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.0003515119315125048</v>
+        <v>0.0001291389926336706</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.0002093822695314884</v>
+        <v>0.0001898967748275027</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.0002824693510774523</v>
+        <v>0.0004593402263708413</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.0003552892303559929</v>
+        <v>0.0003919420996680856</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.0002313060103915632</v>
+        <v>0.0001335136184934527</v>
       </c>
       <c r="BI10" t="n">
-        <v>1.434496152796783e-05</v>
+        <v>0.000132999790366739</v>
       </c>
       <c r="BJ10" t="n">
-        <v>8.549748599762097e-06</v>
+        <v>0.0004012571007478982</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.0002685587096493691</v>
+        <v>0.0001989564188988879</v>
       </c>
       <c r="BL10" t="n">
-        <v>5.615804911940359e-05</v>
+        <v>0.0004361738101579249</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.0003181384527124465</v>
+        <v>0.0004093773022759706</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.0001043534721247852</v>
+        <v>0.0002728332474362105</v>
       </c>
       <c r="BO10" t="n">
-        <v>6.068071161280386e-05</v>
+        <v>0.0002645365311764181</v>
       </c>
       <c r="BP10" t="n">
-        <v>4.706782419816591e-05</v>
+        <v>1.466443427489139e-05</v>
       </c>
       <c r="BQ10" t="n">
-        <v>6.368514004861936e-05</v>
+        <v>0.000111517365439795</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.0001145388596341945</v>
+        <v>0.0002201530442107469</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.0001359214511467144</v>
+        <v>0.0001509134890511632</v>
       </c>
       <c r="BT10" t="n">
-        <v>2.379864235990681e-05</v>
+        <v>0.0005435991915874183</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.0001251016219612211</v>
+        <v>4.946401168126613e-05</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.000307135604089126</v>
+        <v>0.0002802524832077324</v>
       </c>
       <c r="BW10" t="n">
-        <v>9.039654105436057e-05</v>
+        <v>4.246829485055059e-05</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.0002142295707017183</v>
+        <v>0.0004195471701677889</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.0005023489939048886</v>
+        <v>0.001217225799337029</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.000216591710341163</v>
+        <v>0.0001222503487952054</v>
       </c>
       <c r="CA10" t="n">
-        <v>5.441371104097925e-05</v>
+        <v>0.0001897585607366636</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.0002197305584559217</v>
+        <v>0.0004174132482148707</v>
       </c>
       <c r="CC10" t="n">
-        <v>5.508001049747691e-05</v>
+        <v>6.605614180443808e-05</v>
       </c>
       <c r="CD10" t="n">
-        <v>2.955953641503584e-05</v>
+        <v>0.0001964703551493585</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.0002107639156747609</v>
+        <v>0.0001581578690093011</v>
       </c>
       <c r="CF10" t="n">
-        <v>1.661233545746654e-05</v>
+        <v>0.0001253632945008576</v>
       </c>
       <c r="CG10" t="n">
-        <v>1.89164620678639e-05</v>
+        <v>0.0001093600585591048</v>
       </c>
       <c r="CH10" t="n">
-        <v>9.768615564098582e-05</v>
+        <v>9.096513531403616e-05</v>
       </c>
       <c r="CI10" t="n">
-        <v>9.791176853468642e-05</v>
+        <v>9.982446499634534e-05</v>
       </c>
       <c r="CJ10" t="n">
-        <v>4.040332714794204e-05</v>
+        <v>3.982515045208856e-05</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.0001358707377221435</v>
+        <v>0.0001152673357864842</v>
       </c>
       <c r="CL10" t="n">
-        <v>2.179324292228557e-05</v>
+        <v>0.0001649372716201469</v>
       </c>
       <c r="CM10" t="n">
-        <v>5.350752417143667e-06</v>
+        <v>0.0001859800540842116</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.000146349731949158</v>
+        <v>0.000574829347897321</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.0003574314177967608</v>
+        <v>7.806283247191459e-05</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.0001351235405309126</v>
+        <v>0.0004696878022514284</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.0001807513181120157</v>
+        <v>0.0001488896377850324</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.0001568246952956542</v>
+        <v>0.0005947623285464942</v>
       </c>
       <c r="CS10" t="n">
-        <v>4.562175672617741e-05</v>
+        <v>0.000219912632019259</v>
       </c>
       <c r="CT10" t="n">
-        <v>2.334858800168149e-05</v>
+        <v>0.0003079796442762017</v>
       </c>
       <c r="CU10" t="n">
-        <v>2.070908522000536e-05</v>
+        <v>0.000729988852981478</v>
       </c>
       <c r="CV10" t="n">
-        <v>4.323227767599747e-05</v>
+        <v>0.0001602649572305381</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.00023579818662256</v>
+        <v>0.0002007198054343462</v>
       </c>
       <c r="CX10" t="n">
-        <v>7.242607534863055e-05</v>
+        <v>7.485144305974245e-05</v>
       </c>
       <c r="CY10" t="n">
-        <v>2.145098187611438e-05</v>
+        <v>0.0001555784983793274</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.0001109066652134061</v>
+        <v>4.570191231323406e-05</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.000157661983394064</v>
+        <v>0.0001397355663357303</v>
       </c>
       <c r="DB10" t="n">
-        <v>6.099019810790196e-05</v>
+        <v>4.441020428203046e-05</v>
       </c>
       <c r="DC10" t="n">
-        <v>8.652255201013759e-05</v>
+        <v>0.0001243532897206023</v>
       </c>
       <c r="DD10" t="n">
-        <v>2.026404035859741e-05</v>
+        <v>0.0001318960858043283</v>
       </c>
       <c r="DE10" t="n">
-        <v>7.566947897430509e-05</v>
+        <v>3.381114947842434e-05</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.0002358532801736146</v>
+        <v>0.0003753108321689069</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.0003023658355232328</v>
+        <v>0.0005320108029991388</v>
       </c>
       <c r="DH10" t="n">
-        <v>9.085923375096172e-05</v>
+        <v>0.0007779592415317893</v>
       </c>
       <c r="DI10" t="n">
-        <v>5.254891948425211e-05</v>
+        <v>0.0002908005844801664</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.0002880424435716122</v>
+        <v>0.0001989520387724042</v>
       </c>
       <c r="DK10" t="n">
-        <v>5.345265162759461e-05</v>
+        <v>0.0004804414638783783</v>
       </c>
       <c r="DL10" t="n">
-        <v>3.187830225215293e-05</v>
+        <v>0.0001276471593882889</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.0002092368231387809</v>
+        <v>0.0003367335011716932</v>
       </c>
       <c r="DN10" t="n">
-        <v>1.127356335928198e-05</v>
+        <v>7.963469397509471e-05</v>
       </c>
       <c r="DO10" t="n">
-        <v>4.316350896260701e-06</v>
+        <v>7.29703315300867e-05</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.0001277279516216367</v>
+        <v>0.000345822365488857</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.0001446618844056502</v>
+        <v>0.0001313661050517112</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.0001512769376859069</v>
+        <v>0.0005007671425119042</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.0002981412108056247</v>
+        <v>0.0007046172395348549</v>
       </c>
       <c r="DT10" t="n">
-        <v>1.930190046550706e-05</v>
+        <v>5.244071508059278e-05</v>
       </c>
       <c r="DU10" t="n">
-        <v>8.454691123915836e-05</v>
+        <v>0.0003602582146413624</v>
       </c>
       <c r="DV10" t="n">
-        <v>8.349667041329667e-05</v>
+        <v>0.000242445821641013</v>
       </c>
       <c r="DW10" t="n">
-        <v>1.620264811208472e-07</v>
+        <v>0.0004633936914615333</v>
       </c>
       <c r="DX10" t="n">
-        <v>5.744766531279311e-05</v>
+        <v>0.000521682552061975</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.0001178542443085462</v>
+        <v>0.0001617141824681312</v>
       </c>
       <c r="DZ10" t="n">
-        <v>3.760665276786312e-05</v>
+        <v>0.0005848329165019095</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.0002589971118140966</v>
+        <v>0.0007970592705532908</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.000144146746606566</v>
+        <v>0.0003506799694150686</v>
       </c>
       <c r="EC10" t="n">
-        <v>3.902523894794285e-05</v>
+        <v>0.0001981749373953789</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.0001826650841394439</v>
+        <v>0.0003278928634244949</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.0001121327732107602</v>
+        <v>0.0001056198161677457</v>
       </c>
       <c r="EF10" t="n">
-        <v>1.584219535288867e-05</v>
+        <v>6.288503936957568e-05</v>
       </c>
       <c r="EG10" t="n">
-        <v>5.894396963412873e-06</v>
+        <v>0.0003064347547478974</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.0001540413068141788</v>
+        <v>0.0002215479034930468</v>
       </c>
       <c r="EI10" t="n">
-        <v>9.112010593526065e-05</v>
+        <v>0.000108836917206645</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.0001239056437043473</v>
+        <v>0.0001097250205930322</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.0003750242467503995</v>
+        <v>0.0002182099706260487</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.000108316722617019</v>
+        <v>7.457626634277403e-05</v>
       </c>
       <c r="EM10" t="n">
-        <v>5.419286026153713e-06</v>
+        <v>5.268082168186083e-05</v>
       </c>
       <c r="EN10" t="n">
-        <v>1.222618993779179e-05</v>
+        <v>4.333075048634782e-05</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.0001081981972674839</v>
+        <v>0.0002022084372583777</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.0002666163200046867</v>
+        <v>0.0003730103489942849</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.0003324714489281178</v>
+        <v>0.0003255119081586599</v>
       </c>
       <c r="ER10" t="n">
-        <v>5.541379869100638e-05</v>
+        <v>5.785614484921098e-05</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.0002336222678422928</v>
+        <v>0.0001287769700866193</v>
       </c>
       <c r="ET10" t="n">
-        <v>5.803407111670822e-05</v>
+        <v>0.0007154829800128937</v>
       </c>
       <c r="EU10" t="n">
-        <v>8.418396464549005e-05</v>
+        <v>0.000314833625452593</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.0001439555053366348</v>
+        <v>0.0001520310470368713</v>
       </c>
       <c r="EW10" t="n">
-        <v>5.21807414770592e-05</v>
+        <v>7.135987107176334e-05</v>
       </c>
       <c r="EX10" t="n">
-        <v>5.588749991147779e-05</v>
+        <v>0.0002098630357068032</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.0002166338381357491</v>
+        <v>0.0001788393856259063</v>
       </c>
       <c r="EZ10" t="n">
-        <v>1.132494071498513e-05</v>
+        <v>9.820189006859437e-06</v>
       </c>
       <c r="FA10" t="n">
-        <v>3.119407483609393e-05</v>
+        <v>0.0002155967522412539</v>
       </c>
       <c r="FB10" t="n">
-        <v>7.382196054095402e-05</v>
+        <v>7.77640743763186e-05</v>
       </c>
       <c r="FC10" t="n">
-        <v>9.904237231239676e-05</v>
+        <v>9.561909246258438e-05</v>
       </c>
       <c r="FD10" t="n">
-        <v>4.819692549062893e-05</v>
+        <v>1.25327587738866e-05</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.000119306037959177</v>
+        <v>3.531301263137721e-05</v>
       </c>
       <c r="FF10" t="n">
-        <v>2.599866093078163e-05</v>
+        <v>0.0002530439232941717</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.0001005062440526672</v>
+        <v>8.380684448638931e-05</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.0003019009891431779</v>
+        <v>0.0003858683921862394</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.0001195775694213808</v>
+        <v>0.0001406713563483208</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.0001419710606569424</v>
+        <v>0.0001577286748215556</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.0001924529497046024</v>
+        <v>8.711268310435116e-05</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.0003285548300482333</v>
+        <v>0.000148538063513115</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.0001315697154495865</v>
+        <v>6.606952229049057e-05</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.0004884511581622064</v>
+        <v>4.296409315429628e-05</v>
       </c>
       <c r="FO10" t="n">
-        <v>0.0002078913385048509</v>
+        <v>8.735543815419078e-06</v>
       </c>
       <c r="FP10" t="n">
-        <v>5.207310823607258e-05</v>
+        <v>0.0006362062995322049</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.0003270534216426313</v>
+        <v>0.0002879212843254209</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.0002008850278798491</v>
+        <v>0.0002474947250448167</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.0002000427339226007</v>
+        <v>0.0001343583135167137</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.0002317300532013178</v>
+        <v>0.0003216005570720881</v>
       </c>
       <c r="FU10" t="n">
-        <v>3.117083542747423e-05</v>
+        <v>0.0002636366116348654</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.000112844405521173</v>
+        <v>0.001194508629851043</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.0003530108951963484</v>
+        <v>0.0008093391661532223</v>
       </c>
       <c r="FX10" t="n">
-        <v>6.599279004149139e-05</v>
+        <v>0.0003076365683227777</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.0001155254140030593</v>
+        <v>0.0007265650201588869</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0.0001028065962600522</v>
+        <v>1.758785947458819e-05</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.0002120910794474185</v>
+        <v>0.0006880169385112822</v>
       </c>
       <c r="GB10" t="n">
-        <v>2.08644887607079e-05</v>
+        <v>0.0002205306227551773</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.0001172807242255658</v>
+        <v>0.0005116782849654555</v>
       </c>
       <c r="GD10" t="n">
-        <v>8.043256821110845e-05</v>
+        <v>0.0001032314685289748</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.0001020760973915458</v>
+        <v>0.0001068728961399756</v>
       </c>
       <c r="GF10" t="n">
-        <v>1.157719361799536e-05</v>
+        <v>0.0004086504632141441</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.0001228449691552669</v>
+        <v>9.811597556108609e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4.645356321830718e-10</v>
+        <v>4.727294799522497e-05</v>
       </c>
       <c r="B11" t="n">
-        <v>4.69639882538786e-09</v>
+        <v>1.152231288870098e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>1.480937372733138e-09</v>
+        <v>3.476815982139669e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>2.322096070983548e-09</v>
+        <v>1.479217644373421e-05</v>
       </c>
       <c r="E11" t="n">
-        <v>3.53356832683005e-09</v>
+        <v>0.000126077386084944</v>
       </c>
       <c r="F11" t="n">
-        <v>8.820927321906424e-10</v>
+        <v>4.799993621418253e-05</v>
       </c>
       <c r="G11" t="n">
-        <v>2.17941775737529e-09</v>
+        <v>2.981656507472508e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>1.6104375610837e-09</v>
+        <v>3.935390850529075e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>2.425780021297896e-09</v>
+        <v>5.867159779882059e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>7.415317249126474e-10</v>
+        <v>1.606324622116517e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>6.279930797603583e-09</v>
+        <v>5.632570901070721e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>1.308215868967011e-09</v>
+        <v>7.362658652709797e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>2.344889171723707e-09</v>
+        <v>1.576205977471545e-05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.855051471963634e-09</v>
+        <v>9.278587822336704e-05</v>
       </c>
       <c r="O11" t="n">
-        <v>5.983490369843025e-10</v>
+        <v>5.557696113100974e-06</v>
       </c>
       <c r="P11" t="n">
-        <v>4.579319146102989e-10</v>
+        <v>5.3601004765369e-05</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.307303681448047e-09</v>
+        <v>4.746875492855906e-05</v>
       </c>
       <c r="R11" t="n">
-        <v>1.603629451452093e-09</v>
+        <v>3.137086605420336e-05</v>
       </c>
       <c r="S11" t="n">
-        <v>1.538205118833957e-10</v>
+        <v>2.366308399359696e-05</v>
       </c>
       <c r="T11" t="n">
-        <v>3.86134013652395e-10</v>
+        <v>2.602610220492352e-05</v>
       </c>
       <c r="U11" t="n">
-        <v>1.119746184663484e-09</v>
+        <v>5.716015039070044e-07</v>
       </c>
       <c r="V11" t="n">
-        <v>3.683321148084673e-10</v>
+        <v>1.949710713233799e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>1.546697547816223e-09</v>
+        <v>9.144689829554409e-05</v>
       </c>
       <c r="X11" t="n">
-        <v>9.558159819178513e-10</v>
+        <v>1.844864709710237e-05</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.223715684339766e-09</v>
+        <v>2.08681285585044e-05</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.521941350723921e-09</v>
+        <v>4.746908962260932e-05</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.381170844361179e-09</v>
+        <v>2.566819966887124e-05</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.346090485389368e-10</v>
+        <v>1.75744753505569e-05</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.860162246458685e-09</v>
+        <v>4.246170647093095e-05</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.417063799635798e-09</v>
+        <v>5.625789344776422e-05</v>
       </c>
       <c r="AE11" t="n">
-        <v>2.25601115566576e-09</v>
+        <v>1.678217086009681e-05</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.454759979147013e-09</v>
+        <v>7.676683162571862e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.87620141645084e-09</v>
+        <v>1.741767391649773e-06</v>
       </c>
       <c r="AH11" t="n">
-        <v>4.304855916181793e-10</v>
+        <v>8.493373752571642e-05</v>
       </c>
       <c r="AI11" t="n">
-        <v>8.776441795532719e-10</v>
+        <v>6.419182318495587e-05</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.681297601141551e-10</v>
+        <v>9.078004222828895e-05</v>
       </c>
       <c r="AK11" t="n">
-        <v>1.408797523083649e-09</v>
+        <v>7.663793439860456e-06</v>
       </c>
       <c r="AL11" t="n">
-        <v>2.448509395236442e-09</v>
+        <v>3.46044689649716e-05</v>
       </c>
       <c r="AM11" t="n">
-        <v>9.136702505685435e-11</v>
+        <v>3.041147920157528e-06</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.206834937013014e-09</v>
+        <v>5.613354733213782e-05</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.349012790363702e-09</v>
+        <v>6.664312968496233e-05</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.559223306024649e-10</v>
+        <v>1.527708991488907e-05</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.365346529753509e-10</v>
+        <v>2.746049358393066e-05</v>
       </c>
       <c r="AR11" t="n">
-        <v>2.839703472368171e-10</v>
+        <v>3.481979729258455e-05</v>
       </c>
       <c r="AS11" t="n">
-        <v>3.293332273557326e-10</v>
+        <v>9.847475666902028e-06</v>
       </c>
       <c r="AT11" t="n">
-        <v>7.440617011411632e-10</v>
+        <v>3.263306280132383e-05</v>
       </c>
       <c r="AU11" t="n">
-        <v>6.875532587713451e-09</v>
+        <v>6.288278200372588e-06</v>
       </c>
       <c r="AV11" t="n">
-        <v>1.305997754386112e-09</v>
+        <v>3.4497561500757e-06</v>
       </c>
       <c r="AW11" t="n">
-        <v>5.915212764051603e-10</v>
+        <v>6.783197750337422e-05</v>
       </c>
       <c r="AX11" t="n">
-        <v>2.79607337283494e-09</v>
+        <v>0.0001409634423907846</v>
       </c>
       <c r="AY11" t="n">
-        <v>3.220703925777002e-09</v>
+        <v>5.035057256463915e-05</v>
       </c>
       <c r="AZ11" t="n">
-        <v>8.519651095717506e-10</v>
+        <v>0.0001131620083469898</v>
       </c>
       <c r="BA11" t="n">
-        <v>9.329125250090442e-10</v>
+        <v>0.0001268840132979676</v>
       </c>
       <c r="BB11" t="n">
-        <v>1.844743247048086e-09</v>
+        <v>1.967606840480585e-05</v>
       </c>
       <c r="BC11" t="n">
-        <v>2.690105915803542e-10</v>
+        <v>3.281026147305965e-05</v>
       </c>
       <c r="BD11" t="n">
-        <v>9.034144266006905e-11</v>
+        <v>1.161710497399326e-05</v>
       </c>
       <c r="BE11" t="n">
-        <v>9.269521261678904e-10</v>
+        <v>3.443469904595986e-05</v>
       </c>
       <c r="BF11" t="n">
-        <v>5.874135622363497e-10</v>
+        <v>1.976434941752814e-05</v>
       </c>
       <c r="BG11" t="n">
-        <v>1.171049701653715e-09</v>
+        <v>6.20032733422704e-06</v>
       </c>
       <c r="BH11" t="n">
-        <v>3.221516164941818e-09</v>
+        <v>3.08077251247596e-05</v>
       </c>
       <c r="BI11" t="n">
-        <v>2.079107552788173e-09</v>
+        <v>8.838380745146424e-05</v>
       </c>
       <c r="BJ11" t="n">
-        <v>1.693369999777872e-09</v>
+        <v>2.69497813860653e-05</v>
       </c>
       <c r="BK11" t="n">
-        <v>8.463582057416374e-10</v>
+        <v>1.909441198222339e-05</v>
       </c>
       <c r="BL11" t="n">
-        <v>1.444820263429847e-09</v>
+        <v>8.327911928063259e-06</v>
       </c>
       <c r="BM11" t="n">
-        <v>1.927814796687244e-09</v>
+        <v>4.131677997065708e-05</v>
       </c>
       <c r="BN11" t="n">
-        <v>2.982944335983007e-09</v>
+        <v>3.231739538023248e-05</v>
       </c>
       <c r="BO11" t="n">
-        <v>3.785783353471572e-10</v>
+        <v>8.531500498065725e-05</v>
       </c>
       <c r="BP11" t="n">
-        <v>2.609023663779908e-09</v>
+        <v>3.463844768702984e-05</v>
       </c>
       <c r="BQ11" t="n">
-        <v>1.810748329056366e-09</v>
+        <v>4.894585435977206e-05</v>
       </c>
       <c r="BR11" t="n">
-        <v>2.802936993617777e-09</v>
+        <v>7.13362533133477e-06</v>
       </c>
       <c r="BS11" t="n">
-        <v>2.537801524482575e-09</v>
+        <v>4.283081216271967e-05</v>
       </c>
       <c r="BT11" t="n">
-        <v>6.666380780728787e-10</v>
+        <v>7.107818964868784e-05</v>
       </c>
       <c r="BU11" t="n">
-        <v>5.033649608243707e-10</v>
+        <v>2.71713452093536e-05</v>
       </c>
       <c r="BV11" t="n">
-        <v>7.616360320206184e-10</v>
+        <v>7.343734523601597e-06</v>
       </c>
       <c r="BW11" t="n">
-        <v>1.163641405454996e-11</v>
+        <v>3.840410136035644e-05</v>
       </c>
       <c r="BX11" t="n">
-        <v>1.348635758624539e-09</v>
+        <v>2.112225411110558e-05</v>
       </c>
       <c r="BY11" t="n">
-        <v>5.458276053360578e-10</v>
+        <v>4.808901576325297e-05</v>
       </c>
       <c r="BZ11" t="n">
-        <v>1.509752101114259e-09</v>
+        <v>2.43614413193427e-05</v>
       </c>
       <c r="CA11" t="n">
-        <v>1.382685188566768e-09</v>
+        <v>4.183351484243758e-05</v>
       </c>
       <c r="CB11" t="n">
-        <v>1.140158634171939e-09</v>
+        <v>5.917892121942714e-05</v>
       </c>
       <c r="CC11" t="n">
-        <v>1.501224700106718e-09</v>
+        <v>4.321488086134195e-05</v>
       </c>
       <c r="CD11" t="n">
-        <v>5.63928348462639e-10</v>
+        <v>8.71662086865399e-06</v>
       </c>
       <c r="CE11" t="n">
-        <v>1.320423437256579e-09</v>
+        <v>1.614201210031752e-05</v>
       </c>
       <c r="CF11" t="n">
-        <v>1.980629549258595e-10</v>
+        <v>3.303232233520248e-06</v>
       </c>
       <c r="CG11" t="n">
-        <v>3.576946516758994e-10</v>
+        <v>3.059110531467013e-05</v>
       </c>
       <c r="CH11" t="n">
-        <v>3.387518321407157e-10</v>
+        <v>2.459939423715696e-05</v>
       </c>
       <c r="CI11" t="n">
-        <v>6.224754739436733e-11</v>
+        <v>6.454488811868941e-06</v>
       </c>
       <c r="CJ11" t="n">
-        <v>1.33211511266218e-10</v>
+        <v>4.892583092441782e-06</v>
       </c>
       <c r="CK11" t="n">
-        <v>4.349388904589802e-10</v>
+        <v>1.481783692725003e-05</v>
       </c>
       <c r="CL11" t="n">
-        <v>1.498167423452657e-10</v>
+        <v>5.983961273159366e-07</v>
       </c>
       <c r="CM11" t="n">
-        <v>2.348134797713897e-09</v>
+        <v>1.616091685718857e-05</v>
       </c>
       <c r="CN11" t="n">
-        <v>7.50168260843509e-10</v>
+        <v>3.896683847415261e-05</v>
       </c>
       <c r="CO11" t="n">
-        <v>6.748318570615197e-10</v>
+        <v>5.460226930154022e-06</v>
       </c>
       <c r="CP11" t="n">
-        <v>3.557869832082616e-10</v>
+        <v>6.882190064061433e-06</v>
       </c>
       <c r="CQ11" t="n">
-        <v>3.992099983918251e-09</v>
+        <v>2.666551517904736e-05</v>
       </c>
       <c r="CR11" t="n">
-        <v>6.834556809387493e-10</v>
+        <v>1.922324190672953e-05</v>
       </c>
       <c r="CS11" t="n">
-        <v>2.555460287823053e-09</v>
+        <v>1.768311449268367e-05</v>
       </c>
       <c r="CT11" t="n">
-        <v>1.901502288959023e-09</v>
+        <v>2.225408752565272e-05</v>
       </c>
       <c r="CU11" t="n">
-        <v>8.418080676975137e-10</v>
+        <v>8.806820551399142e-05</v>
       </c>
       <c r="CV11" t="n">
-        <v>1.092018586668075e-09</v>
+        <v>1.0036906132882e-05</v>
       </c>
       <c r="CW11" t="n">
-        <v>5.922362045218676e-10</v>
+        <v>1.886124846350867e-05</v>
       </c>
       <c r="CX11" t="n">
-        <v>6.803817509393184e-10</v>
+        <v>6.285502877290128e-06</v>
       </c>
       <c r="CY11" t="n">
-        <v>5.043533368720432e-10</v>
+        <v>3.058222864638083e-05</v>
       </c>
       <c r="CZ11" t="n">
-        <v>5.553484339060333e-10</v>
+        <v>1.56127007358009e-05</v>
       </c>
       <c r="DA11" t="n">
-        <v>3.400902337524769e-10</v>
+        <v>1.806333966669627e-05</v>
       </c>
       <c r="DB11" t="n">
-        <v>6.47562892197584e-10</v>
+        <v>1.536700438009575e-05</v>
       </c>
       <c r="DC11" t="n">
-        <v>4.199166847573821e-10</v>
+        <v>3.00376223094645e-06</v>
       </c>
       <c r="DD11" t="n">
-        <v>1.7869754287414e-10</v>
+        <v>7.417454980895855e-06</v>
       </c>
       <c r="DE11" t="n">
-        <v>9.852129112530861e-10</v>
+        <v>7.93178187450394e-05</v>
       </c>
       <c r="DF11" t="n">
-        <v>3.519533109397344e-09</v>
+        <v>8.243042248068377e-05</v>
       </c>
       <c r="DG11" t="n">
-        <v>8.417911923075394e-10</v>
+        <v>5.843390681548044e-06</v>
       </c>
       <c r="DH11" t="n">
-        <v>2.971124679618242e-09</v>
+        <v>9.581977792549878e-06</v>
       </c>
       <c r="DI11" t="n">
-        <v>1.058855780833312e-10</v>
+        <v>3.305134669062681e-06</v>
       </c>
       <c r="DJ11" t="n">
-        <v>3.486573252331482e-09</v>
+        <v>0.0001331696548731998</v>
       </c>
       <c r="DK11" t="n">
-        <v>1.057950949068243e-09</v>
+        <v>1.60455092554912e-05</v>
       </c>
       <c r="DL11" t="n">
-        <v>1.457458376208365e-09</v>
+        <v>6.117184966569766e-06</v>
       </c>
       <c r="DM11" t="n">
-        <v>2.086191663863701e-09</v>
+        <v>7.665276643820107e-05</v>
       </c>
       <c r="DN11" t="n">
-        <v>1.784708492102993e-09</v>
+        <v>8.193146641133353e-07</v>
       </c>
       <c r="DO11" t="n">
-        <v>3.443494378529977e-10</v>
+        <v>3.156830644002184e-05</v>
       </c>
       <c r="DP11" t="n">
-        <v>9.433344105858055e-10</v>
+        <v>2.82357977994252e-05</v>
       </c>
       <c r="DQ11" t="n">
-        <v>3.228733669313755e-10</v>
+        <v>4.536203778116032e-05</v>
       </c>
       <c r="DR11" t="n">
-        <v>5.782725409630984e-09</v>
+        <v>5.337415132089518e-05</v>
       </c>
       <c r="DS11" t="n">
-        <v>8.490151359730191e-10</v>
+        <v>8.090055416687392e-06</v>
       </c>
       <c r="DT11" t="n">
-        <v>1.050272202540725e-09</v>
+        <v>4.179647658020258e-05</v>
       </c>
       <c r="DU11" t="n">
-        <v>6.991053291827143e-10</v>
+        <v>1.539338882139418e-05</v>
       </c>
       <c r="DV11" t="n">
-        <v>1.391626258673284e-10</v>
+        <v>7.49640166759491e-05</v>
       </c>
       <c r="DW11" t="n">
-        <v>1.322907228207271e-09</v>
+        <v>2.37071726587601e-05</v>
       </c>
       <c r="DX11" t="n">
-        <v>1.590967801945453e-09</v>
+        <v>1.647485260036774e-05</v>
       </c>
       <c r="DY11" t="n">
-        <v>1.495409795992941e-09</v>
+        <v>2.243140625068918e-05</v>
       </c>
       <c r="DZ11" t="n">
-        <v>3.072142817917012e-10</v>
+        <v>6.778533133910969e-05</v>
       </c>
       <c r="EA11" t="n">
-        <v>8.643017967990829e-10</v>
+        <v>5.222741310717538e-05</v>
       </c>
       <c r="EB11" t="n">
-        <v>9.803414746656358e-10</v>
+        <v>3.46701308444608e-05</v>
       </c>
       <c r="EC11" t="n">
-        <v>4.93820095925912e-10</v>
+        <v>4.067287591169588e-07</v>
       </c>
       <c r="ED11" t="n">
-        <v>3.519672608920388e-10</v>
+        <v>2.894667159125675e-05</v>
       </c>
       <c r="EE11" t="n">
-        <v>6.82425116416141e-10</v>
+        <v>1.542278187116608e-05</v>
       </c>
       <c r="EF11" t="n">
-        <v>5.723094220755343e-11</v>
+        <v>1.798007906472776e-05</v>
       </c>
       <c r="EG11" t="n">
-        <v>4.320967472715154e-10</v>
+        <v>3.931940227630548e-06</v>
       </c>
       <c r="EH11" t="n">
-        <v>2.517157593473485e-10</v>
+        <v>7.319160886254394e-07</v>
       </c>
       <c r="EI11" t="n">
-        <v>3.959031769085186e-09</v>
+        <v>6.706050771754235e-05</v>
       </c>
       <c r="EJ11" t="n">
-        <v>2.351505656861264e-10</v>
+        <v>3.160080450470559e-05</v>
       </c>
       <c r="EK11" t="n">
-        <v>1.210044509036834e-09</v>
+        <v>4.216342131257989e-05</v>
       </c>
       <c r="EL11" t="n">
-        <v>2.384396569077296e-10</v>
+        <v>1.699209315120243e-05</v>
       </c>
       <c r="EM11" t="n">
-        <v>4.933666253315039e-10</v>
+        <v>3.127621312160045e-05</v>
       </c>
       <c r="EN11" t="n">
-        <v>2.002118026922517e-09</v>
+        <v>3.868148269248195e-06</v>
       </c>
       <c r="EO11" t="n">
-        <v>5.089116905665492e-10</v>
+        <v>1.261100078409072e-05</v>
       </c>
       <c r="EP11" t="n">
-        <v>4.045098034310968e-09</v>
+        <v>7.627731065440457e-06</v>
       </c>
       <c r="EQ11" t="n">
-        <v>2.81503653720705e-10</v>
+        <v>5.881410288566258e-06</v>
       </c>
       <c r="ER11" t="n">
-        <v>1.647244424196614e-10</v>
+        <v>4.433088179212064e-06</v>
       </c>
       <c r="ES11" t="n">
-        <v>1.578574937433075e-09</v>
+        <v>1.763682848832104e-05</v>
       </c>
       <c r="ET11" t="n">
-        <v>6.831539223206562e-10</v>
+        <v>1.31638407765422e-05</v>
       </c>
       <c r="EU11" t="n">
-        <v>1.713093555899547e-09</v>
+        <v>2.7181191398995e-05</v>
       </c>
       <c r="EV11" t="n">
-        <v>2.047206182353989e-09</v>
+        <v>3.204071617801674e-05</v>
       </c>
       <c r="EW11" t="n">
-        <v>3.526179626067716e-10</v>
+        <v>5.188988143345341e-05</v>
       </c>
       <c r="EX11" t="n">
-        <v>1.08009878818649e-09</v>
+        <v>1.461169813410379e-05</v>
       </c>
       <c r="EY11" t="n">
-        <v>1.417756911870072e-09</v>
+        <v>1.278914623981109e-05</v>
       </c>
       <c r="EZ11" t="n">
-        <v>2.070486559979656e-10</v>
+        <v>1.427216034244339e-06</v>
       </c>
       <c r="FA11" t="n">
-        <v>6.811220476521385e-10</v>
+        <v>3.133345308015123e-05</v>
       </c>
       <c r="FB11" t="n">
-        <v>4.114333040927676e-10</v>
+        <v>2.104667146340944e-05</v>
       </c>
       <c r="FC11" t="n">
-        <v>1.343750111182374e-11</v>
+        <v>1.217110821016831e-06</v>
       </c>
       <c r="FD11" t="n">
-        <v>4.628686323115971e-10</v>
+        <v>6.194877641974017e-07</v>
       </c>
       <c r="FE11" t="n">
-        <v>5.935645308596804e-10</v>
+        <v>2.183113974751905e-05</v>
       </c>
       <c r="FF11" t="n">
-        <v>4.018310129083602e-10</v>
+        <v>1.637653622310609e-05</v>
       </c>
       <c r="FG11" t="n">
-        <v>2.999873238707096e-09</v>
+        <v>4.368550798972137e-05</v>
       </c>
       <c r="FH11" t="n">
-        <v>6.919322337317624e-10</v>
+        <v>3.268253203714266e-05</v>
       </c>
       <c r="FI11" t="n">
-        <v>1.374193203673713e-09</v>
+        <v>1.974583756236825e-05</v>
       </c>
       <c r="FJ11" t="n">
-        <v>1.986032227563328e-09</v>
+        <v>7.335863483604044e-05</v>
       </c>
       <c r="FK11" t="n">
-        <v>3.379882373977239e-09</v>
+        <v>2.142395169357769e-05</v>
       </c>
       <c r="FL11" t="n">
-        <v>2.740279669843915e-10</v>
+        <v>1.337116009381134e-05</v>
       </c>
       <c r="FM11" t="n">
-        <v>6.785142447895964e-10</v>
+        <v>1.752391472109593e-05</v>
       </c>
       <c r="FN11" t="n">
-        <v>3.906732271019564e-09</v>
+        <v>1.996911305468529e-05</v>
       </c>
       <c r="FO11" t="n">
-        <v>2.609839011569193e-10</v>
+        <v>3.224171814508736e-05</v>
       </c>
       <c r="FP11" t="n">
-        <v>1.384614645161264e-11</v>
+        <v>4.024476947961375e-05</v>
       </c>
       <c r="FQ11" t="n">
-        <v>5.157030358304837e-11</v>
+        <v>9.729303201311268e-06</v>
       </c>
       <c r="FR11" t="n">
-        <v>1.093816481834153e-09</v>
+        <v>1.113400003305287e-06</v>
       </c>
       <c r="FS11" t="n">
-        <v>2.954082534145641e-09</v>
+        <v>9.974011845770292e-06</v>
       </c>
       <c r="FT11" t="n">
-        <v>1.731747745203904e-09</v>
+        <v>0.0002482719719409943</v>
       </c>
       <c r="FU11" t="n">
-        <v>2.132733323279012e-09</v>
+        <v>8.390613220399246e-05</v>
       </c>
       <c r="FV11" t="n">
-        <v>8.236497039959545e-10</v>
+        <v>2.76024602499092e-05</v>
       </c>
       <c r="FW11" t="n">
-        <v>1.409411254371662e-09</v>
+        <v>4.002643981948495e-05</v>
       </c>
       <c r="FX11" t="n">
-        <v>1.236469260312845e-10</v>
+        <v>2.704158760025166e-05</v>
       </c>
       <c r="FY11" t="n">
-        <v>2.081664840503095e-09</v>
+        <v>4.544537659967318e-05</v>
       </c>
       <c r="FZ11" t="n">
-        <v>1.154989159868336e-10</v>
+        <v>6.35318292552256e-06</v>
       </c>
       <c r="GA11" t="n">
-        <v>1.504106839078645e-09</v>
+        <v>3.962527989642695e-05</v>
       </c>
       <c r="GB11" t="n">
-        <v>2.04834327277581e-09</v>
+        <v>4.835752042708918e-05</v>
       </c>
       <c r="GC11" t="n">
-        <v>2.900551132611895e-09</v>
+        <v>5.38640160812065e-05</v>
       </c>
       <c r="GD11" t="n">
-        <v>9.493467123533605e-10</v>
+        <v>2.870268690458033e-05</v>
       </c>
       <c r="GE11" t="n">
-        <v>1.412027716973796e-10</v>
+        <v>0.0001029609265970066</v>
       </c>
       <c r="GF11" t="n">
-        <v>6.596175827766615e-10</v>
+        <v>0.0001044816308422014</v>
       </c>
       <c r="GG11" t="n">
-        <v>9.420967339579533e-10</v>
+        <v>0.0001172507327282801</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.820698763476685e-05</v>
+        <v>6.476431735791266e-05</v>
       </c>
       <c r="B12" t="n">
-        <v>3.356480738148093e-05</v>
+        <v>0.003689462319016457</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000170201194123365</v>
+        <v>0.0001013493383652531</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0007729054195806384</v>
+        <v>0.003574553411453962</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0001497501507401466</v>
+        <v>0.002419411204755306</v>
       </c>
       <c r="F12" t="n">
-        <v>0.000272650271654129</v>
+        <v>0.002156298141926527</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0001296578557230532</v>
+        <v>0.0008772690780460835</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0001370467361994088</v>
+        <v>0.0001192630588775501</v>
       </c>
       <c r="I12" t="n">
-        <v>8.885641000233591e-05</v>
+        <v>0.001442212611436844</v>
       </c>
       <c r="J12" t="n">
-        <v>3.969795579905622e-05</v>
+        <v>4.789241938851774e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>2.674142706382554e-05</v>
+        <v>0.003016771981492639</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001650540070841089</v>
+        <v>0.0002382020466029644</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0007802585605531931</v>
+        <v>0.00295598991215229</v>
       </c>
       <c r="N12" t="n">
-        <v>6.633336306549609e-05</v>
+        <v>0.002135050017386675</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0001129828815464862</v>
+        <v>0.001595253008417785</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0002355159376747906</v>
+        <v>0.001082623959518969</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0004279526183381677</v>
+        <v>0.001193819683976471</v>
       </c>
       <c r="R12" t="n">
-        <v>4.102645107195713e-05</v>
+        <v>0.001292117754928768</v>
       </c>
       <c r="S12" t="n">
-        <v>1.486008659412619e-05</v>
+        <v>8.359763160115108e-05</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0001945069816429168</v>
+        <v>0.0002842743415385485</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0001000370903057046</v>
+        <v>7.484333764296025e-05</v>
       </c>
       <c r="V12" t="n">
-        <v>9.835325909079984e-05</v>
+        <v>0.0008653307450003922</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0002682181366253644</v>
+        <v>0.002306736074388027</v>
       </c>
       <c r="X12" t="n">
-        <v>4.478706978261471e-05</v>
+        <v>0.0002262834750581533</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.665641846368089e-05</v>
+        <v>0.0007825040374882519</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.0002431633329251781</v>
+        <v>0.0001872809807537124</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.194845001213253e-05</v>
+        <v>0.0001343348121736199</v>
       </c>
       <c r="AB12" t="n">
-        <v>7.82705974415876e-05</v>
+        <v>0.0001107764837797731</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.0001740711741149426</v>
+        <v>4.173678462393582e-06</v>
       </c>
       <c r="AD12" t="n">
-        <v>8.760679338593036e-05</v>
+        <v>0.0004055494209751487</v>
       </c>
       <c r="AE12" t="n">
-        <v>3.418356936890632e-05</v>
+        <v>0.001165433088317513</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.0001160471147159114</v>
+        <v>0.001396602485328913</v>
       </c>
       <c r="AG12" t="n">
-        <v>7.549668225692585e-05</v>
+        <v>0.0008575448882766068</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.000132119603222236</v>
+        <v>0.0004851625708397478</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.0001963522663572803</v>
+        <v>0.0001155560166807845</v>
       </c>
       <c r="AJ12" t="n">
-        <v>7.111656304914504e-05</v>
+        <v>0.0002976259274873883</v>
       </c>
       <c r="AK12" t="n">
-        <v>4.572089892462827e-06</v>
+        <v>0.000102670950582251</v>
       </c>
       <c r="AL12" t="n">
-        <v>3.039134753635153e-05</v>
+        <v>0.0002038843231275678</v>
       </c>
       <c r="AM12" t="n">
-        <v>3.715791990543948e-06</v>
+        <v>0.0001467481779400259</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.000311084499116987</v>
+        <v>0.0001877860340755433</v>
       </c>
       <c r="AO12" t="n">
-        <v>5.924114884692244e-05</v>
+        <v>0.0008637775899842381</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.0001463985245209187</v>
+        <v>0.0008652945980429649</v>
       </c>
       <c r="AQ12" t="n">
-        <v>4.833626735489815e-05</v>
+        <v>0.0007601643446832895</v>
       </c>
       <c r="AR12" t="n">
-        <v>5.663872434524819e-05</v>
+        <v>0.0002395948249613866</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.68538826983422e-06</v>
+        <v>0.0001167479931609705</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.0001265984465135261</v>
+        <v>5.388124554883689e-05</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.854207458673045e-05</v>
+        <v>0.000980601878836751</v>
       </c>
       <c r="AV12" t="n">
-        <v>6.386406312230974e-05</v>
+        <v>0.0006023548194207251</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.0003980906330980361</v>
+        <v>0.002060260158032179</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.0001796944125089794</v>
+        <v>0.002382686827331781</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.0001515507756266743</v>
+        <v>0.0007882378995418549</v>
       </c>
       <c r="AZ12" t="n">
-        <v>6.286126881605014e-05</v>
+        <v>0.002433587098494172</v>
       </c>
       <c r="BA12" t="n">
-        <v>6.859224231448025e-05</v>
+        <v>0.002763168420642614</v>
       </c>
       <c r="BB12" t="n">
-        <v>2.710738226596732e-05</v>
+        <v>0.0001847746025305241</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.000133823006763123</v>
+        <v>0.0003588683612179011</v>
       </c>
       <c r="BD12" t="n">
-        <v>2.810722435242496e-05</v>
+        <v>0.001113133155740798</v>
       </c>
       <c r="BE12" t="n">
-        <v>3.891002052114345e-05</v>
+        <v>0.0002421821118332446</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.0003220068465452641</v>
+        <v>0.0002078428806271404</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.0001281071163248271</v>
+        <v>4.315308615332469e-05</v>
       </c>
       <c r="BH12" t="n">
-        <v>6.265241245273501e-05</v>
+        <v>0.0004956197226420045</v>
       </c>
       <c r="BI12" t="n">
-        <v>4.116170748602599e-05</v>
+        <v>0.001369894947856665</v>
       </c>
       <c r="BJ12" t="n">
-        <v>2.664826388354413e-05</v>
+        <v>0.0005587396444752812</v>
       </c>
       <c r="BK12" t="n">
-        <v>1.039563903759699e-05</v>
+        <v>0.001674797385931015</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.0001265492028323933</v>
+        <v>4.093704410479404e-05</v>
       </c>
       <c r="BM12" t="n">
-        <v>6.780112016713247e-06</v>
+        <v>0.0002686847583390772</v>
       </c>
       <c r="BN12" t="n">
-        <v>7.712546357652172e-05</v>
+        <v>0.0003814712981693447</v>
       </c>
       <c r="BO12" t="n">
-        <v>7.774651749059558e-05</v>
+        <v>0.001565455691888928</v>
       </c>
       <c r="BP12" t="n">
-        <v>1.091696049115853e-05</v>
+        <v>0.0006464301841333508</v>
       </c>
       <c r="BQ12" t="n">
-        <v>4.071666990057565e-05</v>
+        <v>0.0002289646945428103</v>
       </c>
       <c r="BR12" t="n">
-        <v>5.395614425651729e-05</v>
+        <v>0.000504594761878252</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.0001142916589742526</v>
+        <v>0.001200656522996724</v>
       </c>
       <c r="BT12" t="n">
-        <v>2.336368925170973e-05</v>
+        <v>0.000850049895234406</v>
       </c>
       <c r="BU12" t="n">
-        <v>1.249608794751111e-05</v>
+        <v>0.0004710675566457212</v>
       </c>
       <c r="BV12" t="n">
-        <v>4.395136420498602e-05</v>
+        <v>0.001488002599216998</v>
       </c>
       <c r="BW12" t="n">
-        <v>5.834954208694398e-06</v>
+        <v>6.543353083543479e-05</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.0004237910616211593</v>
+        <v>0.002391503658145666</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.0001699993008514866</v>
+        <v>0.002232205588370562</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.0001030940693453886</v>
+        <v>0.0001589380844961852</v>
       </c>
       <c r="CA12" t="n">
-        <v>8.643307955935597e-05</v>
+        <v>0.001148688490502536</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.0001102425158023834</v>
+        <v>0.0009590049739927053</v>
       </c>
       <c r="CC12" t="n">
-        <v>7.103721145540476e-05</v>
+        <v>0.0003434720856603235</v>
       </c>
       <c r="CD12" t="n">
-        <v>6.557931192219257e-05</v>
+        <v>1.902611438708846e-05</v>
       </c>
       <c r="CE12" t="n">
-        <v>1.361033719149418e-05</v>
+        <v>0.0003858903946820647</v>
       </c>
       <c r="CF12" t="n">
-        <v>5.232332114246674e-05</v>
+        <v>6.334691715892404e-05</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.0001739371509756893</v>
+        <v>0.000504725961945951</v>
       </c>
       <c r="CH12" t="n">
-        <v>4.486259058467112e-06</v>
+        <v>0.0002882833359763026</v>
       </c>
       <c r="CI12" t="n">
-        <v>1.622225499886554e-05</v>
+        <v>0.000152933323988691</v>
       </c>
       <c r="CJ12" t="n">
-        <v>1.235646777786314e-06</v>
+        <v>0.0003056626883335412</v>
       </c>
       <c r="CK12" t="n">
-        <v>3.128266325802542e-05</v>
+        <v>0.0001087410273612477</v>
       </c>
       <c r="CL12" t="n">
-        <v>4.145879938732833e-05</v>
+        <v>0.0002597790444269776</v>
       </c>
       <c r="CM12" t="n">
-        <v>1.734504621708766e-06</v>
+        <v>7.622162956977263e-05</v>
       </c>
       <c r="CN12" t="n">
-        <v>2.968159969896078e-05</v>
+        <v>0.0008763150544837117</v>
       </c>
       <c r="CO12" t="n">
-        <v>1.122539106290787e-05</v>
+        <v>0.0001329232909483835</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.0003026043996214867</v>
+        <v>0.0004754085384774953</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.000162455951794982</v>
+        <v>0.0003415846731513739</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.0001773029216565192</v>
+        <v>0.0009257665369659662</v>
       </c>
       <c r="CS12" t="n">
-        <v>8.024529961403459e-06</v>
+        <v>0.0008178807329386473</v>
       </c>
       <c r="CT12" t="n">
-        <v>3.602052311180159e-05</v>
+        <v>0.001338471658527851</v>
       </c>
       <c r="CU12" t="n">
-        <v>1.808257729862817e-05</v>
+        <v>0.0001875134621514007</v>
       </c>
       <c r="CV12" t="n">
-        <v>9.749138553161174e-05</v>
+        <v>4.812631232198328e-06</v>
       </c>
       <c r="CW12" t="n">
-        <v>2.795842738123611e-05</v>
+        <v>0.0005434461636468768</v>
       </c>
       <c r="CX12" t="n">
-        <v>4.55151021014899e-05</v>
+        <v>0.0001148421288235113</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.000151286250911653</v>
+        <v>0.0004572123289108276</v>
       </c>
       <c r="CZ12" t="n">
-        <v>1.739407707646023e-06</v>
+        <v>0.0005532422219403088</v>
       </c>
       <c r="DA12" t="n">
-        <v>1.448218699806603e-05</v>
+        <v>0.0002133629750460386</v>
       </c>
       <c r="DB12" t="n">
-        <v>8.287584932986647e-06</v>
+        <v>0.0002048357273451984</v>
       </c>
       <c r="DC12" t="n">
-        <v>3.162772918585688e-05</v>
+        <v>0.000154813242261298</v>
       </c>
       <c r="DD12" t="n">
-        <v>6.394714000634849e-05</v>
+        <v>0.0002672921109478921</v>
       </c>
       <c r="DE12" t="n">
-        <v>7.597021613037214e-05</v>
+        <v>0.0001296929258387536</v>
       </c>
       <c r="DF12" t="n">
-        <v>4.283145972294733e-05</v>
+        <v>0.001744428067468107</v>
       </c>
       <c r="DG12" t="n">
-        <v>4.988793807569891e-05</v>
+        <v>5.715565930586308e-05</v>
       </c>
       <c r="DH12" t="n">
-        <v>4.678070399677381e-05</v>
+        <v>0.002155802911147475</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.0002857215004041791</v>
+        <v>0.001481423154473305</v>
       </c>
       <c r="DJ12" t="n">
-        <v>9.007238986669108e-06</v>
+        <v>0.0007799313170835376</v>
       </c>
       <c r="DK12" t="n">
-        <v>4.809590973309241e-05</v>
+        <v>0.0008659720188006759</v>
       </c>
       <c r="DL12" t="n">
-        <v>8.151317888405174e-05</v>
+        <v>0.0004075327597092837</v>
       </c>
       <c r="DM12" t="n">
-        <v>3.167842078255489e-05</v>
+        <v>0.0006993504357524216</v>
       </c>
       <c r="DN12" t="n">
-        <v>6.751290129614063e-06</v>
+        <v>0.0007637236267328262</v>
       </c>
       <c r="DO12" t="n">
-        <v>9.154033614322543e-05</v>
+        <v>0.001248641288839281</v>
       </c>
       <c r="DP12" t="n">
-        <v>3.767172165680677e-05</v>
+        <v>0.0003667518321890384</v>
       </c>
       <c r="DQ12" t="n">
-        <v>2.830219636962283e-05</v>
+        <v>0.001348872669041157</v>
       </c>
       <c r="DR12" t="n">
-        <v>2.592084638308734e-05</v>
+        <v>9.722947288537398e-05</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.0001165129506262019</v>
+        <v>0.0003637397312559187</v>
       </c>
       <c r="DT12" t="n">
-        <v>5.37378218723461e-06</v>
+        <v>0.0003500179445836693</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.0001483497908338904</v>
+        <v>0.0003975734289269894</v>
       </c>
       <c r="DV12" t="n">
-        <v>7.770454249111935e-05</v>
+        <v>5.731577766709961e-05</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.0001062992014340125</v>
+        <v>0.0003918645670637488</v>
       </c>
       <c r="DX12" t="n">
-        <v>8.103001891868189e-05</v>
+        <v>0.0001534587936475873</v>
       </c>
       <c r="DY12" t="n">
-        <v>1.929193604155444e-05</v>
+        <v>0.0005347615806385875</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.0001046408651745878</v>
+        <v>0.0007183498819358647</v>
       </c>
       <c r="EA12" t="n">
-        <v>9.257159399567172e-05</v>
+        <v>0.001153181656263769</v>
       </c>
       <c r="EB12" t="n">
-        <v>3.763508721021935e-05</v>
+        <v>0.0001131392054958269</v>
       </c>
       <c r="EC12" t="n">
-        <v>7.119011570466682e-06</v>
+        <v>0.0001864559453679249</v>
       </c>
       <c r="ED12" t="n">
-        <v>3.923419626516989e-06</v>
+        <v>0.0005112339276820421</v>
       </c>
       <c r="EE12" t="n">
-        <v>4.009752228739671e-05</v>
+        <v>0.0001585400750627741</v>
       </c>
       <c r="EF12" t="n">
-        <v>4.661642742576078e-05</v>
+        <v>0.0001994871709030122</v>
       </c>
       <c r="EG12" t="n">
-        <v>2.5688081223052e-05</v>
+        <v>1.593484557815827e-05</v>
       </c>
       <c r="EH12" t="n">
-        <v>3.703292895806953e-05</v>
+        <v>0.0003362866409588605</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.000245806179009378</v>
+        <v>5.950217018835247e-05</v>
       </c>
       <c r="EJ12" t="n">
-        <v>4.916265243082307e-05</v>
+        <v>0.0006673448369838297</v>
       </c>
       <c r="EK12" t="n">
-        <v>3.49404253938701e-05</v>
+        <v>0.000217535620322451</v>
       </c>
       <c r="EL12" t="n">
-        <v>5.053839413449168e-05</v>
+        <v>0.0003391736245248467</v>
       </c>
       <c r="EM12" t="n">
-        <v>6.782747368561104e-05</v>
+        <v>8.779355994192883e-05</v>
       </c>
       <c r="EN12" t="n">
-        <v>5.277773743728176e-05</v>
+        <v>3.105361975030974e-05</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.0001547490828670561</v>
+        <v>0.000287262286292389</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.0001656786043895409</v>
+        <v>7.179007661761716e-05</v>
       </c>
       <c r="EQ12" t="n">
-        <v>9.258867066819221e-05</v>
+        <v>5.988707198412158e-05</v>
       </c>
       <c r="ER12" t="n">
-        <v>4.913331940770149e-05</v>
+        <v>0.0009773252531886101</v>
       </c>
       <c r="ES12" t="n">
-        <v>8.582352893427014e-05</v>
+        <v>0.0003748291055671871</v>
       </c>
       <c r="ET12" t="n">
-        <v>1.965399678738322e-05</v>
+        <v>0.002065403154119849</v>
       </c>
       <c r="EU12" t="n">
-        <v>2.10252583201509e-05</v>
+        <v>0.001092858146876097</v>
       </c>
       <c r="EV12" t="n">
-        <v>5.427734504337423e-05</v>
+        <v>0.0003655434993561357</v>
       </c>
       <c r="EW12" t="n">
-        <v>5.06612122990191e-05</v>
+        <v>0.001341661787591875</v>
       </c>
       <c r="EX12" t="n">
-        <v>7.412089325953275e-05</v>
+        <v>3.282745819888078e-05</v>
       </c>
       <c r="EY12" t="n">
-        <v>5.725943992729299e-06</v>
+        <v>0.0002946004387922585</v>
       </c>
       <c r="EZ12" t="n">
-        <v>5.295693335938267e-05</v>
+        <v>4.526542034000158e-05</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.0001439907355234027</v>
+        <v>0.0006651654257439077</v>
       </c>
       <c r="FB12" t="n">
-        <v>1.443609289708547e-05</v>
+        <v>0.0002281649358337745</v>
       </c>
       <c r="FC12" t="n">
-        <v>3.709260636242107e-05</v>
+        <v>0.0002252738195238635</v>
       </c>
       <c r="FD12" t="n">
-        <v>3.018221832462586e-05</v>
+        <v>0.0005397381028160453</v>
       </c>
       <c r="FE12" t="n">
-        <v>4.629640534403734e-05</v>
+        <v>0.0002701209741644561</v>
       </c>
       <c r="FF12" t="n">
-        <v>2.414511800452601e-05</v>
+        <v>0.0003406309988349676</v>
       </c>
       <c r="FG12" t="n">
-        <v>5.741264430980664e-06</v>
+        <v>0.0001082750095520169</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.0001265358150703833</v>
+        <v>0.0001203826832352206</v>
       </c>
       <c r="FI12" t="n">
-        <v>7.125100819393992e-05</v>
+        <v>0.0007689709309488535</v>
       </c>
       <c r="FJ12" t="n">
-        <v>7.592821202706546e-05</v>
+        <v>0.0003773757489398122</v>
       </c>
       <c r="FK12" t="n">
-        <v>6.860552093712613e-05</v>
+        <v>0.001196313765831292</v>
       </c>
       <c r="FL12" t="n">
-        <v>7.008853572187945e-05</v>
+        <v>0.001109780743718147</v>
       </c>
       <c r="FM12" t="n">
-        <v>3.493333133519627e-05</v>
+        <v>0.0002471827319823205</v>
       </c>
       <c r="FN12" t="n">
-        <v>7.496403122786433e-05</v>
+        <v>0.0004131320456508547</v>
       </c>
       <c r="FO12" t="n">
-        <v>2.905274595832452e-05</v>
+        <v>0.0004968286375515163</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.0001319657894782722</v>
+        <v>0.0002955674426630139</v>
       </c>
       <c r="FQ12" t="n">
-        <v>6.223170203156769e-05</v>
+        <v>0.0009037049021571875</v>
       </c>
       <c r="FR12" t="n">
-        <v>7.228284175653243e-06</v>
+        <v>0.0002101788122672588</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.0002897357626352459</v>
+        <v>0.001084987074136734</v>
       </c>
       <c r="FT12" t="n">
-        <v>5.373476233216934e-05</v>
+        <v>0.002679796423763037</v>
       </c>
       <c r="FU12" t="n">
-        <v>8.623221947345883e-05</v>
+        <v>0.001131005119532347</v>
       </c>
       <c r="FV12" t="n">
-        <v>1.084255927708e-06</v>
+        <v>0.0008582128211855888</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.0001059433197951876</v>
+        <v>0.0007051944849081337</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.0001603652053745463</v>
+        <v>0.0002932939387392253</v>
       </c>
       <c r="FY12" t="n">
-        <v>3.670678052003495e-05</v>
+        <v>0.0001709775242488831</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.0002245970827061683</v>
+        <v>0.000262215849943459</v>
       </c>
       <c r="GA12" t="n">
-        <v>2.043403219431639e-05</v>
+        <v>0.0002699347969610244</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.0001615469518583268</v>
+        <v>0.0004991810419596732</v>
       </c>
       <c r="GC12" t="n">
-        <v>5.435927960206755e-05</v>
+        <v>0.0008713961578905582</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.0001340250018984079</v>
+        <v>0.0003766109293792397</v>
       </c>
       <c r="GE12" t="n">
-        <v>2.088154724333435e-05</v>
+        <v>0.0001617411617189646</v>
       </c>
       <c r="GF12" t="n">
-        <v>6.319133717624936e-06</v>
+        <v>0.0007485542446374893</v>
       </c>
       <c r="GG12" t="n">
-        <v>0.0001241229037987068</v>
+        <v>0.0009215374593622983</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.227566883699183e-07</v>
+        <v>0.0003151681739836931</v>
       </c>
       <c r="B13" t="n">
-        <v>1.563962769068894e-06</v>
+        <v>0.0006266190321184695</v>
       </c>
       <c r="C13" t="n">
-        <v>1.260634348909662e-06</v>
+        <v>0.000121188691991847</v>
       </c>
       <c r="D13" t="n">
-        <v>4.086407898284961e-06</v>
+        <v>0.0002419720549369231</v>
       </c>
       <c r="E13" t="n">
-        <v>1.877804720606946e-06</v>
+        <v>0.0001482743682572618</v>
       </c>
       <c r="F13" t="n">
-        <v>1.595767116668867e-06</v>
+        <v>0.0006996582960709929</v>
       </c>
       <c r="G13" t="n">
-        <v>8.790857464191504e-07</v>
+        <v>4.29550746048335e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>4.986146251440005e-08</v>
+        <v>5.124978633830324e-05</v>
       </c>
       <c r="I13" t="n">
-        <v>3.662746621557744e-07</v>
+        <v>0.0006719641387462616</v>
       </c>
       <c r="J13" t="n">
-        <v>1.128021409613211e-08</v>
+        <v>9.006045729620382e-06</v>
       </c>
       <c r="K13" t="n">
-        <v>6.823275953138364e-07</v>
+        <v>0.0004305895417928696</v>
       </c>
       <c r="L13" t="n">
-        <v>4.503041566294996e-07</v>
+        <v>0.000154171691974625</v>
       </c>
       <c r="M13" t="n">
-        <v>3.701545210788026e-06</v>
+        <v>0.0002999374410137534</v>
       </c>
       <c r="N13" t="n">
-        <v>9.971653298634919e-07</v>
+        <v>4.90588390675839e-05</v>
       </c>
       <c r="O13" t="n">
-        <v>5.619901344289246e-07</v>
+        <v>0.000250753597356379</v>
       </c>
       <c r="P13" t="n">
-        <v>1.035361719914363e-06</v>
+        <v>0.0004993141046725214</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.37843254985637e-07</v>
+        <v>0.0003093109407927841</v>
       </c>
       <c r="R13" t="n">
-        <v>2.988415133131639e-07</v>
+        <v>0.000242721987888217</v>
       </c>
       <c r="S13" t="n">
-        <v>4.266025257493311e-07</v>
+        <v>8.883642294676974e-06</v>
       </c>
       <c r="T13" t="n">
-        <v>2.765323472431191e-07</v>
+        <v>0.0001039918715832755</v>
       </c>
       <c r="U13" t="n">
-        <v>1.181515969506108e-07</v>
+        <v>5.581356163020246e-05</v>
       </c>
       <c r="V13" t="n">
-        <v>6.799621701247816e-07</v>
+        <v>0.0001490057911723852</v>
       </c>
       <c r="W13" t="n">
-        <v>1.862532371887937e-06</v>
+        <v>0.0005821306258440018</v>
       </c>
       <c r="X13" t="n">
-        <v>9.572339365604421e-09</v>
+        <v>0.0002661301114130765</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.987304578207841e-07</v>
+        <v>0.0001077447959687561</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.69004090114322e-07</v>
+        <v>0.0003248098655603826</v>
       </c>
       <c r="AA13" t="n">
-        <v>3.651933297987853e-07</v>
+        <v>0.0001064131865859963</v>
       </c>
       <c r="AB13" t="n">
-        <v>2.213277525697777e-07</v>
+        <v>2.788047277135774e-05</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.707672024371277e-07</v>
+        <v>1.06009902083315e-05</v>
       </c>
       <c r="AD13" t="n">
-        <v>4.873609782407584e-07</v>
+        <v>0.0002554645470809191</v>
       </c>
       <c r="AE13" t="n">
-        <v>5.134974685461202e-07</v>
+        <v>0.0002340846403967589</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.378217100675101e-07</v>
+        <v>7.371948595391586e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>8.476873176732624e-07</v>
+        <v>7.905986421974376e-06</v>
       </c>
       <c r="AH13" t="n">
-        <v>2.935305474238703e-07</v>
+        <v>0.0002617991121951491</v>
       </c>
       <c r="AI13" t="n">
-        <v>2.343972909102376e-07</v>
+        <v>7.800583261996508e-06</v>
       </c>
       <c r="AJ13" t="n">
-        <v>2.132209715455247e-07</v>
+        <v>0.0004744451143778861</v>
       </c>
       <c r="AK13" t="n">
-        <v>8.734502898732899e-08</v>
+        <v>5.632135435007513e-05</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.478701392443327e-07</v>
+        <v>7.361685129581019e-05</v>
       </c>
       <c r="AM13" t="n">
-        <v>5.204395279179153e-07</v>
+        <v>0.0001109121803892776</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.159383145932225e-06</v>
+        <v>0.0004217320820316672</v>
       </c>
       <c r="AO13" t="n">
-        <v>3.45796138390142e-08</v>
+        <v>0.0002422534744255245</v>
       </c>
       <c r="AP13" t="n">
-        <v>6.424017442441254e-07</v>
+        <v>2.094315459544305e-05</v>
       </c>
       <c r="AQ13" t="n">
-        <v>3.323524992993043e-07</v>
+        <v>0.000148233724758029</v>
       </c>
       <c r="AR13" t="n">
-        <v>3.157013566124078e-07</v>
+        <v>6.875337930978276e-06</v>
       </c>
       <c r="AS13" t="n">
-        <v>5.100529776314033e-08</v>
+        <v>2.702867823245469e-05</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.969445063172316e-07</v>
+        <v>0.0002256617299281061</v>
       </c>
       <c r="AU13" t="n">
-        <v>2.822666260726692e-07</v>
+        <v>0.000343170395353809</v>
       </c>
       <c r="AV13" t="n">
-        <v>1.986671378517713e-07</v>
+        <v>8.516953676007688e-05</v>
       </c>
       <c r="AW13" t="n">
-        <v>2.466008481860626e-06</v>
+        <v>0.0002597008133307099</v>
       </c>
       <c r="AX13" t="n">
-        <v>2.338722879358102e-06</v>
+        <v>0.0005539905396290123</v>
       </c>
       <c r="AY13" t="n">
-        <v>5.599373480436043e-07</v>
+        <v>0.000642010651063174</v>
       </c>
       <c r="AZ13" t="n">
-        <v>2.716329561280872e-07</v>
+        <v>0.0006174823502078652</v>
       </c>
       <c r="BA13" t="n">
-        <v>4.838344125346339e-07</v>
+        <v>0.0004954791511408985</v>
       </c>
       <c r="BB13" t="n">
-        <v>2.884284526771808e-07</v>
+        <v>0.0004447685787454247</v>
       </c>
       <c r="BC13" t="n">
-        <v>5.897614414607233e-07</v>
+        <v>0.0003377945395186543</v>
       </c>
       <c r="BD13" t="n">
-        <v>3.925787837033567e-07</v>
+        <v>2.623928594402969e-06</v>
       </c>
       <c r="BE13" t="n">
-        <v>1.423001947387093e-07</v>
+        <v>3.637203190010041e-05</v>
       </c>
       <c r="BF13" t="n">
-        <v>1.70121393239242e-06</v>
+        <v>0.0005008413572795689</v>
       </c>
       <c r="BG13" t="n">
-        <v>6.989032499404857e-07</v>
+        <v>9.589989349478856e-05</v>
       </c>
       <c r="BH13" t="n">
-        <v>5.120649859691184e-08</v>
+        <v>0.0001173545242636465</v>
       </c>
       <c r="BI13" t="n">
-        <v>6.049151011211507e-07</v>
+        <v>0.0003998808679170907</v>
       </c>
       <c r="BJ13" t="n">
-        <v>2.12260118814811e-07</v>
+        <v>0.0002580850559752434</v>
       </c>
       <c r="BK13" t="n">
-        <v>5.977900627840427e-07</v>
+        <v>9.896825213218108e-05</v>
       </c>
       <c r="BL13" t="n">
-        <v>4.489401135288063e-07</v>
+        <v>0.0001520485966466367</v>
       </c>
       <c r="BM13" t="n">
-        <v>1.150220782619726e-06</v>
+        <v>0.0001278154813917354</v>
       </c>
       <c r="BN13" t="n">
-        <v>3.658412310869608e-07</v>
+        <v>7.402936898870394e-05</v>
       </c>
       <c r="BO13" t="n">
-        <v>6.922655870766903e-07</v>
+        <v>0.0005629956140182912</v>
       </c>
       <c r="BP13" t="n">
-        <v>4.031546723126667e-07</v>
+        <v>8.209295629058033e-06</v>
       </c>
       <c r="BQ13" t="n">
-        <v>4.673449041092681e-07</v>
+        <v>9.678406058810651e-05</v>
       </c>
       <c r="BR13" t="n">
-        <v>4.506537436554936e-07</v>
+        <v>0.0001740985171636567</v>
       </c>
       <c r="BS13" t="n">
-        <v>3.63798392299941e-07</v>
+        <v>0.0004478538176044822</v>
       </c>
       <c r="BT13" t="n">
-        <v>1.295456968364306e-07</v>
+        <v>0.0003047059872187674</v>
       </c>
       <c r="BU13" t="n">
-        <v>5.398344455898041e-07</v>
+        <v>4.860819171881303e-05</v>
       </c>
       <c r="BV13" t="n">
-        <v>4.159686568527832e-07</v>
+        <v>0.0002202602918259799</v>
       </c>
       <c r="BW13" t="n">
-        <v>2.099946811995324e-07</v>
+        <v>0.0001336801797151566</v>
       </c>
       <c r="BX13" t="n">
-        <v>2.112248694174923e-06</v>
+        <v>0.0001391384721500799</v>
       </c>
       <c r="BY13" t="n">
-        <v>1.212919642057386e-06</v>
+        <v>3.235738404328004e-05</v>
       </c>
       <c r="BZ13" t="n">
-        <v>7.277321287801897e-07</v>
+        <v>0.0003534284478519112</v>
       </c>
       <c r="CA13" t="n">
-        <v>1.610996491763217e-07</v>
+        <v>0.0003470940864644945</v>
       </c>
       <c r="CB13" t="n">
-        <v>4.436719507339149e-07</v>
+        <v>0.0003992208803538233</v>
       </c>
       <c r="CC13" t="n">
-        <v>6.223045829756302e-07</v>
+        <v>3.589576226659119e-05</v>
       </c>
       <c r="CD13" t="n">
-        <v>2.927452555923082e-07</v>
+        <v>2.649880116223358e-05</v>
       </c>
       <c r="CE13" t="n">
-        <v>1.955084627525139e-07</v>
+        <v>7.856762385927141e-05</v>
       </c>
       <c r="CF13" t="n">
-        <v>1.427735973891231e-08</v>
+        <v>8.164438622770831e-05</v>
       </c>
       <c r="CG13" t="n">
-        <v>9.165792675958073e-07</v>
+        <v>0.0001394760620314628</v>
       </c>
       <c r="CH13" t="n">
-        <v>2.55418257211204e-07</v>
+        <v>4.102139791939408e-05</v>
       </c>
       <c r="CI13" t="n">
-        <v>2.418084363853268e-07</v>
+        <v>3.362181450938806e-05</v>
       </c>
       <c r="CJ13" t="n">
-        <v>3.39182207653721e-07</v>
+        <v>2.293776560691185e-05</v>
       </c>
       <c r="CK13" t="n">
-        <v>1.389641646198925e-08</v>
+        <v>3.404244489502162e-05</v>
       </c>
       <c r="CL13" t="n">
-        <v>2.308432556219486e-07</v>
+        <v>2.109687920892611e-05</v>
       </c>
       <c r="CM13" t="n">
-        <v>7.502819698856911e-09</v>
+        <v>5.150758079253137e-05</v>
       </c>
       <c r="CN13" t="n">
-        <v>9.637599305278854e-07</v>
+        <v>0.0001396022271364927</v>
       </c>
       <c r="CO13" t="n">
-        <v>5.45652909522687e-08</v>
+        <v>4.667614120990038e-06</v>
       </c>
       <c r="CP13" t="n">
-        <v>1.747992882883409e-06</v>
+        <v>0.0001997893996303901</v>
       </c>
       <c r="CQ13" t="n">
-        <v>2.157815970349475e-08</v>
+        <v>0.0003619250783231109</v>
       </c>
       <c r="CR13" t="n">
-        <v>4.4232993445803e-07</v>
+        <v>0.0001117389474529773</v>
       </c>
       <c r="CS13" t="n">
-        <v>1.751624836288102e-07</v>
+        <v>0.0003646982950158417</v>
       </c>
       <c r="CT13" t="n">
-        <v>6.872783728795184e-07</v>
+        <v>5.596910796157317e-06</v>
       </c>
       <c r="CU13" t="n">
-        <v>8.823533903523639e-08</v>
+        <v>0.000564218033105135</v>
       </c>
       <c r="CV13" t="n">
-        <v>3.251771261147951e-07</v>
+        <v>1.13488822535146e-05</v>
       </c>
       <c r="CW13" t="n">
-        <v>2.098430371688664e-07</v>
+        <v>8.134524978231639e-05</v>
       </c>
       <c r="CX13" t="n">
-        <v>6.644177830139597e-08</v>
+        <v>7.486390677513555e-05</v>
       </c>
       <c r="CY13" t="n">
-        <v>8.28518068374251e-07</v>
+        <v>0.0001601912954356521</v>
       </c>
       <c r="CZ13" t="n">
-        <v>2.683601394437574e-07</v>
+        <v>4.943111707689241e-05</v>
       </c>
       <c r="DA13" t="n">
-        <v>2.227071718152729e-07</v>
+        <v>4.733778769150376e-05</v>
       </c>
       <c r="DB13" t="n">
-        <v>3.887358559495624e-07</v>
+        <v>3.759940955205821e-05</v>
       </c>
       <c r="DC13" t="n">
-        <v>1.554979291995551e-07</v>
+        <v>3.664335963549092e-07</v>
       </c>
       <c r="DD13" t="n">
-        <v>2.109420194074119e-07</v>
+        <v>2.122951991623268e-05</v>
       </c>
       <c r="DE13" t="n">
-        <v>1.204140062327497e-06</v>
+        <v>0.0005457662045955658</v>
       </c>
       <c r="DF13" t="n">
-        <v>2.639925469338777e-07</v>
+        <v>0.0006596943712793291</v>
       </c>
       <c r="DG13" t="n">
-        <v>3.60956704525961e-08</v>
+        <v>9.286552085541189e-06</v>
       </c>
       <c r="DH13" t="n">
-        <v>5.602792896297615e-08</v>
+        <v>0.0004005678638350219</v>
       </c>
       <c r="DI13" t="n">
-        <v>7.920427265162289e-07</v>
+        <v>0.0003140107728540897</v>
       </c>
       <c r="DJ13" t="n">
-        <v>1.006411935122742e-06</v>
+        <v>0.001160344923846424</v>
       </c>
       <c r="DK13" t="n">
-        <v>4.234438222283643e-07</v>
+        <v>0.0003770226903725415</v>
       </c>
       <c r="DL13" t="n">
-        <v>3.146152494082344e-07</v>
+        <v>6.405575550161302e-05</v>
       </c>
       <c r="DM13" t="n">
-        <v>2.818698590090207e-07</v>
+        <v>0.0003409453202039003</v>
       </c>
       <c r="DN13" t="n">
-        <v>4.686845045398513e-07</v>
+        <v>0.0001806126965675503</v>
       </c>
       <c r="DO13" t="n">
-        <v>2.131723277898345e-07</v>
+        <v>0.0004422327037900686</v>
       </c>
       <c r="DP13" t="n">
-        <v>2.866979116333823e-07</v>
+        <v>0.0003846600884571671</v>
       </c>
       <c r="DQ13" t="n">
-        <v>2.350614778379168e-07</v>
+        <v>9.718912770040333e-05</v>
       </c>
       <c r="DR13" t="n">
-        <v>4.715026307167136e-07</v>
+        <v>0.0003783040447160602</v>
       </c>
       <c r="DS13" t="n">
-        <v>3.878069776419579e-07</v>
+        <v>0.0001511014124844223</v>
       </c>
       <c r="DT13" t="n">
-        <v>2.397898128947418e-07</v>
+        <v>0.0003707685391418636</v>
       </c>
       <c r="DU13" t="n">
-        <v>6.949900921426888e-07</v>
+        <v>0.0001139960368163884</v>
       </c>
       <c r="DV13" t="n">
-        <v>5.290751801112492e-07</v>
+        <v>0.0003820861165877432</v>
       </c>
       <c r="DW13" t="n">
-        <v>1.987271502912336e-08</v>
+        <v>0.0001302416494581848</v>
       </c>
       <c r="DX13" t="n">
-        <v>3.496008957881713e-07</v>
+        <v>6.146105442894623e-05</v>
       </c>
       <c r="DY13" t="n">
-        <v>7.255203371414609e-08</v>
+        <v>3.911337989848107e-05</v>
       </c>
       <c r="DZ13" t="n">
-        <v>7.372182153631002e-07</v>
+        <v>0.0002534022787585855</v>
       </c>
       <c r="EA13" t="n">
-        <v>2.659868130194809e-07</v>
+        <v>4.457142495084554e-05</v>
       </c>
       <c r="EB13" t="n">
-        <v>3.206994492188642e-08</v>
+        <v>0.0007547535351477563</v>
       </c>
       <c r="EC13" t="n">
-        <v>5.921907586525776e-08</v>
+        <v>1.313353777732118e-06</v>
       </c>
       <c r="ED13" t="n">
-        <v>2.79222007293356e-07</v>
+        <v>0.0002427167928544804</v>
       </c>
       <c r="EE13" t="n">
-        <v>3.066637077608902e-07</v>
+        <v>0.0006116877193562686</v>
       </c>
       <c r="EF13" t="n">
-        <v>2.033481649732494e-07</v>
+        <v>0.0001911439176183194</v>
       </c>
       <c r="EG13" t="n">
-        <v>3.862510880026093e-07</v>
+        <v>0.0002461419499013573</v>
       </c>
       <c r="EH13" t="n">
-        <v>2.821298892285995e-07</v>
+        <v>4.962903403793462e-05</v>
       </c>
       <c r="EI13" t="n">
-        <v>1.167847358374274e-06</v>
+        <v>0.000432470696978271</v>
       </c>
       <c r="EJ13" t="n">
-        <v>4.700630427123542e-07</v>
+        <v>3.584700607461855e-05</v>
       </c>
       <c r="EK13" t="n">
-        <v>1.457327698517474e-07</v>
+        <v>0.0003768519673030823</v>
       </c>
       <c r="EL13" t="n">
-        <v>4.72492388325918e-07</v>
+        <v>1.694409002084285e-05</v>
       </c>
       <c r="EM13" t="n">
-        <v>1.379562633019304e-07</v>
+        <v>0.0002815543266478926</v>
       </c>
       <c r="EN13" t="n">
-        <v>2.884098080357944e-07</v>
+        <v>3.996186205768026e-05</v>
       </c>
       <c r="EO13" t="n">
-        <v>4.820044523512479e-07</v>
+        <v>1.56000278366264e-05</v>
       </c>
       <c r="EP13" t="n">
-        <v>1.210437403642572e-07</v>
+        <v>0.0002344097592867911</v>
       </c>
       <c r="EQ13" t="n">
-        <v>3.091213613970467e-07</v>
+        <v>6.990472320467234e-05</v>
       </c>
       <c r="ER13" t="n">
-        <v>2.447700353513937e-08</v>
+        <v>7.677490793867037e-05</v>
       </c>
       <c r="ES13" t="n">
-        <v>8.773282189622478e-08</v>
+        <v>0.0003163022047374398</v>
       </c>
       <c r="ET13" t="n">
-        <v>9.981478754639284e-09</v>
+        <v>0.0003753837081603706</v>
       </c>
       <c r="EU13" t="n">
-        <v>2.37608858810745e-07</v>
+        <v>0.0004296514089219272</v>
       </c>
       <c r="EV13" t="n">
-        <v>3.377325583642232e-07</v>
+        <v>0.0005067758029326797</v>
       </c>
       <c r="EW13" t="n">
-        <v>1.696190423672306e-07</v>
+        <v>2.748964470811188e-05</v>
       </c>
       <c r="EX13" t="n">
-        <v>3.141034028431022e-07</v>
+        <v>5.579374555964023e-05</v>
       </c>
       <c r="EY13" t="n">
-        <v>1.43965053212014e-07</v>
+        <v>0.0001170595060102642</v>
       </c>
       <c r="EZ13" t="n">
-        <v>2.397017162536486e-08</v>
+        <v>1.480519586039009e-05</v>
       </c>
       <c r="FA13" t="n">
-        <v>7.064488158903259e-07</v>
+        <v>0.0002354298630962148</v>
       </c>
       <c r="FB13" t="n">
-        <v>2.71589158273855e-07</v>
+        <v>8.344815432792529e-05</v>
       </c>
       <c r="FC13" t="n">
-        <v>1.281695745092293e-07</v>
+        <v>1.125852031691466e-05</v>
       </c>
       <c r="FD13" t="n">
-        <v>5.232654984865803e-07</v>
+        <v>5.404236799222417e-05</v>
       </c>
       <c r="FE13" t="n">
-        <v>4.654824437011484e-08</v>
+        <v>0.000138400515425019</v>
       </c>
       <c r="FF13" t="n">
-        <v>2.774176621755942e-08</v>
+        <v>7.851140981074423e-05</v>
       </c>
       <c r="FG13" t="n">
-        <v>2.845799826900475e-07</v>
+        <v>0.0001990946911973879</v>
       </c>
       <c r="FH13" t="n">
-        <v>8.685685060072501e-08</v>
+        <v>0.000133558947709389</v>
       </c>
       <c r="FI13" t="n">
-        <v>1.311542234816443e-07</v>
+        <v>8.295020961668342e-05</v>
       </c>
       <c r="FJ13" t="n">
-        <v>5.869125629942573e-07</v>
+        <v>0.0003674827166832983</v>
       </c>
       <c r="FK13" t="n">
-        <v>5.38927451998461e-07</v>
+        <v>2.485538425389677e-05</v>
       </c>
       <c r="FL13" t="n">
-        <v>3.511495663133246e-07</v>
+        <v>0.0008615520200692117</v>
       </c>
       <c r="FM13" t="n">
-        <v>1.923201580211753e-07</v>
+        <v>0.0003110317629761994</v>
       </c>
       <c r="FN13" t="n">
-        <v>2.471442996920814e-07</v>
+        <v>0.000106479594251141</v>
       </c>
       <c r="FO13" t="n">
-        <v>3.273774495937687e-07</v>
+        <v>0.0001568546140333638</v>
       </c>
       <c r="FP13" t="n">
-        <v>1.402028146912926e-06</v>
+        <v>0.0002149508218280971</v>
       </c>
       <c r="FQ13" t="n">
-        <v>3.252486635574314e-07</v>
+        <v>0.0001631923660170287</v>
       </c>
       <c r="FR13" t="n">
-        <v>4.644376758733415e-07</v>
+        <v>0.0003259720688220114</v>
       </c>
       <c r="FS13" t="n">
-        <v>3.70314523934212e-07</v>
+        <v>0.000370229099644348</v>
       </c>
       <c r="FT13" t="n">
-        <v>1.175821807919419e-06</v>
+        <v>0.001128379488363862</v>
       </c>
       <c r="FU13" t="n">
-        <v>1.03388038041885e-06</v>
+        <v>8.515363151673228e-05</v>
       </c>
       <c r="FV13" t="n">
-        <v>4.176734194061282e-07</v>
+        <v>0.000308898015646264</v>
       </c>
       <c r="FW13" t="n">
-        <v>1.502960458310554e-06</v>
+        <v>0.0004215522785671055</v>
       </c>
       <c r="FX13" t="n">
-        <v>4.556610520012327e-07</v>
+        <v>0.000350690505001694</v>
       </c>
       <c r="FY13" t="n">
-        <v>3.00424574106728e-09</v>
+        <v>0.0003559469187166542</v>
       </c>
       <c r="FZ13" t="n">
-        <v>9.950657897661586e-08</v>
+        <v>0.0001307215716224164</v>
       </c>
       <c r="GA13" t="n">
-        <v>1.200849908400414e-07</v>
+        <v>0.0003816979879047722</v>
       </c>
       <c r="GB13" t="n">
-        <v>8.044650599003944e-07</v>
+        <v>0.0004669248301070184</v>
       </c>
       <c r="GC13" t="n">
-        <v>7.474882295355201e-07</v>
+        <v>0.000239191489527002</v>
       </c>
       <c r="GD13" t="n">
-        <v>2.869755633128079e-07</v>
+        <v>0.0002925667795352638</v>
       </c>
       <c r="GE13" t="n">
-        <v>1.759219401265e-07</v>
+        <v>0.0002428027655696496</v>
       </c>
       <c r="GF13" t="n">
-        <v>4.318349624554685e-07</v>
+        <v>0.0006412722868844867</v>
       </c>
       <c r="GG13" t="n">
-        <v>1.977752788206999e-07</v>
+        <v>0.0005533475778065622</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.849718074363072e-12</v>
+        <v>0.000967502361163497</v>
       </c>
       <c r="B14" t="n">
-        <v>3.816378203042037e-12</v>
+        <v>0.00852595642209053</v>
       </c>
       <c r="C14" t="n">
-        <v>1.36449749069123e-12</v>
+        <v>0.0004197786620352417</v>
       </c>
       <c r="D14" t="n">
-        <v>7.906528730339257e-12</v>
+        <v>0.004265564028173685</v>
       </c>
       <c r="E14" t="n">
-        <v>7.975108420876786e-12</v>
+        <v>0.001956043764948845</v>
       </c>
       <c r="F14" t="n">
-        <v>3.23960151239755e-13</v>
+        <v>0.000207699034945108</v>
       </c>
       <c r="G14" t="n">
-        <v>1.019048127132161e-12</v>
+        <v>0.0008155146497301757</v>
       </c>
       <c r="H14" t="n">
-        <v>2.403524211255781e-12</v>
+        <v>0.0001314278488280252</v>
       </c>
       <c r="I14" t="n">
-        <v>1.936309619587906e-12</v>
+        <v>0.0005722357891499996</v>
       </c>
       <c r="J14" t="n">
-        <v>2.056586454954323e-12</v>
+        <v>0.0004430083208717406</v>
       </c>
       <c r="K14" t="n">
-        <v>4.328099944411745e-12</v>
+        <v>0.006518677808344364</v>
       </c>
       <c r="L14" t="n">
-        <v>1.250604762977059e-12</v>
+        <v>0.0006065979832783341</v>
       </c>
       <c r="M14" t="n">
-        <v>9.028345779316105e-12</v>
+        <v>0.00357888313010335</v>
       </c>
       <c r="N14" t="n">
-        <v>5.531460706142965e-12</v>
+        <v>0.002578639425337315</v>
       </c>
       <c r="O14" t="n">
-        <v>2.433644648650035e-12</v>
+        <v>0.001179061480797827</v>
       </c>
       <c r="P14" t="n">
-        <v>5.070639004164934e-13</v>
+        <v>0.0004948013229295611</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.454325371409327e-12</v>
+        <v>0.001086679054424167</v>
       </c>
       <c r="R14" t="n">
-        <v>4.240493373108833e-12</v>
+        <v>2.409687294857576e-05</v>
       </c>
       <c r="S14" t="n">
-        <v>9.042355622948528e-13</v>
+        <v>0.0001280844735447317</v>
       </c>
       <c r="T14" t="n">
-        <v>1.111687022818664e-12</v>
+        <v>0.0008519915863871574</v>
       </c>
       <c r="U14" t="n">
-        <v>6.686936161043322e-13</v>
+        <v>0.0003984073409810662</v>
       </c>
       <c r="V14" t="n">
-        <v>2.52620428915773e-12</v>
+        <v>0.001263028010725975</v>
       </c>
       <c r="W14" t="n">
-        <v>3.621228534048115e-12</v>
+        <v>0.001837437157519162</v>
       </c>
       <c r="X14" t="n">
-        <v>8.822897924407047e-13</v>
+        <v>0.000639065750874579</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.626708967181201e-12</v>
+        <v>0.0001616610825294629</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.927321149897132e-12</v>
+        <v>0.0009031145018525422</v>
       </c>
       <c r="AA14" t="n">
-        <v>2.672863558088323e-13</v>
+        <v>1.321772833762225e-05</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.700239016418081e-12</v>
+        <v>0.0003709122538566589</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.241615719218776e-13</v>
+        <v>0.0007869121618568897</v>
       </c>
       <c r="AD14" t="n">
-        <v>3.534327507308949e-13</v>
+        <v>0.0005396876367740333</v>
       </c>
       <c r="AE14" t="n">
-        <v>4.058671801421276e-12</v>
+        <v>0.0005049000028520823</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.065268308274915e-12</v>
+        <v>0.000408332678489387</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.931935649868502e-13</v>
+        <v>0.001189554343000054</v>
       </c>
       <c r="AH14" t="n">
-        <v>1.595958391484298e-12</v>
+        <v>0.0003491875540930778</v>
       </c>
       <c r="AI14" t="n">
-        <v>8.89431540571084e-13</v>
+        <v>0.0008215636480599642</v>
       </c>
       <c r="AJ14" t="n">
-        <v>2.044153041280694e-12</v>
+        <v>0.0001018820912577212</v>
       </c>
       <c r="AK14" t="n">
-        <v>3.108159129378008e-12</v>
+        <v>0.001189468428492546</v>
       </c>
       <c r="AL14" t="n">
-        <v>5.464152893173979e-13</v>
+        <v>0.0002123674639733508</v>
       </c>
       <c r="AM14" t="n">
-        <v>3.228008680668248e-14</v>
+        <v>0.0003339282411616296</v>
       </c>
       <c r="AN14" t="n">
-        <v>1.945728734381591e-13</v>
+        <v>0.0008053599740378559</v>
       </c>
       <c r="AO14" t="n">
-        <v>2.418750963406602e-12</v>
+        <v>0.001388948992826045</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.293164685577108e-12</v>
+        <v>0.001394618884660304</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.625445383759277e-14</v>
+        <v>0.0001286265323869884</v>
       </c>
       <c r="AR14" t="n">
-        <v>4.333649324811395e-13</v>
+        <v>0.0007983582327142358</v>
       </c>
       <c r="AS14" t="n">
-        <v>7.798763804883757e-13</v>
+        <v>0.0001428536488674581</v>
       </c>
       <c r="AT14" t="n">
-        <v>6.154452381751385e-12</v>
+        <v>0.0001035066670738161</v>
       </c>
       <c r="AU14" t="n">
-        <v>4.365147566326444e-12</v>
+        <v>0.004965148400515318</v>
       </c>
       <c r="AV14" t="n">
-        <v>6.408509790542527e-13</v>
+        <v>0.0001119531152653508</v>
       </c>
       <c r="AW14" t="n">
-        <v>5.803643156332416e-13</v>
+        <v>0.002044166438281536</v>
       </c>
       <c r="AX14" t="n">
-        <v>5.598995659467088e-12</v>
+        <v>0.0006965530337765813</v>
       </c>
       <c r="AY14" t="n">
-        <v>1.390302911859209e-12</v>
+        <v>0.0002791393781080842</v>
       </c>
       <c r="AZ14" t="n">
-        <v>6.214956934508242e-13</v>
+        <v>0.0003548919630702585</v>
       </c>
       <c r="BA14" t="n">
-        <v>1.260382965530271e-12</v>
+        <v>0.0002040346444118768</v>
       </c>
       <c r="BB14" t="n">
-        <v>1.321220693614733e-12</v>
+        <v>0.0006354928482323885</v>
       </c>
       <c r="BC14" t="n">
-        <v>6.012077229285151e-13</v>
+        <v>0.0009635114693082869</v>
       </c>
       <c r="BD14" t="n">
-        <v>2.524143546088486e-13</v>
+        <v>0.001704305526800454</v>
       </c>
       <c r="BE14" t="n">
-        <v>2.414955713701816e-13</v>
+        <v>0.0013370958622545</v>
       </c>
       <c r="BF14" t="n">
-        <v>4.831276871619661e-12</v>
+        <v>0.0006918506696820259</v>
       </c>
       <c r="BG14" t="n">
-        <v>2.282193097696839e-12</v>
+        <v>0.002490552607923746</v>
       </c>
       <c r="BH14" t="n">
-        <v>3.201528452068114e-12</v>
+        <v>0.0009924317710101604</v>
       </c>
       <c r="BI14" t="n">
-        <v>6.005370896747242e-13</v>
+        <v>0.001169464085251093</v>
       </c>
       <c r="BJ14" t="n">
-        <v>1.447587058903133e-12</v>
+        <v>0.0002520391717553139</v>
       </c>
       <c r="BK14" t="n">
-        <v>2.40080373116458e-12</v>
+        <v>0.0001525212137494236</v>
       </c>
       <c r="BL14" t="n">
-        <v>7.866751954715978e-13</v>
+        <v>0.0001097457716241479</v>
       </c>
       <c r="BM14" t="n">
-        <v>4.181061746821868e-12</v>
+        <v>0.001271898509003222</v>
       </c>
       <c r="BN14" t="n">
-        <v>5.181223288949766e-13</v>
+        <v>0.0006637858459725976</v>
       </c>
       <c r="BO14" t="n">
-        <v>2.247684460429666e-12</v>
+        <v>0.0003200953360646963</v>
       </c>
       <c r="BP14" t="n">
-        <v>1.546756971636254e-12</v>
+        <v>0.001211775583215058</v>
       </c>
       <c r="BQ14" t="n">
-        <v>1.13312652446837e-13</v>
+        <v>0.0008446340798400342</v>
       </c>
       <c r="BR14" t="n">
-        <v>1.896359859508007e-13</v>
+        <v>0.0003382993745617568</v>
       </c>
       <c r="BS14" t="n">
-        <v>1.118258155345664e-12</v>
+        <v>6.526672223117203e-05</v>
       </c>
       <c r="BT14" t="n">
-        <v>4.916909978128214e-13</v>
+        <v>0.0005787818809039891</v>
       </c>
       <c r="BU14" t="n">
-        <v>4.730776534400682e-12</v>
+        <v>0.001140029635280371</v>
       </c>
       <c r="BV14" t="n">
-        <v>1.306258161533347e-13</v>
+        <v>0.002907905727624893</v>
       </c>
       <c r="BW14" t="n">
-        <v>1.867000477828729e-12</v>
+        <v>0.0003526749496813864</v>
       </c>
       <c r="BX14" t="n">
-        <v>2.066076910250958e-12</v>
+        <v>0.0009663106175139546</v>
       </c>
       <c r="BY14" t="n">
-        <v>4.394488679199116e-12</v>
+        <v>0.0002660736790858209</v>
       </c>
       <c r="BZ14" t="n">
-        <v>5.181015122132648e-13</v>
+        <v>0.001025992212817073</v>
       </c>
       <c r="CA14" t="n">
-        <v>5.408542537443939e-16</v>
+        <v>0.0003643662785179913</v>
       </c>
       <c r="CB14" t="n">
-        <v>7.746627775015447e-13</v>
+        <v>0.0006372383795678616</v>
       </c>
       <c r="CC14" t="n">
-        <v>1.379202633176868e-12</v>
+        <v>0.0002866405702661723</v>
       </c>
       <c r="CD14" t="n">
-        <v>9.825395705376216e-13</v>
+        <v>0.0003967487427871674</v>
       </c>
       <c r="CE14" t="n">
-        <v>1.384503514438584e-12</v>
+        <v>0.001383650000207126</v>
       </c>
       <c r="CF14" t="n">
-        <v>2.160024817430412e-13</v>
+        <v>0.000406527251470834</v>
       </c>
       <c r="CG14" t="n">
-        <v>1.687722010756953e-12</v>
+        <v>0.0007413948187604547</v>
       </c>
       <c r="CH14" t="n">
-        <v>2.924699545048259e-12</v>
+        <v>0.0001887361140688881</v>
       </c>
       <c r="CI14" t="n">
-        <v>2.606768967350348e-14</v>
+        <v>3.804841981036589e-06</v>
       </c>
       <c r="CJ14" t="n">
-        <v>9.257855983560437e-14</v>
+        <v>0.0004879189364146441</v>
       </c>
       <c r="CK14" t="n">
-        <v>1.064762644373274e-12</v>
+        <v>0.0002688764943741262</v>
       </c>
       <c r="CL14" t="n">
-        <v>5.28061806521346e-13</v>
+        <v>1.706488546915352e-06</v>
       </c>
       <c r="CM14" t="n">
-        <v>1.413888103818373e-12</v>
+        <v>0.00287746568210423</v>
       </c>
       <c r="CN14" t="n">
-        <v>1.197360786908686e-12</v>
+        <v>0.0004943539388477802</v>
       </c>
       <c r="CO14" t="n">
-        <v>2.420278062166548e-13</v>
+        <v>0.0002206876524724066</v>
       </c>
       <c r="CP14" t="n">
-        <v>2.669311169670174e-12</v>
+        <v>0.0003120345354545861</v>
       </c>
       <c r="CQ14" t="n">
-        <v>4.003057000462329e-12</v>
+        <v>0.0003988136304542422</v>
       </c>
       <c r="CR14" t="n">
-        <v>1.848442189242294e-12</v>
+        <v>0.002847625175490975</v>
       </c>
       <c r="CS14" t="n">
-        <v>2.085717666286402e-13</v>
+        <v>0.0005601560114882886</v>
       </c>
       <c r="CT14" t="n">
-        <v>3.741926473538326e-12</v>
+        <v>0.0005985230673104525</v>
       </c>
       <c r="CU14" t="n">
-        <v>1.058802459770469e-12</v>
+        <v>0.001457032165490091</v>
       </c>
       <c r="CV14" t="n">
-        <v>9.731567765167148e-13</v>
+        <v>0.0002859105879906565</v>
       </c>
       <c r="CW14" t="n">
-        <v>1.359193790503865e-12</v>
+        <v>0.001420086482539773</v>
       </c>
       <c r="CX14" t="n">
-        <v>3.272888145396113e-13</v>
+        <v>0.0008025558199733496</v>
       </c>
       <c r="CY14" t="n">
-        <v>1.178258554092315e-12</v>
+        <v>0.0008505707373842597</v>
       </c>
       <c r="CZ14" t="n">
-        <v>2.177826495530777e-12</v>
+        <v>7.322906458284706e-05</v>
       </c>
       <c r="DA14" t="n">
-        <v>3.830659476688342e-13</v>
+        <v>0.000212388054933399</v>
       </c>
       <c r="DB14" t="n">
-        <v>7.224505282205085e-14</v>
+        <v>0.0002765342069324106</v>
       </c>
       <c r="DC14" t="n">
-        <v>9.345041017058686e-13</v>
+        <v>0.0004945227992720902</v>
       </c>
       <c r="DD14" t="n">
-        <v>4.992886529567309e-13</v>
+        <v>1.505257387179881e-06</v>
       </c>
       <c r="DE14" t="n">
-        <v>5.60757950490709e-12</v>
+        <v>0.001163158332929015</v>
       </c>
       <c r="DF14" t="n">
-        <v>4.641184572079515e-12</v>
+        <v>0.002539661945775151</v>
       </c>
       <c r="DG14" t="n">
-        <v>1.673880760562352e-13</v>
+        <v>0.002310610841959715</v>
       </c>
       <c r="DH14" t="n">
-        <v>2.618103758962598e-13</v>
+        <v>0.001582412514835596</v>
       </c>
       <c r="DI14" t="n">
-        <v>1.905105847382904e-14</v>
+        <v>4.549857840174809e-05</v>
       </c>
       <c r="DJ14" t="n">
-        <v>3.54523745429991e-12</v>
+        <v>0.0006010631332173944</v>
       </c>
       <c r="DK14" t="n">
-        <v>2.76277942580852e-13</v>
+        <v>0.001691895187832415</v>
       </c>
       <c r="DL14" t="n">
-        <v>3.414206200744174e-12</v>
+        <v>0.001342695322819054</v>
       </c>
       <c r="DM14" t="n">
-        <v>1.741264901364281e-12</v>
+        <v>0.0003228159621357918</v>
       </c>
       <c r="DN14" t="n">
-        <v>1.202463367593054e-12</v>
+        <v>0.0009131589904427528</v>
       </c>
       <c r="DO14" t="n">
-        <v>2.97438695852012e-13</v>
+        <v>0.0001605471188668162</v>
       </c>
       <c r="DP14" t="n">
-        <v>4.678522109655137e-13</v>
+        <v>0.0001069891368388198</v>
       </c>
       <c r="DQ14" t="n">
-        <v>2.047128308882429e-12</v>
+        <v>0.001437419792637229</v>
       </c>
       <c r="DR14" t="n">
-        <v>1.913328436659034e-12</v>
+        <v>5.310956476023421e-05</v>
       </c>
       <c r="DS14" t="n">
-        <v>1.466871329264263e-12</v>
+        <v>0.0001525335537735373</v>
       </c>
       <c r="DT14" t="n">
-        <v>5.857092697132693e-13</v>
+        <v>0.0003824988089036196</v>
       </c>
       <c r="DU14" t="n">
-        <v>1.111322947729143e-12</v>
+        <v>0.0006228307029232383</v>
       </c>
       <c r="DV14" t="n">
-        <v>1.610681531725999e-13</v>
+        <v>0.0007545802509412169</v>
       </c>
       <c r="DW14" t="n">
-        <v>7.332257359864841e-14</v>
+        <v>0.0009997414890676737</v>
       </c>
       <c r="DX14" t="n">
-        <v>1.721876872855244e-12</v>
+        <v>0.000523529713973403</v>
       </c>
       <c r="DY14" t="n">
-        <v>9.769480146734622e-13</v>
+        <v>0.0003114086284767836</v>
       </c>
       <c r="DZ14" t="n">
-        <v>1.366163042068602e-13</v>
+        <v>0.0005877759540453553</v>
       </c>
       <c r="EA14" t="n">
-        <v>5.505760777846369e-13</v>
+        <v>0.000944644445553422</v>
       </c>
       <c r="EB14" t="n">
-        <v>1.475098580609735e-12</v>
+        <v>0.001374996034428477</v>
       </c>
       <c r="EC14" t="n">
-        <v>3.994061754507977e-13</v>
+        <v>0.001476479461416602</v>
       </c>
       <c r="ED14" t="n">
-        <v>1.129188756388011e-12</v>
+        <v>0.0002401802485110238</v>
       </c>
       <c r="EE14" t="n">
-        <v>1.136988723657306e-12</v>
+        <v>0.000376740179490298</v>
       </c>
       <c r="EF14" t="n">
-        <v>2.10007879142271e-12</v>
+        <v>0.001353170489892364</v>
       </c>
       <c r="EG14" t="n">
-        <v>1.371517645547965e-13</v>
+        <v>0.001291682245209813</v>
       </c>
       <c r="EH14" t="n">
-        <v>5.916510228791416e-14</v>
+        <v>0.001733306329697371</v>
       </c>
       <c r="EI14" t="n">
-        <v>2.558904260360761e-12</v>
+        <v>0.0008104014559648931</v>
       </c>
       <c r="EJ14" t="n">
-        <v>1.421434367779306e-12</v>
+        <v>0.0003541147452779114</v>
       </c>
       <c r="EK14" t="n">
-        <v>7.366131901491435e-13</v>
+        <v>0.0001001452255877666</v>
       </c>
       <c r="EL14" t="n">
-        <v>2.374502504343123e-13</v>
+        <v>0.0001919950009323657</v>
       </c>
       <c r="EM14" t="n">
-        <v>1.171127756403878e-12</v>
+        <v>0.0002409931039437652</v>
       </c>
       <c r="EN14" t="n">
-        <v>9.814495136734047e-13</v>
+        <v>2.542747097322717e-05</v>
       </c>
       <c r="EO14" t="n">
-        <v>9.799226317538934e-13</v>
+        <v>0.0003104005008935928</v>
       </c>
       <c r="EP14" t="n">
-        <v>1.503724445309218e-12</v>
+        <v>0.001630718470551074</v>
       </c>
       <c r="EQ14" t="n">
-        <v>2.308404932049174e-13</v>
+        <v>0.0001772833929862827</v>
       </c>
       <c r="ER14" t="n">
-        <v>1.012976161285373e-12</v>
+        <v>0.001374505809508264</v>
       </c>
       <c r="ES14" t="n">
-        <v>2.287568788908456e-12</v>
+        <v>0.0005024700076319277</v>
       </c>
       <c r="ET14" t="n">
-        <v>3.712098987571077e-13</v>
+        <v>0.0003650495200417936</v>
       </c>
       <c r="EU14" t="n">
-        <v>1.74929600020796e-14</v>
+        <v>0.0008880100795067847</v>
       </c>
       <c r="EV14" t="n">
-        <v>2.326457711372687e-13</v>
+        <v>0.0004448239924386144</v>
       </c>
       <c r="EW14" t="n">
-        <v>4.00760506594558e-13</v>
+        <v>0.0003704616974573582</v>
       </c>
       <c r="EX14" t="n">
-        <v>9.411439726506043e-13</v>
+        <v>0.0006118585588410497</v>
       </c>
       <c r="EY14" t="n">
-        <v>1.201880500505126e-12</v>
+        <v>0.001451265416108072</v>
       </c>
       <c r="EZ14" t="n">
-        <v>1.728832598997879e-13</v>
+        <v>0.0005907913437113166</v>
       </c>
       <c r="FA14" t="n">
-        <v>1.27399382276322e-12</v>
+        <v>0.0009124042117036879</v>
       </c>
       <c r="FB14" t="n">
-        <v>2.444626532455141e-12</v>
+        <v>7.524651300627738e-05</v>
       </c>
       <c r="FC14" t="n">
-        <v>1.802710270556312e-13</v>
+        <v>3.900044248439372e-05</v>
       </c>
       <c r="FD14" t="n">
-        <v>6.441234264714657e-14</v>
+        <v>0.0004270193458069116</v>
       </c>
       <c r="FE14" t="n">
-        <v>5.475872576557461e-13</v>
+        <v>0.0005005362909287214</v>
       </c>
       <c r="FF14" t="n">
-        <v>3.95740298170244e-14</v>
+        <v>0.0001321090967394412</v>
       </c>
       <c r="FG14" t="n">
-        <v>1.271241900809017e-12</v>
+        <v>6.640981882810593e-05</v>
       </c>
       <c r="FH14" t="n">
-        <v>6.070903328658783e-13</v>
+        <v>0.000182769654202275</v>
       </c>
       <c r="FI14" t="n">
-        <v>2.705992981771876e-13</v>
+        <v>0.00072971370536834</v>
       </c>
       <c r="FJ14" t="n">
-        <v>2.119529812077969e-12</v>
+        <v>0.001215627766214311</v>
       </c>
       <c r="FK14" t="n">
-        <v>4.330241460542839e-12</v>
+        <v>0.0007727413903921843</v>
       </c>
       <c r="FL14" t="n">
-        <v>3.742229616465753e-12</v>
+        <v>0.000523111317306757</v>
       </c>
       <c r="FM14" t="n">
-        <v>1.97195775333836e-14</v>
+        <v>0.0003611088613979518</v>
       </c>
       <c r="FN14" t="n">
-        <v>6.121339329520636e-13</v>
+        <v>0.0003012418746948242</v>
       </c>
       <c r="FO14" t="n">
-        <v>1.293284381496951e-12</v>
+        <v>0.0003056983696296811</v>
       </c>
       <c r="FP14" t="n">
-        <v>1.47983285781611e-12</v>
+        <v>0.002160791773349047</v>
       </c>
       <c r="FQ14" t="n">
-        <v>2.031531410109921e-12</v>
+        <v>0.0005506153684109449</v>
       </c>
       <c r="FR14" t="n">
-        <v>2.848859819923333e-12</v>
+        <v>0.002863760106265545</v>
       </c>
       <c r="FS14" t="n">
-        <v>2.398827664285008e-12</v>
+        <v>0.0002999005664605647</v>
       </c>
       <c r="FT14" t="n">
-        <v>2.904375307963281e-12</v>
+        <v>0.0003404461604077369</v>
       </c>
       <c r="FU14" t="n">
-        <v>1.226054414243949e-12</v>
+        <v>0.0008104147273115814</v>
       </c>
       <c r="FV14" t="n">
-        <v>2.181223544882663e-13</v>
+        <v>0.001132671721279621</v>
       </c>
       <c r="FW14" t="n">
-        <v>1.298738568945856e-12</v>
+        <v>0.0007246696623042226</v>
       </c>
       <c r="FX14" t="n">
-        <v>1.203341029251681e-12</v>
+        <v>0.0009876079857349396</v>
       </c>
       <c r="FY14" t="n">
-        <v>8.324818156872638e-13</v>
+        <v>0.0001774828706402332</v>
       </c>
       <c r="FZ14" t="n">
-        <v>4.386662907918115e-12</v>
+        <v>0.0005960247362963855</v>
       </c>
       <c r="GA14" t="n">
-        <v>6.585690651671194e-13</v>
+        <v>0.0002110272325808182</v>
       </c>
       <c r="GB14" t="n">
-        <v>9.201496986230295e-13</v>
+        <v>0.0003094878629781306</v>
       </c>
       <c r="GC14" t="n">
-        <v>4.651196528621115e-12</v>
+        <v>0.0006848124321550131</v>
       </c>
       <c r="GD14" t="n">
-        <v>1.782271162251159e-14</v>
+        <v>0.0001638116373214871</v>
       </c>
       <c r="GE14" t="n">
-        <v>1.850758695604027e-12</v>
+        <v>0.001295199617743492</v>
       </c>
       <c r="GF14" t="n">
-        <v>1.710508037294778e-12</v>
+        <v>0.0002350246795685962</v>
       </c>
       <c r="GG14" t="n">
-        <v>2.562299331043683e-13</v>
+        <v>4.364835331216455e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.01747666113078594</v>
+        <v>0.1179532185196877</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01232624985277653</v>
+        <v>0.4086227416992188</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02214956283569336</v>
+        <v>0.2002087831497192</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02386909909546375</v>
+        <v>0.02880354225635529</v>
       </c>
       <c r="E15" t="n">
-        <v>0.005326874554157257</v>
+        <v>0.0197340939193964</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003729532472789288</v>
+        <v>0.09786935150623322</v>
       </c>
       <c r="G15" t="n">
-        <v>0.001108606345951557</v>
+        <v>0.04083642363548279</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01197411399334669</v>
+        <v>0.1315550059080124</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04868768900632858</v>
+        <v>0.03557740524411201</v>
       </c>
       <c r="J15" t="n">
-        <v>0.008982414379715919</v>
+        <v>0.1999771445989609</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01404561288654804</v>
+        <v>0.3822925388813019</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03047255426645279</v>
+        <v>0.1484428197145462</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0164541732519865</v>
+        <v>0.02980890311300755</v>
       </c>
       <c r="N15" t="n">
-        <v>0.007942204363644123</v>
+        <v>0.08167183399200439</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01669626496732235</v>
+        <v>0.01067967060953379</v>
       </c>
       <c r="P15" t="n">
-        <v>0.001293371431529522</v>
+        <v>0.07658950984477997</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.008095940575003624</v>
+        <v>0.153922364115715</v>
       </c>
       <c r="R15" t="n">
-        <v>0.04991168901324272</v>
+        <v>0.08392908424139023</v>
       </c>
       <c r="S15" t="n">
-        <v>0.003599050454795361</v>
+        <v>0.0723525807261467</v>
       </c>
       <c r="T15" t="n">
-        <v>0.001821951940655708</v>
+        <v>0.08110932260751724</v>
       </c>
       <c r="U15" t="n">
-        <v>0.002163371304050088</v>
+        <v>0.08334069699048996</v>
       </c>
       <c r="V15" t="n">
-        <v>0.01697122305631638</v>
+        <v>0.04363056272268295</v>
       </c>
       <c r="W15" t="n">
-        <v>0.01842235587537289</v>
+        <v>0.03266989439725876</v>
       </c>
       <c r="X15" t="n">
-        <v>0.01327119395136833</v>
+        <v>0.01871062442660332</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.008020326495170593</v>
+        <v>0.01875350810587406</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.00460917642340064</v>
+        <v>0.05715025961399078</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.007415374275296926</v>
+        <v>0.03812981396913528</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.005111174657940865</v>
+        <v>0.07913784682750702</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.005297341849654913</v>
+        <v>0.08983607590198517</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.001568206935189664</v>
+        <v>0.03244347497820854</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.006507516372948885</v>
+        <v>0.05574305355548859</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.01366390008479357</v>
+        <v>0.02469319477677345</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.01227000821381807</v>
+        <v>0.02149097621440887</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.0032448701094836</v>
+        <v>0.0104520171880722</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.0244713556021452</v>
+        <v>0.009329242631793022</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.01312538329511881</v>
+        <v>0.03471457585692406</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.006066733971238136</v>
+        <v>0.02266672998666763</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.01783169060945511</v>
+        <v>0.03567603603005409</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.004040597938001156</v>
+        <v>0.02228700555860996</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.007089409977197647</v>
+        <v>0.0642467737197876</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.0004035325837321579</v>
+        <v>0.02656114473938942</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.01487123407423496</v>
+        <v>0.08334390819072723</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.003878484945744276</v>
+        <v>0.08608324825763702</v>
       </c>
       <c r="AR15" t="n">
-        <v>6.891095836181194e-07</v>
+        <v>0.01645106449723244</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.002725210040807724</v>
+        <v>0.03648939728736877</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.002382469363510609</v>
+        <v>0.09535138309001923</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.006922073662281036</v>
+        <v>0.1710586398839951</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.01685251854360104</v>
+        <v>0.09305837750434875</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.01570144668221474</v>
+        <v>0.0654342919588089</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.006358212325721979</v>
+        <v>0.06749409437179565</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.01825649105012417</v>
+        <v>0.1024126037955284</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.007333307527005672</v>
+        <v>0.04605337232351303</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.008528824895620346</v>
+        <v>0.04240697249770164</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.01116431038826704</v>
+        <v>0.1191306114196777</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.005482956767082214</v>
+        <v>0.1819460541009903</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.01410012599080801</v>
+        <v>0.126411959528923</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.01089238375425339</v>
+        <v>0.05621824041008949</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.002866797614842653</v>
+        <v>0.0194048210978508</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.0006489541847258806</v>
+        <v>0.2654181122779846</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.001740340725518763</v>
+        <v>0.03233207762241364</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.001799375517293811</v>
+        <v>0.06587748974561691</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.0003637404879555106</v>
+        <v>0.2850215137004852</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.01497491635382175</v>
+        <v>0.009682102128863335</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.0003083857009187341</v>
+        <v>0.04555127024650574</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.0006731647299602628</v>
+        <v>0.02336122840642929</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.01378224138170481</v>
+        <v>0.08515588939189911</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.002672347705811262</v>
+        <v>0.001320643350481987</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.006470994092524052</v>
+        <v>0.1413855850696564</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.003638912923634052</v>
+        <v>0.02204727195203304</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.004125735722482204</v>
+        <v>0.1041426360607147</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.007026960141956806</v>
+        <v>0.05080123245716095</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.008464137092232704</v>
+        <v>0.08159260451793671</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.007149073295295238</v>
+        <v>0.08699587732553482</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.008818915113806725</v>
+        <v>0.071816585958004</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.001627861987799406</v>
+        <v>0.003451772965490818</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.01473281532526016</v>
+        <v>0.00631088949739933</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.007411597762256861</v>
+        <v>0.08830525726079941</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.003077520057559013</v>
+        <v>0.01661198958754539</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.003412780584767461</v>
+        <v>0.02057958766818047</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.01220386475324631</v>
+        <v>0.1012008115649223</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.02764864079654217</v>
+        <v>0.1052932664752007</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.005912022665143013</v>
+        <v>0.05528337135910988</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.009818091057240963</v>
+        <v>0.07120158523321152</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.004120433703064919</v>
+        <v>0.04420039057731628</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.005925180856138468</v>
+        <v>0.009509120136499405</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.004258841276168823</v>
+        <v>0.06987892091274261</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.001181325525976717</v>
+        <v>0.05357344448566437</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.001757093239575624</v>
+        <v>0.001718731597065926</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.00174290151335299</v>
+        <v>0.02495198324322701</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.006424718536436558</v>
+        <v>0.04736341163516045</v>
       </c>
       <c r="CM15" t="n">
-        <v>0.001098934095352888</v>
+        <v>0.01853708177804947</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.02132109925150871</v>
+        <v>0.001532541587948799</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.006083095446228981</v>
+        <v>0.01505330298095942</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.01091575808823109</v>
+        <v>0.04900080338120461</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.01861163973808289</v>
+        <v>0.1176877915859222</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.008931457996368408</v>
+        <v>0.07182469964027405</v>
       </c>
       <c r="CS15" t="n">
-        <v>0.002641530707478523</v>
+        <v>0.05344386398792267</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.0025183514226228</v>
+        <v>0.02673957496881485</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.004378041252493858</v>
+        <v>0.05130927637219429</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.007139633409678936</v>
+        <v>0.04533301666378975</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.01191315893083811</v>
+        <v>0.0626537948846817</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.004988501314073801</v>
+        <v>0.02107900008559227</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.006581611931324005</v>
+        <v>0.01781320571899414</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.005768053699284792</v>
+        <v>0.05272561684250832</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.003828623564913869</v>
+        <v>0.05004191026091576</v>
       </c>
       <c r="DB15" t="n">
-        <v>0.001875015906989574</v>
+        <v>0.01658211462199688</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.0008596669649705291</v>
+        <v>0.01215667836368084</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.007363177835941315</v>
+        <v>0.05144214630126953</v>
       </c>
       <c r="DE15" t="n">
-        <v>0.01570345461368561</v>
+        <v>0.0489862859249115</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.02554926835000515</v>
+        <v>0.2777161300182343</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.02293194830417633</v>
+        <v>0.04551377892494202</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.007025807164609432</v>
+        <v>0.0395609624683857</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.01504408195614815</v>
+        <v>0.01729624904692173</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.001603364245966077</v>
+        <v>0.1195758506655693</v>
       </c>
       <c r="DK15" t="n">
-        <v>0.003561665304005146</v>
+        <v>0.1521378755569458</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.007124025840312243</v>
+        <v>0.007345899008214474</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.003351427614688873</v>
+        <v>0.03548282012343407</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.0006734156049787998</v>
+        <v>0.08788251876831055</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.005599941592663527</v>
+        <v>0.04420487210154533</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.005674345418810844</v>
+        <v>0.2094965577125549</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.0007983760442584753</v>
+        <v>0.07453557103872299</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.007496840320527554</v>
+        <v>0.1017899140715599</v>
       </c>
       <c r="DS15" t="n">
-        <v>0.0001397797605022788</v>
+        <v>0.04449403285980225</v>
       </c>
       <c r="DT15" t="n">
-        <v>0.001513058785349131</v>
+        <v>0.01266328617930412</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.006393766961991787</v>
+        <v>0.0409417413175106</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.006614071317017078</v>
+        <v>0.03279996663331985</v>
       </c>
       <c r="DW15" t="n">
-        <v>0.001681976369582117</v>
+        <v>0.0326286256313324</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.0002462156116962433</v>
+        <v>0.002742650453001261</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.00590581214055419</v>
+        <v>0.1147305443882942</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.002504783449694514</v>
+        <v>0.04272805154323578</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.003376100212335587</v>
+        <v>0.04111255332827568</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.005155626684427261</v>
+        <v>0.1462526321411133</v>
       </c>
       <c r="EC15" t="n">
-        <v>0.002167877741158009</v>
+        <v>0.05633468925952911</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.002762818243354559</v>
+        <v>0.08640597015619278</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.01047643553465605</v>
+        <v>0.01754320785403252</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.00604183878749609</v>
+        <v>0.06963533163070679</v>
       </c>
       <c r="EG15" t="n">
-        <v>0.01130201574414968</v>
+        <v>0.08005863428115845</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.0008559441193938255</v>
+        <v>0.03000848740339279</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.009903073310852051</v>
+        <v>0.05400396138429642</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.004950152244418859</v>
+        <v>0.02067911252379417</v>
       </c>
       <c r="EK15" t="n">
-        <v>0.002395313233137131</v>
+        <v>0.01916174590587616</v>
       </c>
       <c r="EL15" t="n">
-        <v>0.001931288163177669</v>
+        <v>0.009910685941576958</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.01046517211943865</v>
+        <v>0.0385466143488884</v>
       </c>
       <c r="EN15" t="n">
-        <v>0.007647649850696325</v>
+        <v>0.0626135841012001</v>
       </c>
       <c r="EO15" t="n">
-        <v>0.007470893673598766</v>
+        <v>0.01283648423850536</v>
       </c>
       <c r="EP15" t="n">
-        <v>0.005697292275726795</v>
+        <v>0.03351132944226265</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.01476449333131313</v>
+        <v>0.01960892789065838</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.001192836323752999</v>
+        <v>0.01079333573579788</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.01425923965871334</v>
+        <v>0.03202393651008606</v>
       </c>
       <c r="ET15" t="n">
-        <v>0.001203716034069657</v>
+        <v>0.01829752512276173</v>
       </c>
       <c r="EU15" t="n">
-        <v>0.0003861282020807266</v>
+        <v>0.07449523359537125</v>
       </c>
       <c r="EV15" t="n">
-        <v>0.001936605549417436</v>
+        <v>0.09123957902193069</v>
       </c>
       <c r="EW15" t="n">
-        <v>0.007154292892664671</v>
+        <v>0.0258848425000906</v>
       </c>
       <c r="EX15" t="n">
-        <v>0.005908830091357231</v>
+        <v>0.03705021739006042</v>
       </c>
       <c r="EY15" t="n">
-        <v>0.01122612413018942</v>
+        <v>0.08994768559932709</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.005664519034326077</v>
+        <v>0.0382656641304493</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.004098170436918736</v>
+        <v>0.01054329797625542</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.00463792635127902</v>
+        <v>0.0384264849126339</v>
       </c>
       <c r="FC15" t="n">
-        <v>0.002058583777397871</v>
+        <v>0.04829097911715508</v>
       </c>
       <c r="FD15" t="n">
-        <v>0.001880603609606624</v>
+        <v>0.0394853912293911</v>
       </c>
       <c r="FE15" t="n">
-        <v>0.0003616402973420918</v>
+        <v>0.0003525707288645208</v>
       </c>
       <c r="FF15" t="n">
-        <v>0.008576458320021629</v>
+        <v>0.07277651876211166</v>
       </c>
       <c r="FG15" t="n">
-        <v>0.001494823722168803</v>
+        <v>0.01005424745380878</v>
       </c>
       <c r="FH15" t="n">
-        <v>0.007877127267420292</v>
+        <v>0.04034161567687988</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.004568743985146284</v>
+        <v>0.02184896171092987</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.005642167758196592</v>
+        <v>0.02367960102856159</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.005206262692809105</v>
+        <v>0.07050091773271561</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.0006155518349260092</v>
+        <v>0.07295797765254974</v>
       </c>
       <c r="FM15" t="n">
-        <v>0.00359584647230804</v>
+        <v>0.01359993033111095</v>
       </c>
       <c r="FN15" t="n">
-        <v>0.007780713494867086</v>
+        <v>0.03458975628018379</v>
       </c>
       <c r="FO15" t="n">
-        <v>0.003234392963349819</v>
+        <v>0.08076067268848419</v>
       </c>
       <c r="FP15" t="n">
-        <v>0.001711966586299241</v>
+        <v>0.1615387499332428</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0.006810963153839111</v>
+        <v>0.08839964866638184</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.002856972860172391</v>
+        <v>0.1785275787115097</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.006199725437909365</v>
+        <v>0.05235400423407555</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.003814209019765258</v>
+        <v>0.1083838120102882</v>
       </c>
       <c r="FU15" t="n">
-        <v>0.00060526083689183</v>
+        <v>0.1292045712471008</v>
       </c>
       <c r="FV15" t="n">
-        <v>0.007279864512383938</v>
+        <v>0.04856175184249878</v>
       </c>
       <c r="FW15" t="n">
-        <v>0.007086082361638546</v>
+        <v>0.004166560247540474</v>
       </c>
       <c r="FX15" t="n">
-        <v>0.008033517748117447</v>
+        <v>0.08793135732412338</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.006005041301250458</v>
+        <v>0.04913816601037979</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0.0001356113934889436</v>
+        <v>0.02725711278617382</v>
       </c>
       <c r="GA15" t="n">
-        <v>0.006810072809457779</v>
+        <v>0.04981298744678497</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.0003706192364916205</v>
+        <v>0.0001865271478891373</v>
       </c>
       <c r="GC15" t="n">
-        <v>0.004839088302105665</v>
+        <v>0.09411296248435974</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.007887580431997776</v>
+        <v>0.1173205822706223</v>
       </c>
       <c r="GE15" t="n">
-        <v>0.002327610505744815</v>
+        <v>0.03743978589773178</v>
       </c>
       <c r="GF15" t="n">
-        <v>0.002147900639101863</v>
+        <v>0.03517181426286697</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.008069788105785847</v>
+        <v>0.05704796314239502</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0005918409442529082</v>
+        <v>0.0002942474966403097</v>
       </c>
       <c r="B16" t="n">
-        <v>0.001601285883225501</v>
+        <v>0.0004199130926281214</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00195438670925796</v>
+        <v>0.001670595956966281</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001035612775012851</v>
+        <v>0.001535473391413689</v>
       </c>
       <c r="E16" t="n">
-        <v>0.002906718291342258</v>
+        <v>0.001684274291619658</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004931553732603788</v>
+        <v>0.0007200372638180852</v>
       </c>
       <c r="G16" t="n">
-        <v>0.001737636746838689</v>
+        <v>0.0004457737086340785</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01177569199353456</v>
+        <v>5.914501525694504e-05</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001637462759390473</v>
+        <v>0.0008779120398685336</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0002813409664668143</v>
+        <v>0.0002202334289904684</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001068139914423227</v>
+        <v>0.0003920674207620323</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002906170673668385</v>
+        <v>0.001313574844971299</v>
       </c>
       <c r="M16" t="n">
-        <v>4.90089223603718e-05</v>
+        <v>0.001879599643871188</v>
       </c>
       <c r="N16" t="n">
-        <v>0.002470027189701796</v>
+        <v>0.0004366682842373848</v>
       </c>
       <c r="O16" t="n">
-        <v>0.005003944039344788</v>
+        <v>0.0006360848783515394</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0018674231832847</v>
+        <v>0.0003140670014545321</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01275400724261999</v>
+        <v>0.0002466386358719319</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0008407874265685678</v>
+        <v>0.001254096394404769</v>
       </c>
       <c r="S16" t="n">
-        <v>0.001228541601449251</v>
+        <v>8.614236139692366e-05</v>
       </c>
       <c r="T16" t="n">
-        <v>0.0005829784786328673</v>
+        <v>0.000504443421959877</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0004521910450421274</v>
+        <v>0.0004529901198111475</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0004422141646500677</v>
+        <v>0.0003382510039955378</v>
       </c>
       <c r="W16" t="n">
-        <v>0.0009319642558693886</v>
+        <v>4.682510552811436e-05</v>
       </c>
       <c r="X16" t="n">
-        <v>0.0006957416189834476</v>
+        <v>0.0002580445725470781</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.0009207915281876922</v>
+        <v>0.0001664894225541502</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.003238806268200278</v>
+        <v>4.320839798310772e-05</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.0001491198781877756</v>
+        <v>0.0002263557107653469</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.001220819656737149</v>
+        <v>0.0005895810318179429</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.0001165404682978988</v>
+        <v>0.0002784435055218637</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.0003878538846038282</v>
+        <v>0.0003120916371699423</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.001805327949114144</v>
+        <v>0.0006806404562667012</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.002627216745167971</v>
+        <v>0.0003943428455386311</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.00158361776266247</v>
+        <v>0.0001676568354014307</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.003722432069480419</v>
+        <v>0.0001071766309905797</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.001529325381852686</v>
+        <v>0.0001434811129001901</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.0003510783426463604</v>
+        <v>0.0003901653690263629</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.0009154598228633404</v>
+        <v>0.0001081787995644845</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.0005745486705563962</v>
+        <v>0.0001480485079810023</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.00153384217992425</v>
+        <v>0.0001434937003068626</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.094284668099135e-05</v>
+        <v>8.409077418036759e-05</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.005351505242288113</v>
+        <v>0.0004864575457759202</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.0005772577715106308</v>
+        <v>0.0001177804369945079</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.0002611245727166533</v>
+        <v>0.0001712437806418166</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.0009349735337309539</v>
+        <v>5.950254126219079e-05</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.0006187547114677727</v>
+        <v>9.651486834627576e-06</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.002146706450730562</v>
+        <v>0.000657921948004514</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.004553964827209711</v>
+        <v>0.0009534002165310085</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.0007265005842782557</v>
+        <v>0.0005927325692027807</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.001088014570996165</v>
+        <v>0.001002954901196063</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.002088224980980158</v>
+        <v>0.0007276808028109372</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.004811031278222799</v>
+        <v>0.0004050051211379468</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.0003086997312493622</v>
+        <v>0.0001009993138723075</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.00357095617800951</v>
+        <v>0.0001723976311041042</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.0003292308538220823</v>
+        <v>0.0003644093230832368</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.0008626052876934409</v>
+        <v>0.0002745870151557028</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.001765731489285827</v>
+        <v>0.00149239506572485</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.001380498986691236</v>
+        <v>0.0004053131269756705</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.001547418651171029</v>
+        <v>0.0004696226678788662</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.002652926836162806</v>
+        <v>5.450832031783648e-05</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.001438403502106667</v>
+        <v>0.001202852232381701</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.002889757975935936</v>
+        <v>0.0003574391885194927</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.002305430360138416</v>
+        <v>0.0007263527950271964</v>
       </c>
       <c r="BK16" t="n">
-        <v>3.799978730967268e-05</v>
+        <v>0.001123597961850464</v>
       </c>
       <c r="BL16" t="n">
-        <v>4.007792449556291e-05</v>
+        <v>0.0002690731780603528</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.001768816262483597</v>
+        <v>0.0003013023524545133</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.0009118140442296863</v>
+        <v>0.0001226624444825575</v>
       </c>
       <c r="BO16" t="n">
-        <v>0.0001696541294222698</v>
+        <v>0.0003480173763819039</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.0002863433037418872</v>
+        <v>0.0003282726975157857</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.001025492907501757</v>
+        <v>6.264306284720078e-05</v>
       </c>
       <c r="BR16" t="n">
-        <v>0.001719406107440591</v>
+        <v>0.0001497398188803345</v>
       </c>
       <c r="BS16" t="n">
-        <v>0.0003455174155533314</v>
+        <v>0.0002195558481616899</v>
       </c>
       <c r="BT16" t="n">
-        <v>0.0001722694141790271</v>
+        <v>9.253001189790666e-05</v>
       </c>
       <c r="BU16" t="n">
-        <v>0.0004258890985511243</v>
+        <v>0.0002872224140446633</v>
       </c>
       <c r="BV16" t="n">
-        <v>0.0009761156397871673</v>
+        <v>0.0003744478162843734</v>
       </c>
       <c r="BW16" t="n">
-        <v>7.369971717707813e-05</v>
+        <v>0.0004011776763945818</v>
       </c>
       <c r="BX16" t="n">
-        <v>0.0003915048728231341</v>
+        <v>0.0008390638395212591</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.0005926770390942693</v>
+        <v>0.0008641169406473637</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.003271504770964384</v>
+        <v>0.0002262976631755009</v>
       </c>
       <c r="CA16" t="n">
-        <v>0.001104795373976231</v>
+        <v>5.677293665939942e-05</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.003885454498231411</v>
+        <v>3.487680078251287e-05</v>
       </c>
       <c r="CC16" t="n">
-        <v>2.522101385693531e-05</v>
+        <v>0.0004989798180758953</v>
       </c>
       <c r="CD16" t="n">
-        <v>0.0004645268199965358</v>
+        <v>6.989643588894978e-05</v>
       </c>
       <c r="CE16" t="n">
-        <v>0.0004782087635248899</v>
+        <v>0.000147269616718404</v>
       </c>
       <c r="CF16" t="n">
-        <v>0.0007186488946899772</v>
+        <v>0.000500353635288775</v>
       </c>
       <c r="CG16" t="n">
-        <v>0.0001282333250856027</v>
+        <v>0.0003083516494370997</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.001141606830060482</v>
+        <v>0.000451909756520763</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.001008968101814389</v>
+        <v>0.0001386952644679695</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0.0003795551601797342</v>
+        <v>0.0001668052427703515</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.00212920387275517</v>
+        <v>0.0001745566260069609</v>
       </c>
       <c r="CL16" t="n">
-        <v>0.0001765326887834817</v>
+        <v>7.236416422529146e-05</v>
       </c>
       <c r="CM16" t="n">
-        <v>0.001347522949799895</v>
+        <v>0.0006699255318380892</v>
       </c>
       <c r="CN16" t="n">
-        <v>0.00245123659260571</v>
+        <v>0.000684895203448832</v>
       </c>
       <c r="CO16" t="n">
-        <v>0.001133920042775571</v>
+        <v>3.857596311718225e-06</v>
       </c>
       <c r="CP16" t="n">
-        <v>0.001179818413220346</v>
+        <v>0.0002990609791595489</v>
       </c>
       <c r="CQ16" t="n">
-        <v>9.274762123823166e-05</v>
+        <v>0.0001024662924464792</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.0004502047086134553</v>
+        <v>0.0002067367604468018</v>
       </c>
       <c r="CS16" t="n">
-        <v>0.001821658341214061</v>
+        <v>0.0002539907000027597</v>
       </c>
       <c r="CT16" t="n">
-        <v>0.002742389915511012</v>
+        <v>0.0006456360570155084</v>
       </c>
       <c r="CU16" t="n">
-        <v>0.00108284258749336</v>
+        <v>1.696436811471358e-05</v>
       </c>
       <c r="CV16" t="n">
-        <v>0.0005297106108628213</v>
+        <v>1.132398301706417e-05</v>
       </c>
       <c r="CW16" t="n">
-        <v>0.0005531403585337102</v>
+        <v>0.0002277699531987309</v>
       </c>
       <c r="CX16" t="n">
-        <v>0.0007926863618195057</v>
+        <v>0.0003414354287087917</v>
       </c>
       <c r="CY16" t="n">
-        <v>3.849531276500784e-05</v>
+        <v>0.0003239192883484066</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.0009637968614697456</v>
+        <v>0.0003298452065791935</v>
       </c>
       <c r="DA16" t="n">
-        <v>0.0008469516760669649</v>
+        <v>9.629849228076637e-05</v>
       </c>
       <c r="DB16" t="n">
-        <v>0.000185667842742987</v>
+        <v>0.0001858913747128099</v>
       </c>
       <c r="DC16" t="n">
-        <v>0.002446098020300269</v>
+        <v>9.480470907874405e-05</v>
       </c>
       <c r="DD16" t="n">
-        <v>0.0003034991095773876</v>
+        <v>9.49359018704854e-05</v>
       </c>
       <c r="DE16" t="n">
-        <v>0.004955783486366272</v>
+        <v>6.453915557358414e-05</v>
       </c>
       <c r="DF16" t="n">
-        <v>0.004421301651746035</v>
+        <v>0.0004954907344654202</v>
       </c>
       <c r="DG16" t="n">
-        <v>0.00292371935211122</v>
+        <v>0.001213577808812261</v>
       </c>
       <c r="DH16" t="n">
-        <v>0.001817227806895971</v>
+        <v>4.241500937496312e-05</v>
       </c>
       <c r="DI16" t="n">
-        <v>0.001372971804812551</v>
+        <v>0.0003973935381509364</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0.002186240861192346</v>
+        <v>0.0003113516431767493</v>
       </c>
       <c r="DK16" t="n">
-        <v>0.001417393563315272</v>
+        <v>0.0005983144510537386</v>
       </c>
       <c r="DL16" t="n">
-        <v>0.0004862045170739293</v>
+        <v>0.0003165967063978314</v>
       </c>
       <c r="DM16" t="n">
-        <v>0.001412731246091425</v>
+        <v>0.0002986906329169869</v>
       </c>
       <c r="DN16" t="n">
-        <v>0.0009472335805185139</v>
+        <v>1.586872531333938e-05</v>
       </c>
       <c r="DO16" t="n">
-        <v>0.00100035744253546</v>
+        <v>0.0005756384925916791</v>
       </c>
       <c r="DP16" t="n">
-        <v>0.0005875040078535676</v>
+        <v>0.0001419799373252317</v>
       </c>
       <c r="DQ16" t="n">
-        <v>0.0002310307172592729</v>
+        <v>0.0001549652370158583</v>
       </c>
       <c r="DR16" t="n">
-        <v>0.001122101559303701</v>
+        <v>0.001038853428326547</v>
       </c>
       <c r="DS16" t="n">
-        <v>0.001174852135591209</v>
+        <v>0.0002704058715607971</v>
       </c>
       <c r="DT16" t="n">
-        <v>0.001631036284379661</v>
+        <v>5.058950046077371e-05</v>
       </c>
       <c r="DU16" t="n">
-        <v>3.366049713804387e-05</v>
+        <v>0.0001428826944902539</v>
       </c>
       <c r="DV16" t="n">
-        <v>0.001463149674236774</v>
+        <v>0.0005982838338240981</v>
       </c>
       <c r="DW16" t="n">
-        <v>0.0002967366890516132</v>
+        <v>0.0001364649797324091</v>
       </c>
       <c r="DX16" t="n">
-        <v>6.133847637102008e-05</v>
+        <v>0.0006434574024751782</v>
       </c>
       <c r="DY16" t="n">
-        <v>0.00140966463368386</v>
+        <v>0.000540047069080174</v>
       </c>
       <c r="DZ16" t="n">
-        <v>0.000289380521280691</v>
+        <v>0.0001451805437682196</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.0004379542369861156</v>
+        <v>0.0003736248181667179</v>
       </c>
       <c r="EB16" t="n">
-        <v>0.0001660455600358546</v>
+        <v>8.85988338268362e-05</v>
       </c>
       <c r="EC16" t="n">
-        <v>0.0007552469032816589</v>
+        <v>3.23164276778698e-05</v>
       </c>
       <c r="ED16" t="n">
-        <v>0.0002994691312778741</v>
+        <v>0.0002712399582378566</v>
       </c>
       <c r="EE16" t="n">
-        <v>0.0006969603709876537</v>
+        <v>0.0002267922245664522</v>
       </c>
       <c r="EF16" t="n">
-        <v>0.002181349089369178</v>
+        <v>0.0002010305470321327</v>
       </c>
       <c r="EG16" t="n">
-        <v>0.002672573551535606</v>
+        <v>0.0004890197888016701</v>
       </c>
       <c r="EH16" t="n">
-        <v>0.0001697489788057283</v>
+        <v>0.000549279386177659</v>
       </c>
       <c r="EI16" t="n">
-        <v>0.000563907902687788</v>
+        <v>0.0006855645915493369</v>
       </c>
       <c r="EJ16" t="n">
-        <v>0.0004636904632207006</v>
+        <v>1.740649167913944e-05</v>
       </c>
       <c r="EK16" t="n">
-        <v>0.0002681526239030063</v>
+        <v>0.0001035897657857276</v>
       </c>
       <c r="EL16" t="n">
-        <v>5.143113230587915e-05</v>
+        <v>0.0001853327557910234</v>
       </c>
       <c r="EM16" t="n">
-        <v>0.002359362784773111</v>
+        <v>5.911008338443935e-05</v>
       </c>
       <c r="EN16" t="n">
-        <v>0.00031616585329175</v>
+        <v>0.0002149595529772341</v>
       </c>
       <c r="EO16" t="n">
-        <v>0.0001974634651560336</v>
+        <v>3.456613194430247e-05</v>
       </c>
       <c r="EP16" t="n">
-        <v>0.0006698760553263128</v>
+        <v>0.0006014388636685908</v>
       </c>
       <c r="EQ16" t="n">
-        <v>0.001003535930067301</v>
+        <v>9.862937440630049e-05</v>
       </c>
       <c r="ER16" t="n">
-        <v>0.0002836957864928991</v>
+        <v>0.0003393929218873382</v>
       </c>
       <c r="ES16" t="n">
-        <v>0.001637720270082355</v>
+        <v>0.0002000547974603251</v>
       </c>
       <c r="ET16" t="n">
-        <v>0.0007170719909481704</v>
+        <v>7.746285700704902e-05</v>
       </c>
       <c r="EU16" t="n">
-        <v>0.0002680257020983845</v>
+        <v>0.000266959163127467</v>
       </c>
       <c r="EV16" t="n">
-        <v>0.002120794728398323</v>
+        <v>0.0001440921769244596</v>
       </c>
       <c r="EW16" t="n">
-        <v>0.001109200879000127</v>
+        <v>0.0005929036415182054</v>
       </c>
       <c r="EX16" t="n">
-        <v>0.0006886147311888635</v>
+        <v>1.833984060795046e-05</v>
       </c>
       <c r="EY16" t="n">
-        <v>0.0007085540564730763</v>
+        <v>0.000345874490449205</v>
       </c>
       <c r="EZ16" t="n">
-        <v>0.000626978580839932</v>
+        <v>0.0004792411637026817</v>
       </c>
       <c r="FA16" t="n">
-        <v>0.0004490581632126123</v>
+        <v>0.0003531479742377996</v>
       </c>
       <c r="FB16" t="n">
-        <v>0.001421871595084667</v>
+        <v>0.0003188015834894031</v>
       </c>
       <c r="FC16" t="n">
-        <v>0.001066741766408086</v>
+        <v>5.122863876749761e-05</v>
       </c>
       <c r="FD16" t="n">
-        <v>0.0003368284087628126</v>
+        <v>0.0001460885396227241</v>
       </c>
       <c r="FE16" t="n">
-        <v>0.0022989462595433</v>
+        <v>0.0001387745141983032</v>
       </c>
       <c r="FF16" t="n">
-        <v>0.0001636411034269258</v>
+        <v>0.00014382520748768</v>
       </c>
       <c r="FG16" t="n">
-        <v>0.000915399519726634</v>
+        <v>0.0001264040038222447</v>
       </c>
       <c r="FH16" t="n">
-        <v>0.0001776832796167582</v>
+        <v>0.0002421791141387075</v>
       </c>
       <c r="FI16" t="n">
-        <v>0.001590741449035704</v>
+        <v>1.107741627492942e-05</v>
       </c>
       <c r="FJ16" t="n">
-        <v>0.000360470701707527</v>
+        <v>0.0003023716853931546</v>
       </c>
       <c r="FK16" t="n">
-        <v>0.0002363364619668573</v>
+        <v>5.735323793487623e-05</v>
       </c>
       <c r="FL16" t="n">
-        <v>0.0002443024714011699</v>
+        <v>0.000116962444735691</v>
       </c>
       <c r="FM16" t="n">
-        <v>0.0007820854079909623</v>
+        <v>2.090696943923831e-05</v>
       </c>
       <c r="FN16" t="n">
-        <v>0.001143624074757099</v>
+        <v>0.0004249743651598692</v>
       </c>
       <c r="FO16" t="n">
-        <v>0.0004787244251929224</v>
+        <v>7.07386716385372e-05</v>
       </c>
       <c r="FP16" t="n">
-        <v>0.001429335912689567</v>
+        <v>0.0002117293333867565</v>
       </c>
       <c r="FQ16" t="n">
-        <v>0.0002918122336268425</v>
+        <v>5.632874672301114e-05</v>
       </c>
       <c r="FR16" t="n">
-        <v>0.0003320104442536831</v>
+        <v>8.028504089452326e-05</v>
       </c>
       <c r="FS16" t="n">
-        <v>5.301967030391097e-05</v>
+        <v>8.640289888717234e-05</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.002405933802947402</v>
+        <v>0.000459707691334188</v>
       </c>
       <c r="FU16" t="n">
-        <v>0.001420242711901665</v>
+        <v>0.0003501501341816038</v>
       </c>
       <c r="FV16" t="n">
-        <v>0.001728042378090322</v>
+        <v>0.0001107192729250528</v>
       </c>
       <c r="FW16" t="n">
-        <v>0.00126071588601917</v>
+        <v>0.0005088725592941046</v>
       </c>
       <c r="FX16" t="n">
-        <v>0.0001587806618772447</v>
+        <v>8.250935934484005e-06</v>
       </c>
       <c r="FY16" t="n">
-        <v>0.0001206993038067594</v>
+        <v>6.939195009181276e-05</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0.0006380490958690643</v>
+        <v>0.0004064759705215693</v>
       </c>
       <c r="GA16" t="n">
-        <v>0.0001416755258105695</v>
+        <v>0.0001285918551729992</v>
       </c>
       <c r="GB16" t="n">
-        <v>0.0008765322272665799</v>
+        <v>0.0003919727460015565</v>
       </c>
       <c r="GC16" t="n">
-        <v>0.0009033706737682223</v>
+        <v>0.0006656856276094913</v>
       </c>
       <c r="GD16" t="n">
-        <v>0.0004841657064389437</v>
+        <v>0.0004753886605612934</v>
       </c>
       <c r="GE16" t="n">
-        <v>0.0004035252786707133</v>
+        <v>0.0001176192163256928</v>
       </c>
       <c r="GF16" t="n">
-        <v>0.000520500645507127</v>
+        <v>0.0003828332992270589</v>
       </c>
       <c r="GG16" t="n">
-        <v>0.0009229061543010175</v>
+        <v>0.0001083721872419119</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.841466534813208e-09</v>
+        <v>1.792124294297537e-06</v>
       </c>
       <c r="B17" t="n">
-        <v>3.29275628985215e-08</v>
+        <v>2.76775645033922e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>3.884162680378722e-08</v>
+        <v>7.687414836254902e-06</v>
       </c>
       <c r="D17" t="n">
-        <v>5.300173455680124e-08</v>
+        <v>1.528321035948466e-06</v>
       </c>
       <c r="E17" t="n">
-        <v>2.027085699296549e-08</v>
+        <v>2.793402745737694e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>1.20784555690534e-08</v>
+        <v>9.844117448665202e-05</v>
       </c>
       <c r="G17" t="n">
-        <v>1.00231245525606e-08</v>
+        <v>2.904539360315539e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>2.206079230404612e-08</v>
+        <v>4.820129106519744e-05</v>
       </c>
       <c r="I17" t="n">
-        <v>3.305524032271023e-08</v>
+        <v>1.84868295036722e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>2.356751904741827e-09</v>
+        <v>2.462308657413814e-06</v>
       </c>
       <c r="K17" t="n">
-        <v>4.19737062884451e-08</v>
+        <v>1.687399708316661e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>2.848192615090284e-08</v>
+        <v>8.673978300066665e-06</v>
       </c>
       <c r="M17" t="n">
-        <v>6.778847705390945e-08</v>
+        <v>5.250427420833148e-06</v>
       </c>
       <c r="N17" t="n">
-        <v>1.704502317068091e-08</v>
+        <v>1.906759280245751e-05</v>
       </c>
       <c r="O17" t="n">
-        <v>2.68411852744066e-08</v>
+        <v>7.749975338811055e-05</v>
       </c>
       <c r="P17" t="n">
-        <v>6.800443763665953e-09</v>
+        <v>1.863354009401519e-05</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.960196532342252e-08</v>
+        <v>3.754568751901388e-05</v>
       </c>
       <c r="R17" t="n">
-        <v>2.07789643269507e-08</v>
+        <v>8.999666079034796e-07</v>
       </c>
       <c r="S17" t="n">
-        <v>8.459392075721439e-10</v>
+        <v>3.839917553705163e-06</v>
       </c>
       <c r="T17" t="n">
-        <v>1.600486854158589e-08</v>
+        <v>4.586372597259469e-06</v>
       </c>
       <c r="U17" t="n">
-        <v>6.864463664157938e-09</v>
+        <v>7.912913133623078e-06</v>
       </c>
       <c r="V17" t="n">
-        <v>3.575622908869036e-09</v>
+        <v>1.646950840950012e-05</v>
       </c>
       <c r="W17" t="n">
-        <v>2.794072173628592e-08</v>
+        <v>2.240675894427113e-05</v>
       </c>
       <c r="X17" t="n">
-        <v>6.727813417484185e-09</v>
+        <v>7.144196388253476e-06</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.944112923041757e-09</v>
+        <v>3.683292106870795e-06</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.979086755061644e-09</v>
+        <v>1.812744812923484e-06</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.869764076900537e-08</v>
+        <v>5.85177076573018e-07</v>
       </c>
       <c r="AB17" t="n">
-        <v>3.805037618320739e-09</v>
+        <v>3.438188514337526e-06</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.114810962605134e-09</v>
+        <v>1.69286740856478e-05</v>
       </c>
       <c r="AD17" t="n">
-        <v>1.0602997591036e-08</v>
+        <v>1.964715556823649e-05</v>
       </c>
       <c r="AE17" t="n">
-        <v>2.206052407416337e-08</v>
+        <v>4.397373231768142e-06</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.686160366887179e-08</v>
+        <v>1.020353920466732e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>3.080381949516209e-09</v>
+        <v>5.533452167583164e-06</v>
       </c>
       <c r="AH17" t="n">
-        <v>5.882060172268666e-09</v>
+        <v>7.468179319403134e-06</v>
       </c>
       <c r="AI17" t="n">
-        <v>1.298356711032511e-08</v>
+        <v>1.344816723758413e-06</v>
       </c>
       <c r="AJ17" t="n">
-        <v>2.387270825465748e-09</v>
+        <v>3.142951300105779e-06</v>
       </c>
       <c r="AK17" t="n">
-        <v>9.622576513379499e-09</v>
+        <v>1.936347416631179e-06</v>
       </c>
       <c r="AL17" t="n">
-        <v>1.536993643469486e-08</v>
+        <v>3.339159093229682e-06</v>
       </c>
       <c r="AM17" t="n">
-        <v>7.574998406312261e-10</v>
+        <v>2.193561613239581e-06</v>
       </c>
       <c r="AN17" t="n">
-        <v>5.827452298490243e-09</v>
+        <v>6.342163032968529e-06</v>
       </c>
       <c r="AO17" t="n">
-        <v>2.088891548623906e-08</v>
+        <v>3.08170092466753e-06</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.525571668992143e-08</v>
+        <v>1.700803113635629e-05</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.218368606004105e-08</v>
+        <v>6.365639819705393e-06</v>
       </c>
       <c r="AR17" t="n">
-        <v>9.09287978245743e-10</v>
+        <v>1.607839749340201e-06</v>
       </c>
       <c r="AS17" t="n">
-        <v>8.531487516449943e-09</v>
+        <v>5.547107093661907e-07</v>
       </c>
       <c r="AT17" t="n">
-        <v>5.513387524302971e-09</v>
+        <v>1.152381537394831e-05</v>
       </c>
       <c r="AU17" t="n">
-        <v>4.629750804951982e-09</v>
+        <v>1.430725569662172e-05</v>
       </c>
       <c r="AV17" t="n">
-        <v>7.438714089147425e-10</v>
+        <v>4.293675829103449e-06</v>
       </c>
       <c r="AW17" t="n">
-        <v>1.713457464802559e-08</v>
+        <v>1.387644624628592e-05</v>
       </c>
       <c r="AX17" t="n">
-        <v>2.06524966017696e-08</v>
+        <v>2.751862666627858e-05</v>
       </c>
       <c r="AY17" t="n">
-        <v>2.143023980494263e-09</v>
+        <v>5.67547685932368e-05</v>
       </c>
       <c r="AZ17" t="n">
-        <v>8.600959944260467e-09</v>
+        <v>1.618828900973313e-05</v>
       </c>
       <c r="BA17" t="n">
-        <v>8.097302384157956e-09</v>
+        <v>2.583443711046129e-05</v>
       </c>
       <c r="BB17" t="n">
-        <v>3.008608473464847e-08</v>
+        <v>1.582939512445591e-05</v>
       </c>
       <c r="BC17" t="n">
-        <v>9.943213363783343e-09</v>
+        <v>1.334660919383168e-05</v>
       </c>
       <c r="BD17" t="n">
-        <v>2.12077218009199e-08</v>
+        <v>2.802926246658899e-06</v>
       </c>
       <c r="BE17" t="n">
-        <v>1.278505656898687e-08</v>
+        <v>6.525455773953581e-06</v>
       </c>
       <c r="BF17" t="n">
-        <v>1.173704244905593e-08</v>
+        <v>1.77446872839937e-05</v>
       </c>
       <c r="BG17" t="n">
-        <v>1.197939525354741e-09</v>
+        <v>2.704434336919803e-05</v>
       </c>
       <c r="BH17" t="n">
-        <v>1.721856879299821e-09</v>
+        <v>2.490230508556124e-05</v>
       </c>
       <c r="BI17" t="n">
-        <v>1.579152453246024e-08</v>
+        <v>6.980332727835048e-06</v>
       </c>
       <c r="BJ17" t="n">
-        <v>2.748115290884812e-09</v>
+        <v>4.238526344124693e-06</v>
       </c>
       <c r="BK17" t="n">
-        <v>1.528019488716836e-08</v>
+        <v>9.066521670320071e-06</v>
       </c>
       <c r="BL17" t="n">
-        <v>6.07684791376073e-10</v>
+        <v>4.513879048317904e-07</v>
       </c>
       <c r="BM17" t="n">
-        <v>2.091512207869073e-08</v>
+        <v>2.609563125588465e-05</v>
       </c>
       <c r="BN17" t="n">
-        <v>3.039854756803351e-10</v>
+        <v>1.161312775366241e-05</v>
       </c>
       <c r="BO17" t="n">
-        <v>3.233347145581433e-09</v>
+        <v>5.00428541272413e-06</v>
       </c>
       <c r="BP17" t="n">
-        <v>4.191886837645598e-09</v>
+        <v>6.422966635000193e-06</v>
       </c>
       <c r="BQ17" t="n">
-        <v>6.951627273821259e-09</v>
+        <v>6.545722499140538e-06</v>
       </c>
       <c r="BR17" t="n">
-        <v>3.95576149614385e-09</v>
+        <v>1.392980811942834e-05</v>
       </c>
       <c r="BS17" t="n">
-        <v>9.671856204818141e-09</v>
+        <v>1.382131631544326e-05</v>
       </c>
       <c r="BT17" t="n">
-        <v>4.756747884471224e-09</v>
+        <v>1.581044307386037e-05</v>
       </c>
       <c r="BU17" t="n">
-        <v>3.396976033798182e-09</v>
+        <v>1.582496679475298e-06</v>
       </c>
       <c r="BV17" t="n">
-        <v>9.250169519248175e-10</v>
+        <v>1.172101747215493e-05</v>
       </c>
       <c r="BW17" t="n">
-        <v>8.322498246116083e-09</v>
+        <v>3.809035206359113e-06</v>
       </c>
       <c r="BX17" t="n">
-        <v>2.403655585681008e-08</v>
+        <v>5.768277333118021e-06</v>
       </c>
       <c r="BY17" t="n">
-        <v>2.895088968557502e-08</v>
+        <v>1.21105667858501e-05</v>
       </c>
       <c r="BZ17" t="n">
-        <v>3.174888796309006e-09</v>
+        <v>2.534071063564625e-05</v>
       </c>
       <c r="CA17" t="n">
-        <v>7.530417178713833e-09</v>
+        <v>1.860421434685122e-06</v>
       </c>
       <c r="CB17" t="n">
-        <v>1.258722726049655e-08</v>
+        <v>1.386451822327217e-05</v>
       </c>
       <c r="CC17" t="n">
-        <v>2.651527708508183e-08</v>
+        <v>1.861457803897792e-06</v>
       </c>
       <c r="CD17" t="n">
-        <v>1.119555026463104e-08</v>
+        <v>4.376749700440996e-07</v>
       </c>
       <c r="CE17" t="n">
-        <v>1.052877607321534e-08</v>
+        <v>1.736464810164762e-06</v>
       </c>
       <c r="CF17" t="n">
-        <v>3.439297735496893e-09</v>
+        <v>1.162735088655609e-06</v>
       </c>
       <c r="CG17" t="n">
-        <v>1.110805314397112e-08</v>
+        <v>1.147494003816973e-06</v>
       </c>
       <c r="CH17" t="n">
-        <v>1.179187236743928e-08</v>
+        <v>8.940837687987369e-06</v>
       </c>
       <c r="CI17" t="n">
-        <v>1.296203810952079e-09</v>
+        <v>1.74837277882034e-05</v>
       </c>
       <c r="CJ17" t="n">
-        <v>6.980491740193884e-09</v>
+        <v>7.756063496344723e-06</v>
       </c>
       <c r="CK17" t="n">
-        <v>7.968875337382997e-09</v>
+        <v>1.103848990169354e-05</v>
       </c>
       <c r="CL17" t="n">
-        <v>1.957958239984237e-10</v>
+        <v>1.956448159035062e-07</v>
       </c>
       <c r="CM17" t="n">
-        <v>5.628743693364413e-09</v>
+        <v>8.338169550370367e-07</v>
       </c>
       <c r="CN17" t="n">
-        <v>8.672518703178866e-09</v>
+        <v>5.081728431832744e-06</v>
       </c>
       <c r="CO17" t="n">
-        <v>4.745440485010022e-09</v>
+        <v>9.449604476685636e-07</v>
       </c>
       <c r="CP17" t="n">
-        <v>6.208082048431152e-09</v>
+        <v>2.160963049391285e-05</v>
       </c>
       <c r="CQ17" t="n">
-        <v>2.766666895581693e-08</v>
+        <v>3.472608659649268e-05</v>
       </c>
       <c r="CR17" t="n">
-        <v>1.573737762328165e-08</v>
+        <v>6.382208994182292e-06</v>
       </c>
       <c r="CS17" t="n">
-        <v>7.235022358997867e-09</v>
+        <v>2.972851234517293e-06</v>
       </c>
       <c r="CT17" t="n">
-        <v>3.768493073152968e-08</v>
+        <v>7.332503628276754e-06</v>
       </c>
       <c r="CU17" t="n">
-        <v>9.196477357420463e-09</v>
+        <v>8.320598681166302e-06</v>
       </c>
       <c r="CV17" t="n">
-        <v>1.248423497912654e-08</v>
+        <v>1.39201290494384e-06</v>
       </c>
       <c r="CW17" t="n">
-        <v>1.355166112659845e-08</v>
+        <v>1.231786654898315e-06</v>
       </c>
       <c r="CX17" t="n">
-        <v>6.976222266530385e-09</v>
+        <v>8.392851214011898e-07</v>
       </c>
       <c r="CY17" t="n">
-        <v>1.249860659413571e-08</v>
+        <v>6.3612185385864e-07</v>
       </c>
       <c r="CZ17" t="n">
-        <v>1.428265772318582e-08</v>
+        <v>6.9046418502694e-06</v>
       </c>
       <c r="DA17" t="n">
-        <v>2.861843206858339e-09</v>
+        <v>1.972066093003377e-05</v>
       </c>
       <c r="DB17" t="n">
-        <v>4.401715880675283e-09</v>
+        <v>6.675934400846018e-06</v>
       </c>
       <c r="DC17" t="n">
-        <v>9.596059058480932e-09</v>
+        <v>1.390568377246382e-05</v>
       </c>
       <c r="DD17" t="n">
-        <v>1.189169651638622e-09</v>
+        <v>4.011762030131649e-06</v>
       </c>
       <c r="DE17" t="n">
-        <v>2.48398617230805e-08</v>
+        <v>3.86346710001817e-06</v>
       </c>
       <c r="DF17" t="n">
-        <v>3.921780233895333e-09</v>
+        <v>2.012731783906929e-05</v>
       </c>
       <c r="DG17" t="n">
-        <v>8.850967070372917e-09</v>
+        <v>2.618362486828119e-06</v>
       </c>
       <c r="DH17" t="n">
-        <v>1.53466785945966e-08</v>
+        <v>1.791039176168852e-05</v>
       </c>
       <c r="DI17" t="n">
-        <v>1.15314762183516e-08</v>
+        <v>1.446875103283674e-06</v>
       </c>
       <c r="DJ17" t="n">
-        <v>2.918940467111497e-08</v>
+        <v>5.502201929630246e-07</v>
       </c>
       <c r="DK17" t="n">
-        <v>2.171061552758147e-09</v>
+        <v>7.592675501655322e-06</v>
       </c>
       <c r="DL17" t="n">
-        <v>1.870080268417951e-08</v>
+        <v>1.937387423822656e-05</v>
       </c>
       <c r="DM17" t="n">
-        <v>1.228139367981385e-09</v>
+        <v>1.138016432378208e-05</v>
       </c>
       <c r="DN17" t="n">
-        <v>1.363232549067561e-08</v>
+        <v>6.432927875721361e-06</v>
       </c>
       <c r="DO17" t="n">
-        <v>4.68404692810509e-09</v>
+        <v>2.175584086216986e-07</v>
       </c>
       <c r="DP17" t="n">
-        <v>1.504074642610931e-09</v>
+        <v>2.87959551314998e-07</v>
       </c>
       <c r="DQ17" t="n">
-        <v>6.9263905722039e-09</v>
+        <v>1.064297066477593e-05</v>
       </c>
       <c r="DR17" t="n">
-        <v>1.096532553646057e-08</v>
+        <v>1.686647374299355e-05</v>
       </c>
       <c r="DS17" t="n">
-        <v>7.729200390826918e-09</v>
+        <v>2.073742507491261e-05</v>
       </c>
       <c r="DT17" t="n">
-        <v>1.397312709983112e-09</v>
+        <v>1.484271524532232e-05</v>
       </c>
       <c r="DU17" t="n">
-        <v>2.711536772892487e-09</v>
+        <v>7.214505785668734e-06</v>
       </c>
       <c r="DV17" t="n">
-        <v>1.349266387506987e-08</v>
+        <v>3.379280315130018e-06</v>
       </c>
       <c r="DW17" t="n">
-        <v>2.390091458082111e-10</v>
+        <v>2.135527893187827e-06</v>
       </c>
       <c r="DX17" t="n">
-        <v>1.212251365956263e-08</v>
+        <v>4.887738668912789e-06</v>
       </c>
       <c r="DY17" t="n">
-        <v>6.073020308861032e-09</v>
+        <v>7.299477147171274e-07</v>
       </c>
       <c r="DZ17" t="n">
-        <v>2.993088665803612e-09</v>
+        <v>1.308937135036103e-05</v>
       </c>
       <c r="EA17" t="n">
-        <v>1.121891912703177e-08</v>
+        <v>2.979564897032105e-06</v>
       </c>
       <c r="EB17" t="n">
-        <v>6.387872453217369e-09</v>
+        <v>1.019044157146709e-05</v>
       </c>
       <c r="EC17" t="n">
-        <v>2.625933470667974e-09</v>
+        <v>7.988543075043708e-06</v>
       </c>
       <c r="ED17" t="n">
-        <v>5.886443776859096e-09</v>
+        <v>3.432350922594196e-06</v>
       </c>
       <c r="EE17" t="n">
-        <v>1.199530608175792e-08</v>
+        <v>1.714949212328065e-05</v>
       </c>
       <c r="EF17" t="n">
-        <v>1.077401101667874e-08</v>
+        <v>3.088315452259849e-06</v>
       </c>
       <c r="EG17" t="n">
-        <v>7.433030191350554e-09</v>
+        <v>9.058093382918742e-06</v>
       </c>
       <c r="EH17" t="n">
-        <v>1.749586431287753e-08</v>
+        <v>7.497086699004285e-06</v>
       </c>
       <c r="EI17" t="n">
-        <v>1.987138631420748e-08</v>
+        <v>1.395925573888235e-05</v>
       </c>
       <c r="EJ17" t="n">
-        <v>6.421299048042783e-09</v>
+        <v>4.828635155718075e-06</v>
       </c>
       <c r="EK17" t="n">
-        <v>3.458678010659355e-09</v>
+        <v>7.328871106437873e-06</v>
       </c>
       <c r="EL17" t="n">
-        <v>1.108428193674627e-08</v>
+        <v>6.559407211170765e-06</v>
       </c>
       <c r="EM17" t="n">
-        <v>5.262035251973884e-09</v>
+        <v>1.01737750810571e-05</v>
       </c>
       <c r="EN17" t="n">
-        <v>9.614602447527432e-10</v>
+        <v>5.403806426329538e-06</v>
       </c>
       <c r="EO17" t="n">
-        <v>4.810973841529176e-09</v>
+        <v>2.228117864433443e-06</v>
       </c>
       <c r="EP17" t="n">
-        <v>2.631437290290251e-09</v>
+        <v>8.25400093162898e-06</v>
       </c>
       <c r="EQ17" t="n">
-        <v>9.462217676059481e-09</v>
+        <v>7.230170922412071e-06</v>
       </c>
       <c r="ER17" t="n">
-        <v>6.882281411435542e-09</v>
+        <v>1.266184153791983e-05</v>
       </c>
       <c r="ES17" t="n">
-        <v>1.949510419763101e-08</v>
+        <v>5.302104909787886e-06</v>
       </c>
       <c r="ET17" t="n">
-        <v>8.108104410098349e-09</v>
+        <v>6.97286986905965e-06</v>
       </c>
       <c r="EU17" t="n">
-        <v>8.050367483747323e-09</v>
+        <v>9.989112186303828e-07</v>
       </c>
       <c r="EV17" t="n">
-        <v>1.614153610773883e-08</v>
+        <v>2.783749914669897e-05</v>
       </c>
       <c r="EW17" t="n">
-        <v>6.027970567146212e-09</v>
+        <v>1.932708255480975e-05</v>
       </c>
       <c r="EX17" t="n">
-        <v>9.412180368428835e-09</v>
+        <v>1.700878442534304e-06</v>
       </c>
       <c r="EY17" t="n">
-        <v>1.114189895901063e-08</v>
+        <v>2.024228933805716e-06</v>
       </c>
       <c r="EZ17" t="n">
-        <v>7.345555719240338e-09</v>
+        <v>1.019489332065859e-06</v>
       </c>
       <c r="FA17" t="n">
-        <v>1.233334323558211e-08</v>
+        <v>9.684795259090606e-07</v>
       </c>
       <c r="FB17" t="n">
-        <v>1.065559906976432e-08</v>
+        <v>8.194044312404003e-06</v>
       </c>
       <c r="FC17" t="n">
-        <v>2.588554037785684e-09</v>
+        <v>1.768353286024649e-05</v>
       </c>
       <c r="FD17" t="n">
-        <v>7.411377289656684e-09</v>
+        <v>9.144535397354048e-06</v>
       </c>
       <c r="FE17" t="n">
-        <v>5.496496591206324e-09</v>
+        <v>1.340336166322231e-05</v>
       </c>
       <c r="FF17" t="n">
-        <v>1.468067889476288e-09</v>
+        <v>3.323086275486276e-06</v>
       </c>
       <c r="FG17" t="n">
-        <v>1.768835922177914e-08</v>
+        <v>5.574707302002935e-06</v>
       </c>
       <c r="FH17" t="n">
-        <v>5.636684896614952e-09</v>
+        <v>7.37645950721344e-06</v>
       </c>
       <c r="FI17" t="n">
-        <v>6.681307951339477e-09</v>
+        <v>7.989605364855379e-06</v>
       </c>
       <c r="FJ17" t="n">
-        <v>1.694938589480444e-08</v>
+        <v>1.550434535602108e-05</v>
       </c>
       <c r="FK17" t="n">
-        <v>1.176454578200037e-08</v>
+        <v>7.602463028888451e-06</v>
       </c>
       <c r="FL17" t="n">
-        <v>2.164147439032149e-08</v>
+        <v>1.578780211275443e-05</v>
       </c>
       <c r="FM17" t="n">
-        <v>4.88263651732268e-09</v>
+        <v>5.547090040636249e-06</v>
       </c>
       <c r="FN17" t="n">
-        <v>5.373568257027728e-09</v>
+        <v>1.502699888078496e-06</v>
       </c>
       <c r="FO17" t="n">
-        <v>9.108208409713825e-09</v>
+        <v>1.566126798024925e-06</v>
       </c>
       <c r="FP17" t="n">
-        <v>1.908338020939482e-08</v>
+        <v>2.023197794187581e-06</v>
       </c>
       <c r="FQ17" t="n">
-        <v>2.365936779824551e-08</v>
+        <v>1.292723391088657e-05</v>
       </c>
       <c r="FR17" t="n">
-        <v>1.283375894445271e-08</v>
+        <v>1.871930635388708e-06</v>
       </c>
       <c r="FS17" t="n">
-        <v>1.124166892907397e-08</v>
+        <v>1.292261003982276e-06</v>
       </c>
       <c r="FT17" t="n">
-        <v>5.840306016580143e-11</v>
+        <v>2.970270725199953e-05</v>
       </c>
       <c r="FU17" t="n">
-        <v>6.81900869103913e-10</v>
+        <v>2.053229945886414e-05</v>
       </c>
       <c r="FV17" t="n">
-        <v>1.079890843413978e-09</v>
+        <v>3.537444626999786e-06</v>
       </c>
       <c r="FW17" t="n">
-        <v>1.604331334448261e-09</v>
+        <v>6.724016202497296e-06</v>
       </c>
       <c r="FX17" t="n">
-        <v>2.188370595845868e-09</v>
+        <v>1.144425004895311e-05</v>
       </c>
       <c r="FY17" t="n">
-        <v>8.963721320753848e-09</v>
+        <v>7.653505235794e-06</v>
       </c>
       <c r="FZ17" t="n">
-        <v>1.862746401570803e-08</v>
+        <v>3.330958179503796e-06</v>
       </c>
       <c r="GA17" t="n">
-        <v>7.207473284864818e-09</v>
+        <v>7.924590136099141e-06</v>
       </c>
       <c r="GB17" t="n">
-        <v>1.190931619987623e-08</v>
+        <v>6.648491762462072e-06</v>
       </c>
       <c r="GC17" t="n">
-        <v>1.679099526086247e-08</v>
+        <v>2.359005156904459e-05</v>
       </c>
       <c r="GD17" t="n">
-        <v>2.340093452346537e-09</v>
+        <v>3.530037702148547e-06</v>
       </c>
       <c r="GE17" t="n">
-        <v>1.928089332636773e-08</v>
+        <v>6.094596301409183e-06</v>
       </c>
       <c r="GF17" t="n">
-        <v>1.532085214250856e-08</v>
+        <v>8.010078090592287e-06</v>
       </c>
       <c r="GG17" t="n">
-        <v>1.760137635642423e-08</v>
+        <v>5.458432497107424e-06</v>
       </c>
     </row>
   </sheetData>
